--- a/Test Plan_QA47_Team-6.xlsx
+++ b/Test Plan_QA47_Team-6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Karis\OneDrive\Training\SanberCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A26B63-4F02-4452-AA82-4C1D0F43818D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40934912-5A0E-4584-9685-4B4D104C0B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="589" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="589" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="294">
   <si>
     <t>PROJECT TITLE              :</t>
   </si>
@@ -423,12 +423,6 @@
     <t>Verifikasi dapat beralih dari tampilan daftar ke kisi</t>
   </si>
   <si>
-    <t>Verifikasi dapat menampilkan judul dan gambar produk</t>
-  </si>
-  <si>
-    <t>Verifikasi menunjukkan harga produk</t>
-  </si>
-  <si>
     <t>Verifikasi dapat menambahkan produk ke keranjang</t>
   </si>
   <si>
@@ -445,12 +439,6 @@
   </si>
   <si>
     <t>Verifikasi dapat menghapus produk dari keranjang</t>
-  </si>
-  <si>
-    <t>Verifikasi dapat menambahkan kupon ke keranjang</t>
-  </si>
-  <si>
-    <t>Verifikasi dapat menghapus kupon tambahan dari keranjang</t>
   </si>
   <si>
     <t>Verifikasi tidak dapat menambahkan kupon yang tidak ada</t>
@@ -520,9 +508,6 @@
   </si>
   <si>
     <t>Verifikasi dapat mengurutkan produk berdasarkan nama produk dari terendah ke tertinggi</t>
-  </si>
-  <si>
-    <t>Verifikasi dapat melihat details dan informasi produk</t>
   </si>
   <si>
     <t>TC-B03</t>
@@ -597,12 +582,6 @@
     <t>TC-D07</t>
   </si>
   <si>
-    <t>TC-D08</t>
-  </si>
-  <si>
-    <t>TC-D09</t>
-  </si>
-  <si>
     <t>TC-E03</t>
   </si>
   <si>
@@ -670,18 +649,6 @@
     <t>TC-C13</t>
   </si>
   <si>
-    <t>TC-C14</t>
-  </si>
-  <si>
-    <t>TC-C15</t>
-  </si>
-  <si>
-    <t>TC-C16</t>
-  </si>
-  <si>
-    <t>TC-C17</t>
-  </si>
-  <si>
     <t>Account registration test</t>
   </si>
   <si>
@@ -735,6 +702,482 @@
   <si>
     <t>High</t>
   </si>
+  <si>
+    <t xml:space="preserve">user berhasil menambahkan barang ke keranjang </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lydia </t>
+  </si>
+  <si>
+    <t>Menu : Cart tests</t>
+  </si>
+  <si>
+    <t>1. masuk ke URL https://magento.softwaretestingboard.com/ 
+2. Pilih produk barang yang akan dimasukan keranjang 
+3. Pilih Size Chart 
+4. Pilih Warna 
+5. Klik Button "Add to Chart"</t>
+  </si>
+  <si>
+    <t>Nama Produk : Radiant Tee 
+Size : XS
+Warna : Blue 
+Qty : 1</t>
+  </si>
+  <si>
+    <t>Nama Produk : Radiant Tee 
+Size : XS
+Warna : Blue 
+Qty : 5</t>
+  </si>
+  <si>
+    <t>User dapat mengubah jumlah barang dalam keranjang</t>
+  </si>
+  <si>
+    <t>1. Pilih Size 
+2. Pilih Warna 
+3. Inputkan Jumlah Qty 0 
+4. Klik "Add to Chart"</t>
+  </si>
+  <si>
+    <t>Nama Produk : Radiant Tee 
+Size : XS
+Warna : Blue 
+Qty : 0</t>
+  </si>
+  <si>
+    <t>User tidak dapat menambahkan produk dengan qty 0 ke dalam keranjang
+Muncul Error Massage " Please enter a quantity greater than 0. "</t>
+  </si>
+  <si>
+    <t>1. Klik Mini Chart
+2. Klik "View and Edit Cart"
+3. Klik Icon "Remove Item"</t>
+  </si>
+  <si>
+    <t>User dapat menghapus produk dari keranjang</t>
+  </si>
+  <si>
+    <t>Sistem menampilkan harga dan total produk yang benar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Klik "Aplly Discount Code" 
+2. Input Discount Code yang tidak ada 
+3. Klik "Apply Discount" 
+</t>
+  </si>
+  <si>
+    <t>1. Nama Produk : Push It Messenger Bag
+Qty : 1
+Discount Code : Team6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Sistem Tidak dapat menambahkan kupon yang tidak ada
+2. muncul pesan "The coupon code "team6" is not valid."  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Klik "Proceed to Checkout" 
+2.Pilih Shipping Address 
+3. Klik Button "Next" 
+4. Klik "Place Order"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Pilih Produk lain yang ingin ditambahkan kekeranjang 
+2. Klik button " Add to Cart" 
+3. Klik "Mini Cart" 
+4. Klik "View and Edit cart" 
+5. Klik "Proceed to Checkout" 
+6. Pilih Shipping Address
+7. Klik "Next"
+8. Klik "Place Order" </t>
+  </si>
+  <si>
+    <t>1. Nama Produk : Radiant Tee 
+Size : XS
+Warna : Blue 
+Qty : 1 
+2. Nama Produk : Push It Messenger Bag
+Qty : 1</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Masuk ke URL https://magento.softwaretestingboard.com/
+2. Klik Sign In
+3. Input Username dan Password
+4. Klik "What's New"
+5. Scroll ke bawah, lalu klik gambar "Phoebe Zipper Sweatshirt"
+</t>
+  </si>
+  <si>
+    <t>Username : userjeje12@gmail.com
+Password : Password12
+Nama Produk : Phoebe Zipper Sweatshirt
+Size : XL
+Warna : Gray
+Qty : 1</t>
+  </si>
+  <si>
+    <t>user berhasil menampilkan data satu produk</t>
+  </si>
+  <si>
+    <t>User redirect ke halaman produk phoebe-zipper-sweatshirt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Masuk ke URL https://magento.softwaretestingboard.com/
+2. Klik Sign In
+3. Input Username dan Password
+4. Klik search
+5. Input kata kunci "baju renang"
+6. Klik enter
+</t>
+  </si>
+  <si>
+    <t>Username : userjeje12@gmail.com
+Password : Password12
+Nama Produk : baju renang</t>
+  </si>
+  <si>
+    <t>1. Masuk ke URL https://magento.softwaretestingboard.com/
+2. Klik Sign In
+3. Input Username dan Password
+4. Klik search
+5. Input kata kunci "oli"</t>
+  </si>
+  <si>
+    <t>Username : userjeje12@gmail.com
+Password : Password12
+Nama Produk : oli</t>
+  </si>
+  <si>
+    <t>1. Masuk ke URL https://magento.softwaretestingboard.com/
+2. Klik Sign In
+3. Input Username dan Password
+4. Sorot menu "Gear"
+5. Pilih "Bags"</t>
+  </si>
+  <si>
+    <t>Username : userjeje12@gmail.com
+Password : Password12</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Masuk ke URL https://magento.softwaretestingboard.com/
+2. Klik Sign In
+3. Input Username dan Password
+4. Sorot menu "Gear"
+5. Pilih "Bags"
+6. Pilih "Position" pada menu Sort By
+7. Klik icon </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>↑↓</t>
+    </r>
+  </si>
+  <si>
+    <t>user menampilkan halaman yang mengurutkan produk berdasarkan posisi dari terendah ke tertinggi</t>
+  </si>
+  <si>
+    <t>User menampilkan 12 item Bags yang sudah terurut berdasarkan posisi</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Masuk ke URL https://magento.softwaretestingboard.com/
+2. Klik Sign In
+3. Input Username dan Password
+4. Sorot menu "Gear"
+5. Pilih "Bags"
+6. Pilih "Product Name" pada menu Sort By
+7. Klik icon </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>↑↓</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Masuk ke URL https://magento.softwaretestingboard.com/
+2. Klik Sign In
+3. Input Username dan Password
+4. Sorot menu "Gear"
+5. Pilih "Bags"
+6. Pilih "Price" pada menu Sort By
+7. Klik icon </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>↑↓</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Masuk ke URL https://magento.softwaretestingboard.com/
+2. Klik Sign In
+3. Input Username dan Password
+4. Sorot menu "Gear"
+5. Pilih "Bags"
+6. Scroll ke bawah, klik &gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> atau angka 2 untuk next
+7. Klik &lt; atau angka 1 untuk Previous</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+8. Klik "Show per page" bisa memilih 12,24,36</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Masuk ke URL https://magento.softwaretestingboard.com/
+2. Klik Sign In
+3. Input Username dan Password
+4. Sorot menu "Gear"
+5. Pilih "Bags"
+6. Klik "List" untuk membuat tampilan produk menjadi daftar ke bawah
+7. Klik "Grid" untuk membuat tampilan produk menjadi kisi ke pinggir</t>
+  </si>
+  <si>
+    <t>Username : userjeje12@gmail.com
+Password : Password12
+Produk : Push It Messenger Bag</t>
+  </si>
+  <si>
+    <t>Username : userjeje12@gmail.com
+Password : Password12
+Nama Produk : Push It Messenger Bag
+Qty : 1</t>
+  </si>
+  <si>
+    <t>1. Masuk ke URL https://magento.softwaretestingboard.com/
+2. Klik Sign In
+3. Input Username dan Password
+4. Sorot menu "Gear"
+5. Pilih "Bags"
+6. Klik produk "Push It Messenger Bag"
+7. Klik "ADD TO WISH LIST"</t>
+  </si>
+  <si>
+    <t>1. Masuk ke URL https://magento.softwaretestingboard.com/
+2. Klik Sign In
+3. Input Username dan Password
+4. Sorot menu "Gear"
+5. Pilih "Bags"
+6. Klik produk "Push It Messenger Bag"
+7. Scroll ke bawah
+8. Klik "Reviews"</t>
+  </si>
+  <si>
+    <t>1. Masuk ke URL https://magento.softwaretestingboard.com/
+2. Klik Sign In
+3. Input Username dan Password
+4. Sorot menu "Gear"
+5. Pilih "Bags"
+6. Klik produk "Push It Messenger Bag"
+7. Klik "Add Your Review"
+8. Input Rating, Nickname, Summary, Review
+9. Klik "Submit Review"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User redirect ke halaman search result dengan menampilkan pesan </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Your search returned no results. Related search terms"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Akan memunculkan pesan peringatan </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Your search returned no results. Related search terms"</t>
+    </r>
+  </si>
+  <si>
+    <t>User dapat melihat 8 saran produk yang mengandung nama "oli"</t>
+  </si>
+  <si>
+    <t>User melihat saran atau list saat memasukkan kata kunci pencarian</t>
+  </si>
+  <si>
+    <t>User dapat menampilkan halaman kategori peralatan/gear dan memfilter produk pada Tas/Bags</t>
+  </si>
+  <si>
+    <t>User dapat membuka halaman kategori gear dan memfilter produk Bags</t>
+  </si>
+  <si>
+    <t>Filter befungsi dengan baik</t>
+  </si>
+  <si>
+    <t>User dapat melihat item yang muncul sesuai urutan terendah sampai tertinggi</t>
+  </si>
+  <si>
+    <t>User dapat melihat item yang muncul sesuai urutan harga terendah sampai tertinggi</t>
+  </si>
+  <si>
+    <t>User dapat melihat  halaman sesuai pagination yang dipilih</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User dapat melihat pagination yang dipilih 12,24,36 </t>
+  </si>
+  <si>
+    <t>User melihat list produk dari daftar ke kisi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampilan berubah sesuai dengan icon ( Grid/ist ) view yang pilih </t>
+  </si>
+  <si>
+    <t>User dapat melihat informasi produk secara detail</t>
+  </si>
+  <si>
+    <t>Verifikasi dapat menampilkan detail produk ( judul, gambar  harga dan informasi tambahan )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Masuk ke URL https://magento.softwaretestingboard.com/
+2. Klik Sign In
+3. Input Username dan Password
+4. Sorot menu "Gear"
+5. Pilih "Bags"
+6. Klik produk "Push It Messenger Bag"
+7. Verifikasi halaman produk yang dipilih ( Judul, harga, gambar)
+8. Klik dan verifikasi pada tampilan tab Detail, More Informasion and Review muncul dengan baik </t>
+  </si>
+  <si>
+    <t>Produk menampilkan secara detail ( judul, gambar, harga dan informasi tambahan yang lain )</t>
+  </si>
+  <si>
+    <t>User dapat menambahkan satu produk wishlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User berhasil menambahkan produk ke wishlist </t>
+  </si>
+  <si>
+    <t>User menambahkan ulasan terhadap produk yang pilih</t>
+  </si>
+  <si>
+    <t>User dapat melihat ulasan terhadap produk yang pilih</t>
+  </si>
+  <si>
+    <t>User berhasil menambahkan ulasan terhadap produk yang pilih</t>
+  </si>
+  <si>
+    <t>Menu : Select Product(s) and Add to cart</t>
+  </si>
+  <si>
+    <t>User berhasil menghapus produk dari keranjang</t>
+  </si>
+  <si>
+    <t>User berhasil mengubah jumlah barang dalam keranjang</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Sistem Tidak dapat menambahkan kupon yang tidak ada 
+2. muncul pesan</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "The coupon code "team6" is not valid."  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User tidak dapat menambahkan produk dengan qty 0 ke dalam keranjang
+Muncul Error Massage </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" Please enter a quantity greater than 0. "</t>
+    </r>
+  </si>
+  <si>
+    <t>User dapat melihat harga dan total produk yang benar</t>
+  </si>
+  <si>
+    <t>Verifikasi dapat menggabungkan barang yang sudah dalam keranjang dengan barang yang baru dipilih</t>
+  </si>
+  <si>
+    <t>User berhasil checkout denganbarang yang sudah dalam keranjang dengan barang yang baru dipilih</t>
+  </si>
+  <si>
+    <t>1. Pilih Mini Chart 
+2. Klik Pada Qty 
+3. Inputkan Jumlah barang yang ingin dirubah 
+4. Klik "Update"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buka ke URL https://magento.softwaretestingboard.com/
+</t>
+  </si>
+  <si>
+    <t>TC-C08</t>
+  </si>
 </sst>
 </file>
 
@@ -743,7 +1186,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d&quot; &quot;mmm&quot; &quot;"/>
   </numFmts>
-  <fonts count="50">
+  <fonts count="56">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1082,6 +1525,48 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF298700"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -1283,7 +1768,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="76">
+  <borders count="79">
     <border>
       <left/>
       <right/>
@@ -2055,19 +2540,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -2190,12 +2662,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2392,9 +2912,6 @@
     <xf numFmtId="0" fontId="46" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2407,7 +2924,7 @@
     <xf numFmtId="0" fontId="23" fillId="31" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="16" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="16" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2415,12 +2932,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2440,27 +2951,81 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="49" fillId="22" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="49" fillId="23" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="22" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="23" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2470,94 +3035,6 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2579,34 +3056,148 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="25" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="25" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="25" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2615,37 +3206,7 @@
     <xf numFmtId="0" fontId="23" fillId="31" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2657,13 +3218,61 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2717,98 +3326,157 @@
     <xf numFmtId="0" fontId="14" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="22" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="23" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="22" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="23" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="25" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="25" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="25" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3225,8 +3893,8 @@
   </sheetPr>
   <dimension ref="A1:Y992"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3244,19 +3912,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="34" customFormat="1" ht="30">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="164" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
       <c r="L1" s="35"/>
       <c r="M1" s="35"/>
       <c r="N1" s="35"/>
@@ -3273,13 +3941,13 @@
       <c r="Y1" s="35"/>
     </row>
     <row r="2" spans="1:25" ht="3" customHeight="1">
-      <c r="A2" s="104"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -3300,17 +3968,17 @@
       <c r="Y2" s="1"/>
     </row>
     <row r="3" spans="1:25" s="33" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="108" t="s">
+      <c r="B3" s="169"/>
+      <c r="C3" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="109"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
       <c r="J3" s="32"/>
@@ -3331,17 +3999,17 @@
       <c r="Y3" s="32"/>
     </row>
     <row r="4" spans="1:25" s="33" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="108" t="s">
+      <c r="B4" s="169"/>
+      <c r="C4" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="109"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="173"/>
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
       <c r="J4" s="32"/>
@@ -3362,13 +4030,13 @@
       <c r="Y4" s="32"/>
     </row>
     <row r="5" spans="1:25" ht="6" customHeight="1">
-      <c r="A5" s="104"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
+      <c r="A5" s="114"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -3389,17 +4057,17 @@
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:25" s="37" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
@@ -3415,20 +4083,20 @@
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="115" t="s">
+      <c r="C7" s="118"/>
+      <c r="D7" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="116"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="114" t="s">
+      <c r="E7" s="177"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
+      <c r="H7" s="175"/>
+      <c r="I7" s="175"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -3443,23 +4111,23 @@
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:25" s="25" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A8" s="91">
+      <c r="A8" s="88">
         <v>1</v>
       </c>
-      <c r="B8" s="129" t="s">
+      <c r="B8" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="130"/>
-      <c r="D8" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="E8" s="95"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="126" t="s">
+      <c r="C8" s="141"/>
+      <c r="D8" s="147" t="s">
+        <v>211</v>
+      </c>
+      <c r="E8" s="148"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
@@ -3475,23 +4143,23 @@
       <c r="V8" s="24"/>
     </row>
     <row r="9" spans="1:25" s="25" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A9" s="91">
+      <c r="A9" s="88">
         <v>2</v>
       </c>
-      <c r="B9" s="129" t="s">
+      <c r="B9" s="140" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="130"/>
-      <c r="D9" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="E9" s="95"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="128" t="s">
+      <c r="C9" s="141"/>
+      <c r="D9" s="147" t="s">
+        <v>212</v>
+      </c>
+      <c r="E9" s="148"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="128"/>
-      <c r="I9" s="128"/>
+      <c r="H9" s="139"/>
+      <c r="I9" s="139"/>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
@@ -3507,23 +4175,23 @@
       <c r="V9" s="24"/>
     </row>
     <row r="10" spans="1:25" s="25" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A10" s="91">
+      <c r="A10" s="88">
         <v>3</v>
       </c>
-      <c r="B10" s="129" t="s">
+      <c r="B10" s="140" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="130"/>
-      <c r="D10" s="94" t="s">
-        <v>224</v>
-      </c>
-      <c r="E10" s="95"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="127" t="s">
+      <c r="C10" s="141"/>
+      <c r="D10" s="147" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10" s="148"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
@@ -3531,166 +4199,166 @@
       <c r="V10" s="24"/>
     </row>
     <row r="11" spans="1:25" s="25" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A11" s="91">
+      <c r="A11" s="88">
         <v>4</v>
       </c>
-      <c r="B11" s="129" t="s">
+      <c r="B11" s="140" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="130"/>
-      <c r="D11" s="94" t="s">
-        <v>225</v>
-      </c>
-      <c r="E11" s="95"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="125" t="s">
+      <c r="C11" s="141"/>
+      <c r="D11" s="147" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" s="148"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="125"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="136"/>
       <c r="J11" s="24"/>
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
-      <c r="Q11" s="98" t="s">
+      <c r="Q11" s="165" t="s">
         <v>53</v>
       </c>
-      <c r="R11" s="193" t="s">
+      <c r="R11" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="S11" s="194" t="s">
+      <c r="S11" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="T11" s="195"/>
-      <c r="U11" s="211"/>
+      <c r="T11" s="93"/>
+      <c r="U11" s="101"/>
     </row>
     <row r="12" spans="1:25" s="25" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A12" s="91">
+      <c r="A12" s="88">
         <v>5</v>
       </c>
-      <c r="B12" s="129" t="s">
+      <c r="B12" s="140" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="130"/>
-      <c r="D12" s="94" t="s">
-        <v>226</v>
-      </c>
-      <c r="E12" s="95"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="147" t="s">
+      <c r="C12" s="141"/>
+      <c r="D12" s="147" t="s">
+        <v>215</v>
+      </c>
+      <c r="E12" s="148"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="147"/>
-      <c r="I12" s="147"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="146"/>
       <c r="J12" s="24"/>
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
-      <c r="Q12" s="99"/>
-      <c r="R12" s="196"/>
-      <c r="S12" s="197" t="s">
+      <c r="Q12" s="166"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="T12" s="198"/>
-      <c r="U12" s="211"/>
+      <c r="T12" s="96"/>
+      <c r="U12" s="101"/>
     </row>
     <row r="13" spans="1:25" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A13" s="104"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105"/>
+      <c r="A13" s="114"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="99"/>
-      <c r="R13" s="199"/>
-      <c r="S13" s="200" t="s">
+      <c r="Q13" s="166"/>
+      <c r="R13" s="97"/>
+      <c r="S13" s="156" t="s">
         <v>55</v>
       </c>
-      <c r="T13" s="201"/>
+      <c r="T13" s="157"/>
       <c r="U13" s="45">
         <f>T11+T12</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A14" s="131" t="s">
+      <c r="A14" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="132"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="132"/>
-      <c r="K14" s="132"/>
-      <c r="L14" s="132"/>
-      <c r="M14" s="132"/>
-      <c r="N14" s="132"/>
-      <c r="O14" s="132"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="143"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="143"/>
+      <c r="N14" s="143"/>
+      <c r="O14" s="143"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="202" t="s">
+      <c r="Q14" s="166"/>
+      <c r="R14" s="153" t="s">
         <v>56</v>
       </c>
-      <c r="S14" s="194" t="s">
+      <c r="S14" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="T14" s="203"/>
+      <c r="T14" s="98"/>
       <c r="U14" s="38"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="135" t="s">
+      <c r="B15" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="113"/>
-      <c r="D15" s="135" t="s">
+      <c r="C15" s="118"/>
+      <c r="D15" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="136"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="133" t="s">
+      <c r="E15" s="117"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="144" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="134"/>
-      <c r="I15" s="134"/>
-      <c r="J15" s="134"/>
-      <c r="K15" s="134"/>
-      <c r="L15" s="134"/>
-      <c r="M15" s="134"/>
-      <c r="N15" s="134"/>
-      <c r="O15" s="134"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="145"/>
+      <c r="K15" s="145"/>
+      <c r="L15" s="145"/>
+      <c r="M15" s="145"/>
+      <c r="N15" s="145"/>
+      <c r="O15" s="145"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="99"/>
-      <c r="R15" s="204"/>
-      <c r="S15" s="197" t="s">
+      <c r="Q15" s="166"/>
+      <c r="R15" s="154"/>
+      <c r="S15" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="T15" s="205"/>
+      <c r="T15" s="99"/>
       <c r="U15" s="39"/>
     </row>
     <row r="16" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A16" s="121"/>
-      <c r="B16" s="137"/>
-      <c r="C16" s="139"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="139"/>
+      <c r="A16" s="135"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="121"/>
       <c r="G16" s="3">
         <v>45132</v>
       </c>
@@ -3719,12 +4387,12 @@
         <v>45140</v>
       </c>
       <c r="P16" s="1"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="206"/>
-      <c r="S16" s="207" t="s">
+      <c r="Q16" s="166"/>
+      <c r="R16" s="158"/>
+      <c r="S16" s="159" t="s">
         <v>59</v>
       </c>
-      <c r="T16" s="208"/>
+      <c r="T16" s="160"/>
       <c r="U16" s="46">
         <f>T14+T15</f>
         <v>0</v>
@@ -3734,15 +4402,15 @@
       <c r="A17" s="61">
         <v>1</v>
       </c>
-      <c r="B17" s="101" t="s">
+      <c r="B17" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="103"/>
-      <c r="D17" s="101" t="s">
+      <c r="C17" s="124"/>
+      <c r="D17" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="102"/>
-      <c r="F17" s="103"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="124"/>
       <c r="G17" s="26"/>
       <c r="H17" s="60" t="s">
         <v>80</v>
@@ -3755,27 +4423,27 @@
       <c r="N17" s="59"/>
       <c r="O17" s="27"/>
       <c r="P17" s="9"/>
-      <c r="Q17" s="99"/>
-      <c r="R17" s="217" t="s">
+      <c r="Q17" s="166"/>
+      <c r="R17" s="161" t="s">
         <v>60</v>
       </c>
-      <c r="S17" s="218"/>
-      <c r="T17" s="219"/>
+      <c r="S17" s="162"/>
+      <c r="T17" s="163"/>
       <c r="U17" s="40"/>
     </row>
     <row r="18" spans="1:25" s="10" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A18" s="122">
+      <c r="A18" s="111">
         <v>2</v>
       </c>
-      <c r="B18" s="140" t="s">
+      <c r="B18" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="141"/>
-      <c r="D18" s="101" t="s">
-        <v>222</v>
-      </c>
-      <c r="E18" s="102"/>
-      <c r="F18" s="103"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="122" t="s">
+        <v>211</v>
+      </c>
+      <c r="E18" s="123"/>
+      <c r="F18" s="124"/>
       <c r="G18" s="9"/>
       <c r="I18" s="28"/>
       <c r="J18" s="28"/>
@@ -3785,26 +4453,26 @@
       <c r="N18" s="9"/>
       <c r="O18" s="27"/>
       <c r="P18" s="9"/>
-      <c r="Q18" s="100"/>
-      <c r="R18" s="220" t="s">
+      <c r="Q18" s="167"/>
+      <c r="R18" s="150" t="s">
         <v>61</v>
       </c>
-      <c r="S18" s="221"/>
-      <c r="T18" s="222"/>
+      <c r="S18" s="151"/>
+      <c r="T18" s="152"/>
       <c r="U18" s="41" t="e">
         <f>U13/(U13+U16+U17)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:25" s="10" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A19" s="123"/>
-      <c r="B19" s="142"/>
-      <c r="C19" s="143"/>
-      <c r="D19" s="101" t="s">
-        <v>223</v>
-      </c>
-      <c r="E19" s="102"/>
-      <c r="F19" s="103"/>
+      <c r="A19" s="112"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="122" t="s">
+        <v>212</v>
+      </c>
+      <c r="E19" s="123"/>
+      <c r="F19" s="124"/>
       <c r="G19" s="9"/>
       <c r="I19" s="28"/>
       <c r="J19" s="28"/>
@@ -3815,20 +4483,20 @@
       <c r="O19" s="27"/>
       <c r="P19" s="9"/>
       <c r="Q19"/>
-      <c r="R19" s="209"/>
-      <c r="S19" s="209"/>
-      <c r="T19" s="209"/>
-      <c r="U19" s="212"/>
+      <c r="R19" s="100"/>
+      <c r="S19" s="100"/>
+      <c r="T19" s="100"/>
+      <c r="U19" s="102"/>
     </row>
     <row r="20" spans="1:25" s="10" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A20" s="123"/>
-      <c r="B20" s="142"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="101" t="s">
-        <v>224</v>
-      </c>
-      <c r="E20" s="102"/>
-      <c r="F20" s="103"/>
+      <c r="A20" s="112"/>
+      <c r="B20" s="127"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="122" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20" s="123"/>
+      <c r="F20" s="124"/>
       <c r="G20" s="9"/>
       <c r="I20" s="28"/>
       <c r="J20" s="28"/>
@@ -3839,20 +4507,20 @@
       <c r="O20" s="27"/>
       <c r="P20" s="9"/>
       <c r="Q20"/>
-      <c r="R20" s="209"/>
-      <c r="S20" s="209"/>
-      <c r="T20" s="209"/>
-      <c r="U20" s="212"/>
+      <c r="R20" s="100"/>
+      <c r="S20" s="100"/>
+      <c r="T20" s="100"/>
+      <c r="U20" s="102"/>
     </row>
     <row r="21" spans="1:25" s="10" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A21" s="123"/>
-      <c r="B21" s="142"/>
-      <c r="C21" s="143"/>
-      <c r="D21" s="101" t="s">
-        <v>225</v>
-      </c>
-      <c r="E21" s="102"/>
-      <c r="F21" s="103"/>
+      <c r="A21" s="112"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="122" t="s">
+        <v>214</v>
+      </c>
+      <c r="E21" s="123"/>
+      <c r="F21" s="124"/>
       <c r="G21" s="9"/>
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
@@ -3862,27 +4530,27 @@
       <c r="N21" s="9"/>
       <c r="O21" s="27"/>
       <c r="P21" s="9"/>
-      <c r="Q21" s="98" t="s">
+      <c r="Q21" s="165" t="s">
         <v>62</v>
       </c>
-      <c r="R21" s="202" t="s">
+      <c r="R21" s="153" t="s">
         <v>54</v>
       </c>
-      <c r="S21" s="194" t="s">
+      <c r="S21" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="T21" s="213"/>
+      <c r="T21" s="103"/>
       <c r="U21" s="38"/>
     </row>
     <row r="22" spans="1:25" s="10" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A22" s="124"/>
-      <c r="B22" s="144"/>
-      <c r="C22" s="145"/>
-      <c r="D22" s="101" t="s">
-        <v>226</v>
-      </c>
-      <c r="E22" s="102"/>
-      <c r="F22" s="103"/>
+      <c r="A22" s="113"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="122" t="s">
+        <v>215</v>
+      </c>
+      <c r="E22" s="123"/>
+      <c r="F22" s="124"/>
       <c r="G22" s="9"/>
       <c r="I22" s="28"/>
       <c r="J22" s="28"/>
@@ -3892,27 +4560,27 @@
       <c r="N22" s="9"/>
       <c r="O22" s="27"/>
       <c r="P22" s="9"/>
-      <c r="Q22" s="99"/>
-      <c r="R22" s="204"/>
-      <c r="S22" s="197" t="s">
+      <c r="Q22" s="166"/>
+      <c r="R22" s="154"/>
+      <c r="S22" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="T22" s="214"/>
+      <c r="T22" s="104"/>
       <c r="U22" s="38"/>
     </row>
     <row r="23" spans="1:25" s="10" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A23" s="122">
+      <c r="A23" s="111">
         <v>3</v>
       </c>
-      <c r="B23" s="146" t="s">
+      <c r="B23" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="141"/>
-      <c r="D23" s="101" t="s">
-        <v>222</v>
-      </c>
-      <c r="E23" s="102"/>
-      <c r="F23" s="103"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="122" t="s">
+        <v>211</v>
+      </c>
+      <c r="E23" s="123"/>
+      <c r="F23" s="124"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
@@ -3921,26 +4589,26 @@
       <c r="N23" s="29"/>
       <c r="O23" s="27"/>
       <c r="P23" s="9"/>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="210"/>
-      <c r="S23" s="200" t="s">
+      <c r="Q23" s="166"/>
+      <c r="R23" s="155"/>
+      <c r="S23" s="156" t="s">
         <v>55</v>
       </c>
-      <c r="T23" s="201"/>
+      <c r="T23" s="157"/>
       <c r="U23" s="45">
         <f>T21+T22</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:25" s="10" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A24" s="123"/>
-      <c r="B24" s="142"/>
-      <c r="C24" s="143"/>
-      <c r="D24" s="101" t="s">
-        <v>223</v>
-      </c>
-      <c r="E24" s="102"/>
-      <c r="F24" s="103"/>
+      <c r="A24" s="112"/>
+      <c r="B24" s="127"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="122" t="s">
+        <v>212</v>
+      </c>
+      <c r="E24" s="123"/>
+      <c r="F24" s="124"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
@@ -3949,25 +4617,25 @@
       <c r="N24" s="29"/>
       <c r="O24" s="27"/>
       <c r="P24" s="9"/>
-      <c r="Q24" s="99"/>
-      <c r="R24" s="202" t="s">
+      <c r="Q24" s="166"/>
+      <c r="R24" s="153" t="s">
         <v>63</v>
       </c>
-      <c r="S24" s="194" t="s">
+      <c r="S24" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="T24" s="215"/>
+      <c r="T24" s="105"/>
       <c r="U24" s="38"/>
     </row>
     <row r="25" spans="1:25" s="10" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A25" s="123"/>
-      <c r="B25" s="142"/>
-      <c r="C25" s="143"/>
-      <c r="D25" s="101" t="s">
-        <v>224</v>
-      </c>
-      <c r="E25" s="102"/>
-      <c r="F25" s="103"/>
+      <c r="A25" s="112"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="122" t="s">
+        <v>213</v>
+      </c>
+      <c r="E25" s="123"/>
+      <c r="F25" s="124"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -3976,23 +4644,23 @@
       <c r="N25" s="29"/>
       <c r="O25" s="27"/>
       <c r="P25" s="9"/>
-      <c r="Q25" s="99"/>
-      <c r="R25" s="204"/>
-      <c r="S25" s="197" t="s">
+      <c r="Q25" s="166"/>
+      <c r="R25" s="154"/>
+      <c r="S25" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="T25" s="216"/>
+      <c r="T25" s="106"/>
       <c r="U25" s="39"/>
     </row>
     <row r="26" spans="1:25" s="10" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A26" s="123"/>
-      <c r="B26" s="142"/>
-      <c r="C26" s="143"/>
-      <c r="D26" s="101" t="s">
-        <v>225</v>
-      </c>
-      <c r="E26" s="102"/>
-      <c r="F26" s="103"/>
+      <c r="A26" s="112"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="122" t="s">
+        <v>214</v>
+      </c>
+      <c r="E26" s="123"/>
+      <c r="F26" s="124"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -4001,26 +4669,26 @@
       <c r="N26" s="29"/>
       <c r="O26" s="27"/>
       <c r="P26" s="9"/>
-      <c r="Q26" s="99"/>
-      <c r="R26" s="206"/>
-      <c r="S26" s="207" t="s">
+      <c r="Q26" s="166"/>
+      <c r="R26" s="158"/>
+      <c r="S26" s="159" t="s">
         <v>65</v>
       </c>
-      <c r="T26" s="208"/>
+      <c r="T26" s="160"/>
       <c r="U26" s="46">
         <f>T24+T25</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:25" s="10" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A27" s="124"/>
-      <c r="B27" s="144"/>
-      <c r="C27" s="145"/>
-      <c r="D27" s="101" t="s">
-        <v>226</v>
-      </c>
-      <c r="E27" s="102"/>
-      <c r="F27" s="103"/>
+      <c r="A27" s="113"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="122" t="s">
+        <v>215</v>
+      </c>
+      <c r="E27" s="123"/>
+      <c r="F27" s="124"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -4029,12 +4697,12 @@
       <c r="N27" s="29"/>
       <c r="O27" s="27"/>
       <c r="P27" s="9"/>
-      <c r="Q27" s="99"/>
-      <c r="R27" s="217" t="s">
+      <c r="Q27" s="166"/>
+      <c r="R27" s="161" t="s">
         <v>60</v>
       </c>
-      <c r="S27" s="218"/>
-      <c r="T27" s="219"/>
+      <c r="S27" s="162"/>
+      <c r="T27" s="163"/>
       <c r="U27" s="40">
         <v>0</v>
       </c>
@@ -4047,11 +4715,11 @@
         <v>17</v>
       </c>
       <c r="C28" s="63"/>
-      <c r="D28" s="101" t="s">
+      <c r="D28" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="102"/>
-      <c r="F28" s="103"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="124"/>
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
       <c r="I28" s="30"/>
@@ -4062,12 +4730,12 @@
       <c r="N28" s="30"/>
       <c r="O28" s="31"/>
       <c r="P28" s="9"/>
-      <c r="Q28" s="100"/>
-      <c r="R28" s="220" t="s">
+      <c r="Q28" s="167"/>
+      <c r="R28" s="150" t="s">
         <v>61</v>
       </c>
-      <c r="S28" s="221"/>
-      <c r="T28" s="222"/>
+      <c r="S28" s="151"/>
+      <c r="T28" s="152"/>
       <c r="U28" s="41" t="e">
         <f>U23/(U23+U26+U27)</f>
         <v>#DIV/0!</v>
@@ -30103,17 +30771,42 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="D15:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="B18:C22"/>
-    <mergeCell ref="B23:C27"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="Q21:Q28"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="Q11:Q18"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="R24:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="R14:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="R18:T18"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A18:A22"/>
@@ -30129,52 +30822,27 @@
     <mergeCell ref="G15:O15"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="R14:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="R24:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="R21:R23"/>
-    <mergeCell ref="Q11:Q18"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D12:F12"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="Q21:Q28"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="D15:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="B18:C22"/>
+    <mergeCell ref="B23:C27"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G8:H8" location="'Test Case A'!A1" display="Test Case A" xr:uid="{F54C9EA9-9EDF-4C21-BC2B-E19C2489662B}"/>
-    <hyperlink ref="G9:H9" location="'Test Case B'!A1" display="Test Case B" xr:uid="{64CA9C55-9C60-44BA-AE8E-C5A3019E42B5}"/>
-    <hyperlink ref="G10:H10" location="'Test Case C'!A1" display="Test Case C" xr:uid="{8EE975A3-31BA-4DC8-9BA3-10A8A6D2BC15}"/>
-    <hyperlink ref="G11:H11" location="'Test Case D'!A1" display="Test Case D" xr:uid="{A4D57017-366F-484E-9305-108B3C57A165}"/>
-    <hyperlink ref="G12:H12" location="'Test Case E'!A1" display="Test Case E" xr:uid="{A3084602-0A81-4842-B1FA-829623758C2A}"/>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{7E8BF788-509B-4BC1-B093-D0243A7A7B0B}"/>
+    <hyperlink ref="G8:H8" location="'Test Case A'!A1" display="Test Case A" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G9:H9" location="'Test Case B'!A1" display="Test Case B" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G10:H10" location="'Test Case C'!A1" display="Test Case C" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G11:H11" location="'Test Case D'!A1" display="Test Case D" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G12:H12" location="'Test Case E'!A1" display="Test Case E" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -30182,11 +30850,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4477EDA9-2FB8-44DD-B693-5FE6173B6B4B}">
-  <dimension ref="A1:H73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="B13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -30195,24 +30863,24 @@
     <col min="5" max="5" width="18.28515625" style="68" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" style="68" customWidth="1"/>
     <col min="7" max="7" width="138.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" thickBot="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="200" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="154"/>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="201"/>
     </row>
     <row r="2" spans="1:8" s="67" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A2" s="80" t="s">
-        <v>193</v>
+      <c r="A2" s="79" t="s">
+        <v>186</v>
       </c>
       <c r="B2" s="65" t="s">
         <v>82</v>
@@ -30237,16 +30905,16 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="165" t="s">
-        <v>198</v>
-      </c>
-      <c r="B3" s="168" t="s">
+      <c r="A3" s="179" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="180" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="169" t="s">
-        <v>210</v>
-      </c>
-      <c r="D3" s="170"/>
+      <c r="C3" s="181" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="184"/>
       <c r="E3" s="76" t="s">
         <v>26</v>
       </c>
@@ -30257,110 +30925,110 @@
       <c r="H3" s="74"/>
     </row>
     <row r="4" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A4" s="165"/>
-      <c r="B4" s="168"/>
-      <c r="C4" s="157"/>
-      <c r="D4" s="171"/>
+      <c r="A4" s="179"/>
+      <c r="B4" s="180"/>
+      <c r="C4" s="182"/>
+      <c r="D4" s="185"/>
       <c r="E4" s="76" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="72"/>
       <c r="G4" s="73" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="H4" s="74"/>
     </row>
     <row r="5" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="165"/>
-      <c r="B5" s="168"/>
-      <c r="C5" s="157"/>
-      <c r="D5" s="171"/>
+      <c r="A5" s="179"/>
+      <c r="B5" s="180"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="185"/>
       <c r="E5" s="76" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F5" s="72"/>
       <c r="G5" s="73" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="H5" s="74"/>
     </row>
     <row r="6" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A6" s="165"/>
-      <c r="B6" s="168"/>
-      <c r="C6" s="157"/>
-      <c r="D6" s="171"/>
+      <c r="A6" s="179"/>
+      <c r="B6" s="180"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="185"/>
       <c r="E6" s="76" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F6" s="72"/>
       <c r="G6" s="73" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="H6" s="74"/>
     </row>
     <row r="7" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A7" s="165"/>
-      <c r="B7" s="168"/>
-      <c r="C7" s="157"/>
-      <c r="D7" s="171"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="180"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="185"/>
       <c r="E7" s="76" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F7" s="72"/>
       <c r="G7" s="73" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="H7" s="74"/>
     </row>
     <row r="8" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A8" s="165"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="157"/>
-      <c r="D8" s="171"/>
+      <c r="A8" s="179"/>
+      <c r="B8" s="180"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="185"/>
       <c r="E8" s="76" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F8" s="72"/>
       <c r="G8" s="73" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="H8" s="74"/>
     </row>
     <row r="9" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A9" s="165"/>
-      <c r="B9" s="168"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="171"/>
+      <c r="A9" s="179"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="185"/>
       <c r="E9" s="76" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F9" s="72"/>
       <c r="G9" s="73" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="H9" s="74"/>
     </row>
     <row r="10" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A10" s="165"/>
-      <c r="B10" s="168"/>
-      <c r="C10" s="157"/>
-      <c r="D10" s="171"/>
+      <c r="A10" s="179"/>
+      <c r="B10" s="180"/>
+      <c r="C10" s="182"/>
+      <c r="D10" s="185"/>
       <c r="E10" s="76" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F10" s="72"/>
       <c r="G10" s="73" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H10" s="74"/>
     </row>
     <row r="11" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A11" s="165"/>
-      <c r="B11" s="168"/>
-      <c r="C11" s="158"/>
-      <c r="D11" s="172"/>
+      <c r="A11" s="179"/>
+      <c r="B11" s="180"/>
+      <c r="C11" s="183"/>
+      <c r="D11" s="186"/>
       <c r="E11" s="76" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F11" s="72"/>
       <c r="G11" s="75" t="s">
@@ -30369,46 +31037,46 @@
       <c r="H11" s="74"/>
     </row>
     <row r="12" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A12" s="174" t="s">
-        <v>199</v>
-      </c>
-      <c r="B12" s="161" t="s">
+      <c r="A12" s="192" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" s="190" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="159" t="s">
-        <v>211</v>
-      </c>
-      <c r="D12" s="173"/>
+      <c r="C12" s="188" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="187"/>
       <c r="E12" s="77" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="72"/>
       <c r="G12" s="75" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="H12" s="74"/>
     </row>
     <row r="13" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A13" s="175"/>
-      <c r="B13" s="151"/>
-      <c r="C13" s="155"/>
-      <c r="D13" s="171"/>
+      <c r="A13" s="193"/>
+      <c r="B13" s="191"/>
+      <c r="C13" s="189"/>
+      <c r="D13" s="185"/>
       <c r="E13" s="77" t="s">
         <v>31</v>
       </c>
       <c r="F13" s="72"/>
       <c r="G13" s="75" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="H13" s="74"/>
     </row>
     <row r="14" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A14" s="175"/>
-      <c r="B14" s="151"/>
-      <c r="C14" s="155"/>
-      <c r="D14" s="171"/>
+      <c r="A14" s="193"/>
+      <c r="B14" s="191"/>
+      <c r="C14" s="189"/>
+      <c r="D14" s="185"/>
       <c r="E14" s="77" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F14" s="72"/>
       <c r="G14" s="75" t="s">
@@ -30417,12 +31085,12 @@
       <c r="H14" s="74"/>
     </row>
     <row r="15" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A15" s="175"/>
-      <c r="B15" s="151"/>
-      <c r="C15" s="155"/>
-      <c r="D15" s="171"/>
+      <c r="A15" s="193"/>
+      <c r="B15" s="191"/>
+      <c r="C15" s="189"/>
+      <c r="D15" s="185"/>
       <c r="E15" s="77" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F15" s="72"/>
       <c r="G15" s="75" t="s">
@@ -30431,12 +31099,12 @@
       <c r="H15" s="74"/>
     </row>
     <row r="16" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A16" s="175"/>
-      <c r="B16" s="151"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="171"/>
+      <c r="A16" s="193"/>
+      <c r="B16" s="191"/>
+      <c r="C16" s="189"/>
+      <c r="D16" s="185"/>
       <c r="E16" s="77" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F16" s="72"/>
       <c r="G16" s="75" t="s">
@@ -30445,12 +31113,12 @@
       <c r="H16" s="74"/>
     </row>
     <row r="17" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A17" s="175"/>
-      <c r="B17" s="151"/>
-      <c r="C17" s="155"/>
-      <c r="D17" s="171"/>
+      <c r="A17" s="193"/>
+      <c r="B17" s="191"/>
+      <c r="C17" s="189"/>
+      <c r="D17" s="185"/>
       <c r="E17" s="77" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F17" s="72"/>
       <c r="G17" s="75" t="s">
@@ -30459,12 +31127,12 @@
       <c r="H17" s="74"/>
     </row>
     <row r="18" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A18" s="175"/>
-      <c r="B18" s="151"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="171"/>
+      <c r="A18" s="193"/>
+      <c r="B18" s="191"/>
+      <c r="C18" s="189"/>
+      <c r="D18" s="185"/>
       <c r="E18" s="77" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F18" s="72"/>
       <c r="G18" s="75" t="s">
@@ -30473,12 +31141,12 @@
       <c r="H18" s="74"/>
     </row>
     <row r="19" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A19" s="175"/>
-      <c r="B19" s="151"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="171"/>
+      <c r="A19" s="193"/>
+      <c r="B19" s="191"/>
+      <c r="C19" s="189"/>
+      <c r="D19" s="185"/>
       <c r="E19" s="77" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F19" s="72"/>
       <c r="G19" s="75" t="s">
@@ -30487,12 +31155,12 @@
       <c r="H19" s="74"/>
     </row>
     <row r="20" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A20" s="175"/>
-      <c r="B20" s="151"/>
-      <c r="C20" s="155"/>
-      <c r="D20" s="171"/>
+      <c r="A20" s="193"/>
+      <c r="B20" s="191"/>
+      <c r="C20" s="189"/>
+      <c r="D20" s="185"/>
       <c r="E20" s="77" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F20" s="72"/>
       <c r="G20" s="75" t="s">
@@ -30501,12 +31169,12 @@
       <c r="H20" s="74"/>
     </row>
     <row r="21" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A21" s="175"/>
-      <c r="B21" s="151"/>
-      <c r="C21" s="155"/>
-      <c r="D21" s="171"/>
+      <c r="A21" s="193"/>
+      <c r="B21" s="191"/>
+      <c r="C21" s="189"/>
+      <c r="D21" s="185"/>
       <c r="E21" s="77" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F21" s="72"/>
       <c r="G21" s="75" t="s">
@@ -30515,12 +31183,12 @@
       <c r="H21" s="74"/>
     </row>
     <row r="22" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A22" s="175"/>
-      <c r="B22" s="151"/>
-      <c r="C22" s="155"/>
-      <c r="D22" s="171"/>
+      <c r="A22" s="193"/>
+      <c r="B22" s="191"/>
+      <c r="C22" s="189"/>
+      <c r="D22" s="185"/>
       <c r="E22" s="77" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F22" s="72"/>
       <c r="G22" s="75" t="s">
@@ -30529,12 +31197,12 @@
       <c r="H22" s="74"/>
     </row>
     <row r="23" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A23" s="175"/>
-      <c r="B23" s="151"/>
-      <c r="C23" s="155"/>
-      <c r="D23" s="171"/>
+      <c r="A23" s="193"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="189"/>
+      <c r="D23" s="185"/>
       <c r="E23" s="77" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F23" s="72"/>
       <c r="G23" s="75" t="s">
@@ -30543,12 +31211,12 @@
       <c r="H23" s="74"/>
     </row>
     <row r="24" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A24" s="175"/>
-      <c r="B24" s="151"/>
-      <c r="C24" s="155"/>
-      <c r="D24" s="171"/>
+      <c r="A24" s="193"/>
+      <c r="B24" s="191"/>
+      <c r="C24" s="189"/>
+      <c r="D24" s="185"/>
       <c r="E24" s="77" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F24" s="72"/>
       <c r="G24" s="75" t="s">
@@ -30557,12 +31225,12 @@
       <c r="H24" s="74"/>
     </row>
     <row r="25" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A25" s="175"/>
-      <c r="B25" s="151"/>
-      <c r="C25" s="155"/>
-      <c r="D25" s="171"/>
+      <c r="A25" s="193"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="189"/>
+      <c r="D25" s="185"/>
       <c r="E25" s="77" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F25" s="72"/>
       <c r="G25" s="75" t="s">
@@ -30571,12 +31239,12 @@
       <c r="H25" s="74"/>
     </row>
     <row r="26" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A26" s="175"/>
-      <c r="B26" s="151"/>
-      <c r="C26" s="155"/>
-      <c r="D26" s="171"/>
+      <c r="A26" s="193"/>
+      <c r="B26" s="191"/>
+      <c r="C26" s="189"/>
+      <c r="D26" s="185"/>
       <c r="E26" s="77" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F26" s="72"/>
       <c r="G26" s="75" t="s">
@@ -30585,31 +31253,31 @@
       <c r="H26" s="74"/>
     </row>
     <row r="27" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A27" s="175"/>
-      <c r="B27" s="151"/>
-      <c r="C27" s="155"/>
-      <c r="D27" s="171"/>
-      <c r="E27" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="F27" s="84"/>
-      <c r="G27" s="85" t="s">
+      <c r="A27" s="193"/>
+      <c r="B27" s="191"/>
+      <c r="C27" s="189"/>
+      <c r="D27" s="185"/>
+      <c r="E27" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="F27" s="83"/>
+      <c r="G27" s="84" t="s">
         <v>115</v>
       </c>
       <c r="H27" s="74"/>
     </row>
     <row r="28" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A28" s="165" t="s">
-        <v>200</v>
-      </c>
-      <c r="B28" s="168" t="s">
+      <c r="A28" s="179" t="s">
+        <v>193</v>
+      </c>
+      <c r="B28" s="180" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="167" t="s">
+      <c r="C28" s="196" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="166"/>
-      <c r="E28" s="87" t="s">
+      <c r="D28" s="195"/>
+      <c r="E28" s="258" t="s">
         <v>34</v>
       </c>
       <c r="F28" s="71"/>
@@ -30619,11 +31287,11 @@
       <c r="H28" s="74"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A29" s="165"/>
-      <c r="B29" s="168"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="166"/>
-      <c r="E29" s="87" t="s">
+      <c r="A29" s="179"/>
+      <c r="B29" s="180"/>
+      <c r="C29" s="196"/>
+      <c r="D29" s="195"/>
+      <c r="E29" s="258" t="s">
         <v>35</v>
       </c>
       <c r="F29" s="71"/>
@@ -30633,12 +31301,12 @@
       <c r="H29" s="74"/>
     </row>
     <row r="30" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A30" s="165"/>
-      <c r="B30" s="168"/>
-      <c r="C30" s="167"/>
-      <c r="D30" s="166"/>
-      <c r="E30" s="87" t="s">
-        <v>172</v>
+      <c r="A30" s="179"/>
+      <c r="B30" s="180"/>
+      <c r="C30" s="196"/>
+      <c r="D30" s="195"/>
+      <c r="E30" s="258" t="s">
+        <v>167</v>
       </c>
       <c r="F30" s="71"/>
       <c r="G30" s="75" t="s">
@@ -30647,54 +31315,54 @@
       <c r="H30" s="74"/>
     </row>
     <row r="31" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A31" s="165"/>
-      <c r="B31" s="168"/>
-      <c r="C31" s="167"/>
-      <c r="D31" s="166"/>
-      <c r="E31" s="87" t="s">
-        <v>173</v>
+      <c r="A31" s="179"/>
+      <c r="B31" s="180"/>
+      <c r="C31" s="196"/>
+      <c r="D31" s="195"/>
+      <c r="E31" s="258" t="s">
+        <v>168</v>
       </c>
       <c r="F31" s="71"/>
       <c r="G31" s="75" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H31" s="74"/>
     </row>
     <row r="32" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A32" s="165"/>
-      <c r="B32" s="168"/>
-      <c r="C32" s="167"/>
-      <c r="D32" s="166"/>
-      <c r="E32" s="87" t="s">
-        <v>174</v>
+      <c r="A32" s="179"/>
+      <c r="B32" s="180"/>
+      <c r="C32" s="196"/>
+      <c r="D32" s="195"/>
+      <c r="E32" s="258" t="s">
+        <v>169</v>
       </c>
       <c r="F32" s="71"/>
       <c r="G32" s="75" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H32" s="74"/>
     </row>
     <row r="33" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A33" s="165"/>
-      <c r="B33" s="168"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="166"/>
-      <c r="E33" s="87" t="s">
-        <v>175</v>
+      <c r="A33" s="179"/>
+      <c r="B33" s="180"/>
+      <c r="C33" s="196"/>
+      <c r="D33" s="195"/>
+      <c r="E33" s="258" t="s">
+        <v>170</v>
       </c>
       <c r="F33" s="71"/>
       <c r="G33" s="75" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H33" s="74"/>
     </row>
     <row r="34" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A34" s="165"/>
-      <c r="B34" s="168"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="166"/>
-      <c r="E34" s="87" t="s">
-        <v>176</v>
+      <c r="A34" s="179"/>
+      <c r="B34" s="180"/>
+      <c r="C34" s="196"/>
+      <c r="D34" s="195"/>
+      <c r="E34" s="258" t="s">
+        <v>171</v>
       </c>
       <c r="F34" s="71"/>
       <c r="G34" s="75" t="s">
@@ -30703,12 +31371,12 @@
       <c r="H34" s="74"/>
     </row>
     <row r="35" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A35" s="165"/>
-      <c r="B35" s="168"/>
-      <c r="C35" s="167"/>
-      <c r="D35" s="166"/>
-      <c r="E35" s="87" t="s">
-        <v>201</v>
+      <c r="A35" s="179"/>
+      <c r="B35" s="180"/>
+      <c r="C35" s="196"/>
+      <c r="D35" s="195"/>
+      <c r="E35" s="258" t="s">
+        <v>293</v>
       </c>
       <c r="F35" s="71"/>
       <c r="G35" s="75" t="s">
@@ -30717,12 +31385,12 @@
       <c r="H35" s="74"/>
     </row>
     <row r="36" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A36" s="165"/>
-      <c r="B36" s="168"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="166"/>
-      <c r="E36" s="87" t="s">
-        <v>202</v>
+      <c r="A36" s="179"/>
+      <c r="B36" s="180"/>
+      <c r="C36" s="196"/>
+      <c r="D36" s="195"/>
+      <c r="E36" s="258" t="s">
+        <v>194</v>
       </c>
       <c r="F36" s="71"/>
       <c r="G36" s="75" t="s">
@@ -30731,26 +31399,26 @@
       <c r="H36" s="74"/>
     </row>
     <row r="37" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A37" s="165"/>
-      <c r="B37" s="168"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="166"/>
-      <c r="E37" s="87" t="s">
-        <v>203</v>
+      <c r="A37" s="179"/>
+      <c r="B37" s="180"/>
+      <c r="C37" s="196"/>
+      <c r="D37" s="195"/>
+      <c r="E37" s="258" t="s">
+        <v>195</v>
       </c>
       <c r="F37" s="72"/>
       <c r="G37" s="75" t="s">
-        <v>124</v>
+        <v>275</v>
       </c>
       <c r="H37" s="74"/>
     </row>
     <row r="38" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A38" s="165"/>
-      <c r="B38" s="168"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="166"/>
-      <c r="E38" s="87" t="s">
-        <v>204</v>
+      <c r="A38" s="179"/>
+      <c r="B38" s="180"/>
+      <c r="C38" s="196"/>
+      <c r="D38" s="195"/>
+      <c r="E38" s="258" t="s">
+        <v>196</v>
       </c>
       <c r="F38" s="72"/>
       <c r="G38" s="75" t="s">
@@ -30759,497 +31427,450 @@
       <c r="H38" s="74"/>
     </row>
     <row r="39" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A39" s="165"/>
-      <c r="B39" s="168"/>
-      <c r="C39" s="167"/>
-      <c r="D39" s="166"/>
-      <c r="E39" s="87" t="s">
-        <v>205</v>
+      <c r="A39" s="179"/>
+      <c r="B39" s="180"/>
+      <c r="C39" s="196"/>
+      <c r="D39" s="195"/>
+      <c r="E39" s="258" t="s">
+        <v>197</v>
       </c>
       <c r="F39" s="72"/>
       <c r="G39" s="75" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="H39" s="74"/>
     </row>
     <row r="40" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A40" s="165"/>
-      <c r="B40" s="168"/>
-      <c r="C40" s="167"/>
-      <c r="D40" s="166"/>
-      <c r="E40" s="87" t="s">
-        <v>206</v>
+      <c r="A40" s="179"/>
+      <c r="B40" s="180"/>
+      <c r="C40" s="196"/>
+      <c r="D40" s="195"/>
+      <c r="E40" s="258" t="s">
+        <v>198</v>
       </c>
       <c r="F40" s="72"/>
       <c r="G40" s="75" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H40" s="74"/>
     </row>
     <row r="41" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A41" s="165"/>
-      <c r="B41" s="168"/>
-      <c r="C41" s="167"/>
-      <c r="D41" s="166"/>
-      <c r="E41" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="F41" s="72"/>
-      <c r="G41" s="75" t="s">
-        <v>127</v>
-      </c>
-      <c r="H41" s="74"/>
+      <c r="A41" s="189" t="s">
+        <v>187</v>
+      </c>
+      <c r="B41" s="191" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="182" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="191"/>
+      <c r="E41" s="233" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" s="80"/>
+      <c r="G41" s="81" t="s">
+        <v>124</v>
+      </c>
+      <c r="H41" s="234"/>
     </row>
     <row r="42" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A42" s="165"/>
-      <c r="B42" s="168"/>
-      <c r="C42" s="167"/>
-      <c r="D42" s="166"/>
-      <c r="E42" s="87" t="s">
-        <v>208</v>
+      <c r="A42" s="189"/>
+      <c r="B42" s="191"/>
+      <c r="C42" s="182"/>
+      <c r="D42" s="191"/>
+      <c r="E42" s="233" t="s">
+        <v>37</v>
       </c>
       <c r="F42" s="72"/>
       <c r="G42" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="H42" s="74"/>
+      <c r="H42" s="234"/>
     </row>
     <row r="43" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A43" s="165"/>
-      <c r="B43" s="168"/>
-      <c r="C43" s="167"/>
-      <c r="D43" s="166"/>
-      <c r="E43" s="87" t="s">
-        <v>209</v>
+      <c r="A43" s="189"/>
+      <c r="B43" s="191"/>
+      <c r="C43" s="182"/>
+      <c r="D43" s="191"/>
+      <c r="E43" s="233" t="s">
+        <v>172</v>
       </c>
       <c r="F43" s="72"/>
       <c r="G43" s="75" t="s">
+        <v>185</v>
+      </c>
+      <c r="H43" s="234"/>
+    </row>
+    <row r="44" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A44" s="189"/>
+      <c r="B44" s="191"/>
+      <c r="C44" s="182"/>
+      <c r="D44" s="191"/>
+      <c r="E44" s="233" t="s">
+        <v>173</v>
+      </c>
+      <c r="F44" s="72"/>
+      <c r="G44" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="H43" s="74"/>
-    </row>
-    <row r="44" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A44" s="155" t="s">
-        <v>194</v>
-      </c>
-      <c r="B44" s="151" t="s">
-        <v>98</v>
-      </c>
-      <c r="C44" s="157" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="151"/>
-      <c r="E44" s="86" t="s">
-        <v>36</v>
-      </c>
-      <c r="F44" s="81"/>
-      <c r="G44" s="82" t="s">
-        <v>126</v>
-      </c>
-      <c r="H44" s="74"/>
+      <c r="H44" s="234"/>
     </row>
     <row r="45" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A45" s="155"/>
-      <c r="B45" s="151"/>
-      <c r="C45" s="157"/>
-      <c r="D45" s="151"/>
-      <c r="E45" s="78" t="s">
-        <v>37</v>
+      <c r="A45" s="189"/>
+      <c r="B45" s="191"/>
+      <c r="C45" s="182"/>
+      <c r="D45" s="191"/>
+      <c r="E45" s="233" t="s">
+        <v>174</v>
       </c>
       <c r="F45" s="72"/>
       <c r="G45" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="H45" s="74"/>
+      <c r="H45" s="234"/>
     </row>
     <row r="46" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A46" s="155"/>
-      <c r="B46" s="151"/>
-      <c r="C46" s="157"/>
-      <c r="D46" s="151"/>
-      <c r="E46" s="78" t="s">
-        <v>177</v>
+      <c r="A46" s="189"/>
+      <c r="B46" s="191"/>
+      <c r="C46" s="182"/>
+      <c r="D46" s="191"/>
+      <c r="E46" s="233" t="s">
+        <v>175</v>
       </c>
       <c r="F46" s="72"/>
       <c r="G46" s="75" t="s">
-        <v>192</v>
-      </c>
-      <c r="H46" s="74"/>
+        <v>131</v>
+      </c>
+      <c r="H46" s="234"/>
     </row>
     <row r="47" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A47" s="155"/>
-      <c r="B47" s="151"/>
-      <c r="C47" s="157"/>
-      <c r="D47" s="151"/>
-      <c r="E47" s="78" t="s">
-        <v>178</v>
+      <c r="A47" s="189"/>
+      <c r="B47" s="191"/>
+      <c r="C47" s="182"/>
+      <c r="D47" s="191"/>
+      <c r="E47" s="233" t="s">
+        <v>176</v>
       </c>
       <c r="F47" s="72"/>
       <c r="G47" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="H47" s="74"/>
+        <v>132</v>
+      </c>
+      <c r="H47" s="234"/>
     </row>
     <row r="48" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A48" s="155"/>
-      <c r="B48" s="151"/>
-      <c r="C48" s="157"/>
-      <c r="D48" s="151"/>
+      <c r="A48" s="188" t="s">
+        <v>188</v>
+      </c>
+      <c r="B48" s="190" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="203" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" s="190"/>
       <c r="E48" s="78" t="s">
-        <v>179</v>
+        <v>38</v>
       </c>
       <c r="F48" s="72"/>
       <c r="G48" s="75" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H48" s="74"/>
     </row>
     <row r="49" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A49" s="155"/>
-      <c r="B49" s="151"/>
-      <c r="C49" s="157"/>
-      <c r="D49" s="151"/>
+      <c r="A49" s="189"/>
+      <c r="B49" s="191"/>
+      <c r="C49" s="182"/>
+      <c r="D49" s="191"/>
       <c r="E49" s="78" t="s">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="F49" s="72"/>
       <c r="G49" s="75" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H49" s="74"/>
     </row>
     <row r="50" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A50" s="155"/>
-      <c r="B50" s="151"/>
-      <c r="C50" s="157"/>
-      <c r="D50" s="151"/>
+      <c r="A50" s="189"/>
+      <c r="B50" s="191"/>
+      <c r="C50" s="182"/>
+      <c r="D50" s="191"/>
       <c r="E50" s="78" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F50" s="72"/>
       <c r="G50" s="75" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H50" s="74"/>
     </row>
     <row r="51" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A51" s="155"/>
-      <c r="B51" s="151"/>
-      <c r="C51" s="157"/>
-      <c r="D51" s="151"/>
+      <c r="A51" s="189"/>
+      <c r="B51" s="191"/>
+      <c r="C51" s="182"/>
+      <c r="D51" s="191"/>
       <c r="E51" s="78" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F51" s="72"/>
       <c r="G51" s="75" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H51" s="74"/>
     </row>
     <row r="52" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A52" s="156"/>
-      <c r="B52" s="152"/>
-      <c r="C52" s="158"/>
-      <c r="D52" s="152"/>
+      <c r="A52" s="189"/>
+      <c r="B52" s="191"/>
+      <c r="C52" s="182"/>
+      <c r="D52" s="191"/>
       <c r="E52" s="78" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F52" s="72"/>
       <c r="G52" s="75" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H52" s="74"/>
     </row>
     <row r="53" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A53" s="159" t="s">
-        <v>195</v>
-      </c>
-      <c r="B53" s="161" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="160" t="s">
-        <v>93</v>
-      </c>
-      <c r="D53" s="161"/>
-      <c r="E53" s="79" t="s">
-        <v>38</v>
+      <c r="A53" s="189"/>
+      <c r="B53" s="191"/>
+      <c r="C53" s="182"/>
+      <c r="D53" s="191"/>
+      <c r="E53" s="78" t="s">
+        <v>180</v>
       </c>
       <c r="F53" s="72"/>
       <c r="G53" s="75" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H53" s="74"/>
     </row>
     <row r="54" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A54" s="155"/>
-      <c r="B54" s="151"/>
-      <c r="C54" s="157"/>
-      <c r="D54" s="151"/>
-      <c r="E54" s="79" t="s">
-        <v>39</v>
+      <c r="A54" s="189"/>
+      <c r="B54" s="191"/>
+      <c r="C54" s="182"/>
+      <c r="D54" s="191"/>
+      <c r="E54" s="78" t="s">
+        <v>181</v>
       </c>
       <c r="F54" s="72"/>
       <c r="G54" s="75" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H54" s="74"/>
     </row>
     <row r="55" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A55" s="155"/>
-      <c r="B55" s="151"/>
-      <c r="C55" s="157"/>
-      <c r="D55" s="151"/>
-      <c r="E55" s="79" t="s">
-        <v>184</v>
+      <c r="A55" s="189"/>
+      <c r="B55" s="191"/>
+      <c r="C55" s="183"/>
+      <c r="D55" s="194"/>
+      <c r="E55" s="78" t="s">
+        <v>182</v>
       </c>
       <c r="F55" s="72"/>
       <c r="G55" s="75" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H55" s="74"/>
     </row>
     <row r="56" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A56" s="155"/>
-      <c r="B56" s="151"/>
-      <c r="C56" s="157"/>
-      <c r="D56" s="151"/>
-      <c r="E56" s="79" t="s">
-        <v>185</v>
+      <c r="A56" s="189"/>
+      <c r="B56" s="191"/>
+      <c r="C56" s="203" t="s">
+        <v>94</v>
+      </c>
+      <c r="D56" s="190"/>
+      <c r="E56" s="78" t="s">
+        <v>183</v>
       </c>
       <c r="F56" s="72"/>
       <c r="G56" s="75" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H56" s="74"/>
     </row>
     <row r="57" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A57" s="155"/>
-      <c r="B57" s="151"/>
-      <c r="C57" s="157"/>
-      <c r="D57" s="151"/>
-      <c r="E57" s="79" t="s">
-        <v>186</v>
+      <c r="A57" s="202"/>
+      <c r="B57" s="194"/>
+      <c r="C57" s="183"/>
+      <c r="D57" s="194"/>
+      <c r="E57" s="78" t="s">
+        <v>184</v>
       </c>
       <c r="F57" s="72"/>
       <c r="G57" s="75" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H57" s="74"/>
     </row>
-    <row r="58" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A58" s="155"/>
-      <c r="B58" s="151"/>
-      <c r="C58" s="157"/>
-      <c r="D58" s="151"/>
-      <c r="E58" s="79" t="s">
-        <v>187</v>
-      </c>
-      <c r="F58" s="72"/>
-      <c r="G58" s="75" t="s">
-        <v>142</v>
-      </c>
-      <c r="H58" s="74"/>
-    </row>
-    <row r="59" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A59" s="155"/>
-      <c r="B59" s="151"/>
-      <c r="C59" s="157"/>
-      <c r="D59" s="151"/>
-      <c r="E59" s="79" t="s">
-        <v>188</v>
-      </c>
-      <c r="F59" s="72"/>
-      <c r="G59" s="75" t="s">
-        <v>143</v>
-      </c>
-      <c r="H59" s="74"/>
-    </row>
-    <row r="60" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A60" s="155"/>
-      <c r="B60" s="151"/>
-      <c r="C60" s="158"/>
-      <c r="D60" s="152"/>
-      <c r="E60" s="79" t="s">
+    <row r="58" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A58" s="204" t="s">
         <v>189</v>
       </c>
-      <c r="F60" s="72"/>
-      <c r="G60" s="75" t="s">
-        <v>144</v>
-      </c>
-      <c r="H60" s="74"/>
-    </row>
-    <row r="61" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A61" s="155"/>
-      <c r="B61" s="151"/>
-      <c r="C61" s="160" t="s">
-        <v>94</v>
-      </c>
-      <c r="D61" s="161"/>
-      <c r="E61" s="79" t="s">
+      <c r="B58" s="197"/>
+      <c r="C58" s="197" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" s="197"/>
+      <c r="E58" s="85"/>
+      <c r="F58" s="86"/>
+      <c r="G58" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="H58" s="87"/>
+    </row>
+    <row r="59" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A59" s="205"/>
+      <c r="B59" s="198"/>
+      <c r="C59" s="198"/>
+      <c r="D59" s="198"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="87" t="s">
+        <v>117</v>
+      </c>
+      <c r="H59" s="87"/>
+    </row>
+    <row r="60" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A60" s="205"/>
+      <c r="B60" s="198"/>
+      <c r="C60" s="198"/>
+      <c r="D60" s="198"/>
+      <c r="E60" s="85"/>
+      <c r="F60" s="86"/>
+      <c r="G60" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="H60" s="87"/>
+    </row>
+    <row r="61" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A61" s="206"/>
+      <c r="B61" s="199"/>
+      <c r="C61" s="199"/>
+      <c r="D61" s="199"/>
+      <c r="E61" s="85"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="87" t="s">
+        <v>119</v>
+      </c>
+      <c r="H61" s="87"/>
+    </row>
+    <row r="62" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A62" s="204" t="s">
         <v>190</v>
       </c>
-      <c r="F61" s="72"/>
-      <c r="G61" s="75" t="s">
-        <v>145</v>
-      </c>
-      <c r="H61" s="74"/>
-    </row>
-    <row r="62" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A62" s="156"/>
-      <c r="B62" s="152"/>
-      <c r="C62" s="158"/>
-      <c r="D62" s="152"/>
-      <c r="E62" s="79" t="s">
-        <v>191</v>
-      </c>
-      <c r="F62" s="72"/>
-      <c r="G62" s="75" t="s">
-        <v>146</v>
-      </c>
-      <c r="H62" s="74"/>
+      <c r="B62" s="197"/>
+      <c r="C62" s="197" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" s="197"/>
+      <c r="E62" s="85"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="H62" s="87"/>
     </row>
     <row r="63" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A63" s="162" t="s">
-        <v>196</v>
-      </c>
-      <c r="B63" s="148"/>
-      <c r="C63" s="148" t="s">
-        <v>89</v>
-      </c>
-      <c r="D63" s="148"/>
-      <c r="E63" s="88"/>
-      <c r="F63" s="89"/>
-      <c r="G63" s="90" t="s">
-        <v>116</v>
-      </c>
-      <c r="H63" s="90"/>
+      <c r="A63" s="205"/>
+      <c r="B63" s="198"/>
+      <c r="C63" s="198"/>
+      <c r="D63" s="198"/>
+      <c r="E63" s="85"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="87" t="s">
+        <v>151</v>
+      </c>
+      <c r="H63" s="87"/>
     </row>
     <row r="64" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A64" s="163"/>
-      <c r="B64" s="149"/>
-      <c r="C64" s="149"/>
-      <c r="D64" s="149"/>
-      <c r="E64" s="88"/>
-      <c r="F64" s="89"/>
-      <c r="G64" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="H64" s="90"/>
+      <c r="A64" s="205"/>
+      <c r="B64" s="198"/>
+      <c r="C64" s="198"/>
+      <c r="D64" s="198"/>
+      <c r="E64" s="85"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="87" t="s">
+        <v>152</v>
+      </c>
+      <c r="H64" s="87"/>
     </row>
     <row r="65" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A65" s="163"/>
-      <c r="B65" s="149"/>
-      <c r="C65" s="149"/>
-      <c r="D65" s="149"/>
-      <c r="E65" s="88"/>
-      <c r="F65" s="89"/>
-      <c r="G65" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="H65" s="90"/>
+      <c r="A65" s="205"/>
+      <c r="B65" s="198"/>
+      <c r="C65" s="198"/>
+      <c r="D65" s="198"/>
+      <c r="E65" s="85"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="H65" s="87"/>
     </row>
     <row r="66" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A66" s="164"/>
-      <c r="B66" s="150"/>
-      <c r="C66" s="150"/>
-      <c r="D66" s="150"/>
-      <c r="E66" s="88"/>
-      <c r="F66" s="89"/>
-      <c r="G66" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="H66" s="90"/>
+      <c r="A66" s="205"/>
+      <c r="B66" s="198"/>
+      <c r="C66" s="198"/>
+      <c r="D66" s="198"/>
+      <c r="E66" s="85"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="87" t="s">
+        <v>121</v>
+      </c>
+      <c r="H66" s="87"/>
     </row>
     <row r="67" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A67" s="162" t="s">
-        <v>197</v>
-      </c>
-      <c r="B67" s="148"/>
-      <c r="C67" s="148" t="s">
-        <v>90</v>
-      </c>
-      <c r="D67" s="148"/>
-      <c r="E67" s="88"/>
-      <c r="F67" s="89"/>
-      <c r="G67" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="H67" s="90"/>
+      <c r="A67" s="205"/>
+      <c r="B67" s="198"/>
+      <c r="C67" s="198"/>
+      <c r="D67" s="198"/>
+      <c r="E67" s="85"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="87" t="s">
+        <v>122</v>
+      </c>
+      <c r="H67" s="87"/>
     </row>
     <row r="68" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A68" s="163"/>
-      <c r="B68" s="149"/>
-      <c r="C68" s="149"/>
-      <c r="D68" s="149"/>
-      <c r="E68" s="88"/>
-      <c r="F68" s="89"/>
-      <c r="G68" s="90" t="s">
-        <v>155</v>
-      </c>
-      <c r="H68" s="90"/>
-    </row>
-    <row r="69" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A69" s="163"/>
-      <c r="B69" s="149"/>
-      <c r="C69" s="149"/>
-      <c r="D69" s="149"/>
-      <c r="E69" s="88"/>
-      <c r="F69" s="89"/>
-      <c r="G69" s="90" t="s">
-        <v>156</v>
-      </c>
-      <c r="H69" s="90"/>
-    </row>
-    <row r="70" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A70" s="163"/>
-      <c r="B70" s="149"/>
-      <c r="C70" s="149"/>
-      <c r="D70" s="149"/>
-      <c r="E70" s="88"/>
-      <c r="F70" s="89"/>
-      <c r="G70" s="90" t="s">
-        <v>120</v>
-      </c>
-      <c r="H70" s="90"/>
-    </row>
-    <row r="71" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A71" s="163"/>
-      <c r="B71" s="149"/>
-      <c r="C71" s="149"/>
-      <c r="D71" s="149"/>
-      <c r="E71" s="88"/>
-      <c r="F71" s="89"/>
-      <c r="G71" s="90" t="s">
-        <v>121</v>
-      </c>
-      <c r="H71" s="90"/>
-    </row>
-    <row r="72" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A72" s="163"/>
-      <c r="B72" s="149"/>
-      <c r="C72" s="149"/>
-      <c r="D72" s="149"/>
-      <c r="E72" s="88"/>
-      <c r="F72" s="89"/>
-      <c r="G72" s="90" t="s">
-        <v>122</v>
-      </c>
-      <c r="H72" s="90"/>
-    </row>
-    <row r="73" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A73" s="164"/>
-      <c r="B73" s="150"/>
-      <c r="C73" s="150"/>
-      <c r="D73" s="150"/>
-      <c r="E73" s="88"/>
-      <c r="F73" s="89"/>
-      <c r="G73" s="90" t="s">
+      <c r="A68" s="206"/>
+      <c r="B68" s="199"/>
+      <c r="C68" s="199"/>
+      <c r="D68" s="199"/>
+      <c r="E68" s="85"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="H73" s="90"/>
+      <c r="H68" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B62:B68"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="C41:C47"/>
+    <mergeCell ref="A48:A57"/>
+    <mergeCell ref="C48:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="B48:B57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="C62:C68"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="D62:D68"/>
+    <mergeCell ref="D41:D47"/>
+    <mergeCell ref="D48:D55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="A28:A40"/>
+    <mergeCell ref="D28:D40"/>
+    <mergeCell ref="C28:C40"/>
+    <mergeCell ref="B28:B40"/>
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="B3:B11"/>
     <mergeCell ref="C3:C11"/>
@@ -31258,47 +31879,224 @@
     <mergeCell ref="C12:C27"/>
     <mergeCell ref="B12:B27"/>
     <mergeCell ref="A12:A27"/>
-    <mergeCell ref="D44:D52"/>
-    <mergeCell ref="D53:D60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="A28:A43"/>
-    <mergeCell ref="D28:D43"/>
-    <mergeCell ref="C28:C43"/>
-    <mergeCell ref="B28:B43"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="B67:B73"/>
-    <mergeCell ref="B44:B52"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A44:A52"/>
-    <mergeCell ref="C44:C52"/>
-    <mergeCell ref="A53:A62"/>
-    <mergeCell ref="C53:C60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B53:B62"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="A67:A73"/>
-    <mergeCell ref="C67:C73"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="D67:D73"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E41" location="'Test Case D'!A4" display="TC-D01" xr:uid="{E9A2395E-D310-4340-B601-D0F461562653}"/>
+    <hyperlink ref="E42" location="'Test Case D'!A5" display="TC-D02" xr:uid="{5C05A5E0-DFD1-456B-B04A-5316BE381FA3}"/>
+    <hyperlink ref="E43" location="'Test Case D'!A6" display="TC-D03" xr:uid="{4802E011-409E-41F5-A120-33E07BA79113}"/>
+    <hyperlink ref="E44" location="'Test Case D'!A7" display="TC-D04" xr:uid="{F2D90D56-F202-4CBF-9595-480BBB26AB31}"/>
+    <hyperlink ref="E45" location="'Test Case D'!A8" display="TC-D05" xr:uid="{B697BC5F-224B-410F-A5A6-CE53E0A14229}"/>
+    <hyperlink ref="E46" location="'Test Case D'!A9" display="TC-D06" xr:uid="{208A9281-4C42-4428-80AB-7FF24422A5DD}"/>
+    <hyperlink ref="E47" location="'Test Case D'!A10" display="TC-D07" xr:uid="{BD0D317D-E35E-4183-A283-81365717FE02}"/>
+    <hyperlink ref="E28" location="'Test Case C'!A4" display="TC-C01" xr:uid="{85F25DC1-5C32-444D-A241-3DDE8FD4224C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C39" sqref="C39"/>
-      <selection pane="bottomLeft" sqref="A1:N1"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="27.7109375" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="17" style="11" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" style="11" customWidth="1"/>
+    <col min="13" max="13" width="21.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="27.7109375" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="20" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A1" s="209" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="210"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="210"/>
+      <c r="L1" s="210"/>
+      <c r="M1" s="211"/>
+    </row>
+    <row r="2" spans="1:14" ht="5.25" customHeight="1"/>
+    <row r="3" spans="1:14" s="13" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="230" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="89" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L4:L100">
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="PASSED">
+      <formula>NOT(ISERROR(SEARCH("PASSED",L4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",L4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:M100">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="Automation Passed">
+      <formula>NOT(ISERROR(SEARCH("Automation Passed",L4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="Not Passed">
+      <formula>NOT(ISERROR(SEARCH("Not Passed",L4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M4:M5" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>"Automation Passed,Not Passed,Not Tested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L102" xr:uid="{00000000-0002-0000-0200-000001000000}">
+      <formula1>"PASSED,FAILED,N/A"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L4" xr:uid="{00000000-0002-0000-0200-000002000000}">
+      <formula1>"PASSED,FAILED,N/A"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0200-000003000000}">
+      <formula1>"High,Medium,Low"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="N3" location="'Test Plan'!A1" display="Home" xr:uid="{D258D3C7-9145-4C90-8B24-78DE5F31038C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <tabColor theme="9"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.7109375" defaultRowHeight="12.75"/>
@@ -31320,37 +32118,37 @@
     <col min="15" max="16384" width="27.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="20" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A1" s="178" t="s">
+    <row r="1" spans="1:15" s="21" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A1" s="212" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
-      <c r="H1" s="179"/>
-      <c r="I1" s="179"/>
-      <c r="J1" s="179"/>
-      <c r="K1" s="179"/>
-      <c r="L1" s="179"/>
-      <c r="M1" s="179"/>
-      <c r="N1" s="180"/>
-    </row>
-    <row r="2" spans="1:14" ht="5.25" customHeight="1"/>
-    <row r="3" spans="1:14" s="13" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
+      <c r="H1" s="213"/>
+      <c r="I1" s="213"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="213"/>
+      <c r="L1" s="213"/>
+      <c r="M1" s="213"/>
+      <c r="N1" s="214"/>
+    </row>
+    <row r="2" spans="1:15" ht="5.25" customHeight="1"/>
+    <row r="3" spans="1:15" s="13" customFormat="1" ht="21.75" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="176" t="s">
+      <c r="B3" s="207" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="177"/>
+      <c r="C3" s="208"/>
       <c r="D3" s="58" t="s">
-        <v>212</v>
-      </c>
-      <c r="E3" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="12" t="s">
@@ -31380,15 +32178,18 @@
       <c r="N3" s="12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" s="230" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="92" t="s">
-        <v>227</v>
+      <c r="D4" s="89" t="s">
+        <v>216</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -31411,13 +32212,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="18" t="s">
-        <v>28</v>
+    <row r="5" spans="1:15">
+      <c r="A5" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="93"/>
+      <c r="D5" s="90"/>
       <c r="E5" s="5"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8" t="s">
@@ -31442,6 +32243,7 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="A1:N1"/>
   </mergeCells>
+  <phoneticPr fontId="24" type="noConversion"/>
   <conditionalFormatting sqref="M4:M100">
     <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH("PASSED",M4)))</formula>
@@ -31459,36 +32261,1219 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N4:N5" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M4" xr:uid="{00000000-0002-0000-0300-000000000000}">
+      <formula1>"PASSED,FAILED,N/A"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5:M102" xr:uid="{00000000-0002-0000-0300-000001000000}">
+      <formula1>"PASSED,FAILED,N/A"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N4:N5" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"Automation Passed,Not Passed,Not Tested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5:M102" xr:uid="{0B75063D-0B1B-4DAB-9B6E-14008A638FA3}">
-      <formula1>"PASSED,FAILED,N/A"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M4" xr:uid="{33EACDD1-8242-4066-9881-4B1691393458}">
-      <formula1>"PASSED,FAILED,N/A"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{E0EB207F-D0C6-4AFE-84DC-1AC44EAE3E8F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="O3" location="'Test Plan'!A1" display="Home" xr:uid="{5CCA36A9-199A-4622-964F-89EBB21074F3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1245D31F-F7C8-425D-9FE0-BEAEF3951DE6}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
-    <tabColor theme="9"/>
+    <tabColor theme="5" tint="0.59999389629810485"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C39" sqref="C39"/>
+      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="27.7109375" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="42.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="11" customWidth="1"/>
+    <col min="12" max="12" width="17" style="11" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" style="11" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="27.7109375" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="22" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A1" s="215" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="216"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="216"/>
+      <c r="J1" s="216"/>
+      <c r="K1" s="216"/>
+      <c r="L1" s="216"/>
+      <c r="M1" s="216"/>
+      <c r="N1" s="217"/>
+    </row>
+    <row r="2" spans="1:15" ht="5.25" customHeight="1"/>
+    <row r="3" spans="1:15" s="13" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="207" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="208"/>
+      <c r="D3" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="235" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="235" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="235" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="235" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="235" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="235" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="235" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" s="235" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="235" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="230" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="102">
+      <c r="A4" s="236" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="256" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="257"/>
+      <c r="D4" s="237" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4" s="238" t="s">
+        <v>292</v>
+      </c>
+      <c r="F4" s="239" t="s">
+        <v>239</v>
+      </c>
+      <c r="G4" s="247" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="239" t="s">
+        <v>240</v>
+      </c>
+      <c r="I4" s="239" t="s">
+        <v>241</v>
+      </c>
+      <c r="J4" s="239" t="s">
+        <v>242</v>
+      </c>
+      <c r="K4" s="240" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="241" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="242" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="242" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="102">
+      <c r="A5" s="243" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="254" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="255"/>
+      <c r="D5" s="244" t="s">
+        <v>236</v>
+      </c>
+      <c r="E5" s="238" t="s">
+        <v>292</v>
+      </c>
+      <c r="F5" s="239" t="s">
+        <v>243</v>
+      </c>
+      <c r="G5" s="232" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="239" t="s">
+        <v>244</v>
+      </c>
+      <c r="I5" s="239" t="s">
+        <v>262</v>
+      </c>
+      <c r="J5" s="239" t="s">
+        <v>261</v>
+      </c>
+      <c r="K5" s="240" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="241" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="242" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="242" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="76.5">
+      <c r="A6" s="243" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="251" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="252"/>
+      <c r="D6" s="246" t="s">
+        <v>236</v>
+      </c>
+      <c r="E6" s="238" t="s">
+        <v>292</v>
+      </c>
+      <c r="F6" s="239" t="s">
+        <v>245</v>
+      </c>
+      <c r="G6" s="247" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="239" t="s">
+        <v>246</v>
+      </c>
+      <c r="I6" s="239" t="s">
+        <v>264</v>
+      </c>
+      <c r="J6" s="239" t="s">
+        <v>263</v>
+      </c>
+      <c r="K6" s="240" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="241" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="242" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="242" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="76.5">
+      <c r="A7" s="243" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="251" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="252"/>
+      <c r="D7" s="246" t="s">
+        <v>236</v>
+      </c>
+      <c r="E7" s="238" t="s">
+        <v>292</v>
+      </c>
+      <c r="F7" s="239" t="s">
+        <v>247</v>
+      </c>
+      <c r="G7" s="247" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="239" t="s">
+        <v>248</v>
+      </c>
+      <c r="I7" s="243" t="s">
+        <v>265</v>
+      </c>
+      <c r="J7" s="243" t="s">
+        <v>266</v>
+      </c>
+      <c r="K7" s="246" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="241" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="242" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="242" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="102">
+      <c r="A8" s="245" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="249" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="250"/>
+      <c r="D8" s="246" t="s">
+        <v>236</v>
+      </c>
+      <c r="E8" s="238" t="s">
+        <v>292</v>
+      </c>
+      <c r="F8" s="239" t="s">
+        <v>249</v>
+      </c>
+      <c r="G8" s="247" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="239" t="s">
+        <v>248</v>
+      </c>
+      <c r="I8" s="245" t="s">
+        <v>250</v>
+      </c>
+      <c r="J8" s="245" t="s">
+        <v>251</v>
+      </c>
+      <c r="K8" s="246" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="241" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" s="242" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="242" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="102">
+      <c r="A9" s="245" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="249" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="250"/>
+      <c r="D9" s="246" t="s">
+        <v>236</v>
+      </c>
+      <c r="E9" s="238" t="s">
+        <v>292</v>
+      </c>
+      <c r="F9" s="239" t="s">
+        <v>252</v>
+      </c>
+      <c r="G9" s="247" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="239" t="s">
+        <v>248</v>
+      </c>
+      <c r="I9" s="243" t="s">
+        <v>267</v>
+      </c>
+      <c r="J9" s="243" t="s">
+        <v>268</v>
+      </c>
+      <c r="K9" s="246" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="241" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="242" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="242" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="102">
+      <c r="A10" s="243" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="251" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="252"/>
+      <c r="D10" s="246" t="s">
+        <v>236</v>
+      </c>
+      <c r="E10" s="238" t="s">
+        <v>292</v>
+      </c>
+      <c r="F10" s="239" t="s">
+        <v>253</v>
+      </c>
+      <c r="G10" s="247" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="239" t="s">
+        <v>248</v>
+      </c>
+      <c r="I10" s="243" t="s">
+        <v>267</v>
+      </c>
+      <c r="J10" s="243" t="s">
+        <v>269</v>
+      </c>
+      <c r="K10" s="246" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="241" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" s="242" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="242" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="127.5">
+      <c r="A11" s="243" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" s="251" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="252"/>
+      <c r="D11" s="246" t="s">
+        <v>236</v>
+      </c>
+      <c r="E11" s="238" t="s">
+        <v>292</v>
+      </c>
+      <c r="F11" s="239" t="s">
+        <v>254</v>
+      </c>
+      <c r="G11" s="247" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="239" t="s">
+        <v>248</v>
+      </c>
+      <c r="I11" s="243" t="s">
+        <v>270</v>
+      </c>
+      <c r="J11" s="243" t="s">
+        <v>271</v>
+      </c>
+      <c r="K11" s="246" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="241" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" s="242" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" s="242" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="127.5">
+      <c r="A12" s="243" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="251" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="252"/>
+      <c r="D12" s="246" t="s">
+        <v>236</v>
+      </c>
+      <c r="E12" s="238" t="s">
+        <v>292</v>
+      </c>
+      <c r="F12" s="239" t="s">
+        <v>255</v>
+      </c>
+      <c r="G12" s="247" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="239" t="s">
+        <v>248</v>
+      </c>
+      <c r="I12" s="243" t="s">
+        <v>272</v>
+      </c>
+      <c r="J12" s="243" t="s">
+        <v>273</v>
+      </c>
+      <c r="K12" s="246" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="241" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" s="242" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" s="246"/>
+    </row>
+    <row r="13" spans="1:15" ht="153">
+      <c r="A13" s="243" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" s="251" t="s">
+        <v>275</v>
+      </c>
+      <c r="C13" s="252"/>
+      <c r="D13" s="246" t="s">
+        <v>216</v>
+      </c>
+      <c r="E13" s="238" t="s">
+        <v>292</v>
+      </c>
+      <c r="F13" s="239" t="s">
+        <v>276</v>
+      </c>
+      <c r="G13" s="247" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="239" t="s">
+        <v>256</v>
+      </c>
+      <c r="I13" s="243" t="s">
+        <v>274</v>
+      </c>
+      <c r="J13" s="239" t="s">
+        <v>277</v>
+      </c>
+      <c r="K13" s="246" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="241" t="s">
+        <v>70</v>
+      </c>
+      <c r="M13" s="242" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" s="242" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="20" customFormat="1" ht="102">
+      <c r="A14" s="248" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" s="249" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="250"/>
+      <c r="D14" s="246" t="s">
+        <v>236</v>
+      </c>
+      <c r="E14" s="238" t="s">
+        <v>292</v>
+      </c>
+      <c r="F14" s="239" t="s">
+        <v>258</v>
+      </c>
+      <c r="G14" s="247" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="239" t="s">
+        <v>257</v>
+      </c>
+      <c r="I14" s="243" t="s">
+        <v>278</v>
+      </c>
+      <c r="J14" s="243" t="s">
+        <v>279</v>
+      </c>
+      <c r="K14" s="246" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="241" t="s">
+        <v>70</v>
+      </c>
+      <c r="M14" s="242" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" s="242" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="114.75">
+      <c r="A15" s="245" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="251" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="252"/>
+      <c r="D15" s="246" t="s">
+        <v>236</v>
+      </c>
+      <c r="E15" s="238" t="s">
+        <v>292</v>
+      </c>
+      <c r="F15" s="239" t="s">
+        <v>259</v>
+      </c>
+      <c r="G15" s="247" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="239" t="s">
+        <v>257</v>
+      </c>
+      <c r="I15" s="243" t="s">
+        <v>281</v>
+      </c>
+      <c r="J15" s="243" t="s">
+        <v>281</v>
+      </c>
+      <c r="K15" s="246" t="s">
+        <v>74</v>
+      </c>
+      <c r="L15" s="241" t="s">
+        <v>70</v>
+      </c>
+      <c r="M15" s="242" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" s="242" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="127.5">
+      <c r="A16" s="245" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" s="249" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="250"/>
+      <c r="D16" s="246" t="s">
+        <v>236</v>
+      </c>
+      <c r="E16" s="238" t="s">
+        <v>292</v>
+      </c>
+      <c r="F16" s="239" t="s">
+        <v>260</v>
+      </c>
+      <c r="G16" s="247" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="239" t="s">
+        <v>257</v>
+      </c>
+      <c r="I16" s="243" t="s">
+        <v>280</v>
+      </c>
+      <c r="J16" s="243" t="s">
+        <v>282</v>
+      </c>
+      <c r="K16" s="246" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="241" t="s">
+        <v>70</v>
+      </c>
+      <c r="M16" s="242" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16" s="242" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+  </mergeCells>
+  <phoneticPr fontId="24" type="noConversion"/>
+  <conditionalFormatting sqref="M17:M98">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="PASSED">
+      <formula>NOT(ISERROR(SEARCH("PASSED",M17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",M17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M17:N98">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="Automation Passed">
+      <formula>NOT(ISERROR(SEARCH("Automation Passed",M17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="Not Passed">
+      <formula>NOT(ISERROR(SEARCH("Not Passed",M17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:M16">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="PASSED">
+      <formula>NOT(ISERROR(SEARCH("PASSED",M4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",M4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:N16">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Automation Passed">
+      <formula>NOT(ISERROR(SEARCH("Automation Passed",M4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Not Passed">
+      <formula>NOT(ISERROR(SEARCH("Not Passed",M4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M4:M16" xr:uid="{85CA5460-C799-45DB-91D1-24D6CB9A25B1}">
+      <formula1>"PASSED,FAILED,N/A"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M17:M100" xr:uid="{00000000-0002-0000-0400-000001000000}">
+      <formula1>"PASSED,FAILED,N/A"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N4:N11 N13:N16" xr:uid="{BC23F583-49C0-4198-BF5D-7A5156C1BF94}">
+      <formula1>"Automation Passed,Not Passed,Not Tested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0400-000003000000}">
+      <formula1>"High,Medium,Low"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="L4" r:id="rId1" xr:uid="{A1EC915A-E03E-4615-A96A-42C1EB761220}"/>
+    <hyperlink ref="L5:L16" r:id="rId2" display="Link" xr:uid="{151DFBC5-3652-4952-B3D0-F1245FAFC3AA}"/>
+    <hyperlink ref="L5" r:id="rId3" xr:uid="{1C4E82D9-205A-426F-B2D2-3212D9216554}"/>
+    <hyperlink ref="L6" r:id="rId4" xr:uid="{77773BDE-3BB3-4BEF-8A4F-EAD963C226D0}"/>
+    <hyperlink ref="L7" r:id="rId5" xr:uid="{F02C7833-7BF8-45BB-BC27-E3EEF5ECCD3F}"/>
+    <hyperlink ref="L8" r:id="rId6" xr:uid="{9BE7A75C-6DD6-4346-A533-95E140337401}"/>
+    <hyperlink ref="L9" r:id="rId7" xr:uid="{41333805-058F-4802-B92C-8427435DDBE3}"/>
+    <hyperlink ref="L10" r:id="rId8" xr:uid="{578215AA-B364-471A-B4F0-F0F46F542117}"/>
+    <hyperlink ref="L11" r:id="rId9" xr:uid="{7FADB261-C788-42AC-863C-BAD9D49B6603}"/>
+    <hyperlink ref="L12" r:id="rId10" xr:uid="{10A54268-BC98-4964-AB89-7E6257AA2B85}"/>
+    <hyperlink ref="L13" r:id="rId11" xr:uid="{6520F781-B151-4E8E-94C5-9E3D948855CD}"/>
+    <hyperlink ref="L14:L16" r:id="rId12" display="Link" xr:uid="{1ABDEFE4-E0CE-4071-8518-2E7220D302FC}"/>
+    <hyperlink ref="O3" location="'Test Plan'!A1" display="Home" xr:uid="{ECCE8EA7-ED2B-4025-A6BF-B9DE5B19C7F2}"/>
+    <hyperlink ref="L14:L16" r:id="rId13" display="Link" xr:uid="{A1F4971A-BD35-4645-9B9B-13EA8BAA0A30}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId14"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:O10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="27.7109375" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="16" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26" style="4" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.85546875" style="4" customWidth="1"/>
+    <col min="16" max="16384" width="27.7109375" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="57" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A1" s="218" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
+      <c r="K1" s="219"/>
+      <c r="L1" s="219"/>
+      <c r="M1" s="219"/>
+      <c r="N1" s="220"/>
+    </row>
+    <row r="2" spans="1:15" ht="5.25" customHeight="1"/>
+    <row r="3" spans="1:15" s="13" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="227" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="228"/>
+      <c r="D3" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="230" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="105" customHeight="1">
+      <c r="A4" s="224" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="229" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="229"/>
+      <c r="D4" s="225" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="108" t="s">
+        <v>220</v>
+      </c>
+      <c r="G4" s="231" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="K4" s="107" t="s">
+        <v>218</v>
+      </c>
+      <c r="L4" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="58.5" customHeight="1">
+      <c r="A5" s="224" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="229" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="229"/>
+      <c r="D5" s="226" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="109" t="s">
+        <v>291</v>
+      </c>
+      <c r="G5" s="231" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="J5" s="108" t="s">
+        <v>285</v>
+      </c>
+      <c r="K5" s="107" t="s">
+        <v>218</v>
+      </c>
+      <c r="L5" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="114.75">
+      <c r="A6" s="224" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="229" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="229"/>
+      <c r="D6" s="226" t="s">
+        <v>236</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G6" s="232" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J6" s="108" t="s">
+        <v>287</v>
+      </c>
+      <c r="K6" s="107" t="s">
+        <v>218</v>
+      </c>
+      <c r="L6" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="51">
+      <c r="A7" s="224" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="229" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="229"/>
+      <c r="D7" s="226" t="s">
+        <v>216</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G7" s="231" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="J7" s="108" t="s">
+        <v>284</v>
+      </c>
+      <c r="K7" s="107" t="s">
+        <v>218</v>
+      </c>
+      <c r="L7" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="102">
+      <c r="A8" s="224" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="229" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="229"/>
+      <c r="D8" s="226" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="109" t="s">
+        <v>230</v>
+      </c>
+      <c r="G8" s="232" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="108" t="s">
+        <v>231</v>
+      </c>
+      <c r="I8" s="108" t="s">
+        <v>232</v>
+      </c>
+      <c r="J8" s="108" t="s">
+        <v>286</v>
+      </c>
+      <c r="K8" s="107" t="s">
+        <v>218</v>
+      </c>
+      <c r="L8" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="63.75">
+      <c r="A9" s="224" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="229" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="229"/>
+      <c r="D9" s="226" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="109" t="s">
+        <v>233</v>
+      </c>
+      <c r="G9" s="231" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="108" t="s">
+        <v>221</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="J9" s="108" t="s">
+        <v>288</v>
+      </c>
+      <c r="K9" s="107" t="s">
+        <v>218</v>
+      </c>
+      <c r="L9" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="114.75">
+      <c r="A10" s="224" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="253" t="s">
+        <v>289</v>
+      </c>
+      <c r="C10" s="229"/>
+      <c r="D10" s="226" t="s">
+        <v>216</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="109" t="s">
+        <v>234</v>
+      </c>
+      <c r="G10" s="231" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="108" t="s">
+        <v>235</v>
+      </c>
+      <c r="I10" s="108" t="s">
+        <v>290</v>
+      </c>
+      <c r="J10" s="108" t="s">
+        <v>290</v>
+      </c>
+      <c r="K10" s="107" t="s">
+        <v>218</v>
+      </c>
+      <c r="L10" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
+  <phoneticPr fontId="24" type="noConversion"/>
+  <conditionalFormatting sqref="M4:M98">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="PASSED">
+      <formula>NOT(ISERROR(SEARCH("PASSED",M4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",M4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:N98">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Automation Passed">
+      <formula>NOT(ISERROR(SEARCH("Automation Passed",M4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Not Passed">
+      <formula>NOT(ISERROR(SEARCH("Not Passed",M4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5 M11:M100" xr:uid="{00000000-0002-0000-0500-000000000000}">
+      <formula1>"PASSED,FAILED,N/A"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M4 M6:M10" xr:uid="{00000000-0002-0000-0500-000001000000}">
+      <formula1>"PASSED,FAILED,N/A"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N4:N10" xr:uid="{00000000-0002-0000-0500-000002000000}">
+      <formula1>"Automation Passed,Not Passed,Not Tested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0500-000003000000}">
+      <formula1>"High,Medium,Low"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="L5" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="L4" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="L6" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="L7" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="L8" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="L9" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="L10" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="O3" location="'Test Plan'!A1" display="Home" xr:uid="{2D49B86D-E938-4B3C-A0CB-8C9C65DB0A77}"/>
+    <hyperlink ref="E4" location="'Test Case B'!A4" display="TC-B01" xr:uid="{DB7952C5-71B1-499F-B166-24974CD8A34A}"/>
+    <hyperlink ref="E5" location="'Test Case D'!A4" display="1. TC-D01" xr:uid="{4C5C7B86-E0F4-4E69-B901-BD51F032E1A7}"/>
+    <hyperlink ref="E6:E10" location="'Test Case D'!A4" display="1. TC-D01" xr:uid="{94E8D277-B9A4-4FED-99E9-1B00D550B43C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.34998626667073579"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E25" sqref="E25"/>
-      <selection pane="bottomLeft" sqref="A1:N1"/>
+      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.7109375" defaultRowHeight="12.75"/>
@@ -31510,35 +33495,35 @@
     <col min="15" max="16384" width="27.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="21" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A1" s="181" t="s">
+    <row r="1" spans="1:15" s="23" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A1" s="221" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
-      <c r="J1" s="182"/>
-      <c r="K1" s="182"/>
-      <c r="L1" s="182"/>
-      <c r="M1" s="182"/>
-      <c r="N1" s="183"/>
-    </row>
-    <row r="2" spans="1:14" ht="5.25" customHeight="1"/>
-    <row r="3" spans="1:14" s="13" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="222"/>
+      <c r="K1" s="222"/>
+      <c r="L1" s="222"/>
+      <c r="M1" s="222"/>
+      <c r="N1" s="223"/>
+    </row>
+    <row r="2" spans="1:15" ht="5.25" customHeight="1"/>
+    <row r="3" spans="1:15" s="13" customFormat="1" ht="21.75" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="176" t="s">
+      <c r="B3" s="207" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="177"/>
+      <c r="C3" s="208"/>
       <c r="D3" s="58" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>20</v>
@@ -31570,15 +33555,18 @@
       <c r="N3" s="12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" s="230" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="15" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="92" t="s">
-        <v>227</v>
+      <c r="D4" s="89" t="s">
+        <v>216</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -31601,586 +33589,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="15" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A1:N1"/>
-  </mergeCells>
-  <phoneticPr fontId="24" type="noConversion"/>
-  <conditionalFormatting sqref="M4:M100">
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="PASSED">
-      <formula>NOT(ISERROR(SEARCH("PASSED",M4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="FAIL">
-      <formula>NOT(ISERROR(SEARCH("FAIL",M4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4:N100">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Automation Passed">
-      <formula>NOT(ISERROR(SEARCH("Automation Passed",M4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="Not Passed">
-      <formula>NOT(ISERROR(SEARCH("Not Passed",M4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M4" xr:uid="{3F415FCD-6EBF-4186-BF3C-82DF04158048}">
-      <formula1>"PASSED,FAILED,N/A"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5:M102" xr:uid="{2DA31675-A0B6-4075-9EFC-B5CF611EE132}">
-      <formula1>"PASSED,FAILED,N/A"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N4:N5" xr:uid="{0196CD62-F4FD-4FFF-BE5A-1F0978FD2B9B}">
-      <formula1>"Automation Passed,Not Passed,Not Tested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{62A28672-E107-4A9E-A36E-FD7D8714EBD3}">
-      <formula1>"High,Medium,Low"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55531C72-BC5E-46B2-9D36-3C795406E691}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:N5"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C39" sqref="C39"/>
-      <selection pane="bottomLeft" sqref="A1:N1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="27.7109375" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.28515625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17" style="11" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" style="11" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="27.7109375" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="22" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A1" s="184" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="185"/>
-      <c r="N1" s="186"/>
-    </row>
-    <row r="2" spans="1:14" ht="5.25" customHeight="1"/>
-    <row r="3" spans="1:14" s="13" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="176" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="177"/>
-      <c r="D3" s="58" t="s">
-        <v>212</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="92" t="s">
-        <v>227</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A1:N1"/>
-  </mergeCells>
-  <phoneticPr fontId="24" type="noConversion"/>
-  <conditionalFormatting sqref="M4:M100">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="PASSED">
-      <formula>NOT(ISERROR(SEARCH("PASSED",M4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="FAIL">
-      <formula>NOT(ISERROR(SEARCH("FAIL",M4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4:N100">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Automation Passed">
-      <formula>NOT(ISERROR(SEARCH("Automation Passed",M4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Not Passed">
-      <formula>NOT(ISERROR(SEARCH("Not Passed",M4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M4" xr:uid="{F0036123-2C73-4D4F-8840-B28DCE0E1E23}">
-      <formula1>"PASSED,FAILED,N/A"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5:M102" xr:uid="{921BD8E1-A3F3-4C47-BE77-6AA8F91DA907}">
-      <formula1>"PASSED,FAILED,N/A"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N4:N5" xr:uid="{1DD53319-1950-4015-9B06-8A56E0657BB2}">
-      <formula1>"Automation Passed,Not Passed,Not Tested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{11E86E55-0E8B-406E-AB3D-BE36A4403873}">
-      <formula1>"High,Medium,Low"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345EEC1C-2291-4D35-80E5-423440311960}">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:N5"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="E25" sqref="E25"/>
-      <selection pane="bottomLeft" sqref="A1:N1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="27.7109375" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.28515625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17" style="11" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" style="11" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="27.7109375" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="57" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A1" s="187" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="189"/>
-    </row>
-    <row r="2" spans="1:14" ht="5.25" customHeight="1"/>
-    <row r="3" spans="1:14" s="13" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="176" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="177"/>
-      <c r="D3" s="58" t="s">
-        <v>212</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="92" t="s">
-        <v>227</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A1:N1"/>
-  </mergeCells>
-  <phoneticPr fontId="24" type="noConversion"/>
-  <conditionalFormatting sqref="M4:M100">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="PASSED">
-      <formula>NOT(ISERROR(SEARCH("PASSED",M4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="FAIL">
-      <formula>NOT(ISERROR(SEARCH("FAIL",M4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4:N100">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Automation Passed">
-      <formula>NOT(ISERROR(SEARCH("Automation Passed",M4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Not Passed">
-      <formula>NOT(ISERROR(SEARCH("Not Passed",M4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N4:N5" xr:uid="{29E66534-C3BB-4E6E-8F99-2AB7DE2C6145}">
-      <formula1>"Automation Passed,Not Passed,Not Tested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5:M102" xr:uid="{92590ACA-0124-4C4E-BF96-5D0BF54D86C7}">
-      <formula1>"PASSED,FAILED,N/A"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M4" xr:uid="{D755A65C-1C9F-4751-80CB-BA8DF5F4D4B7}">
-      <formula1>"PASSED,FAILED,N/A"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{3E2EB597-13D6-4915-A262-3FD5A94537A7}">
-      <formula1>"High,Medium,Low"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26CB7CF-E1B9-4F82-B2A8-D7C5F0D5A3CE}">
-  <sheetPr>
-    <tabColor theme="0" tint="-0.34998626667073579"/>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:N5"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="E25" sqref="E25"/>
-      <selection pane="bottomLeft" sqref="A1:N1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="27.7109375" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.28515625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17" style="11" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" style="11" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="27.7109375" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="23" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A1" s="190" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="192"/>
-    </row>
-    <row r="2" spans="1:14" ht="5.25" customHeight="1"/>
-    <row r="3" spans="1:14" s="13" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="176" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="177"/>
-      <c r="D3" s="58" t="s">
-        <v>212</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="92" t="s">
-        <v>227</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="93"/>
+      <c r="D5" s="90"/>
       <c r="E5" s="5"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8" t="s">
@@ -32222,20 +33637,23 @@
       <formula>NOT(ISERROR(SEARCH("Not Passed",M4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M4" xr:uid="{62CB5655-8306-41EB-AB9A-EB77222A7880}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M4" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"PASSED,FAILED,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5:M102" xr:uid="{801BC642-9502-4312-A61E-720E122D5E95}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5:M102" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>"PASSED,FAILED,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N4:N5" xr:uid="{A776EB03-631C-41A9-9790-9D79FAB4F40E}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N4:N5" xr:uid="{00000000-0002-0000-0600-000002000000}">
       <formula1>"Automation Passed,Not Passed,Not Tested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{25D502C8-3B59-44C4-A56D-A96C6A8FA0A8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0600-000003000000}">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="O3" location="'Test Plan'!A1" display="Home" xr:uid="{E42F59C0-D8F0-4C9B-9C4D-52ACCB0B17F2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/Test Plan_QA47_Team-6.xlsx
+++ b/Test Plan_QA47_Team-6.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A77D269-4A18-4DA2-BC72-9493068D143B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" tabRatio="589" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="589" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan" sheetId="1" r:id="rId1"/>
@@ -20,10 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="367">
   <si>
     <t>PROJECT TITLE              :</t>
   </si>
@@ -368,9 +371,6 @@
     <t>Verifikasi dapat menampilkan halaman informasi akun dan menampilkan nama pelanggan</t>
   </si>
   <si>
-    <t>Verifikasi dapat mengubah kata sandi</t>
-  </si>
-  <si>
     <t>Verifikasi dapat mengubah nama pelanggan di halaman informasi akun</t>
   </si>
   <si>
@@ -386,24 +386,6 @@
     <t>Verifikasi dapat mengubah alamat yang ada</t>
   </si>
   <si>
-    <t>Verifikasi dapat menghapus alamat</t>
-  </si>
-  <si>
-    <t>Verifikasi berlangganan melalui halaman langganan buletin</t>
-  </si>
-  <si>
-    <t>Verifikasi dapat menambahkan alamat secara otomatis saat pesanan dilakukan</t>
-  </si>
-  <si>
-    <t>Verifikasi dapat menambahkan produk ke daftar keinginan pelanggan yang masuk pada halaman produk dan menyimpannya</t>
-  </si>
-  <si>
-    <t>Verifikasi dapat mengedit wishlist di halaman wishlist</t>
-  </si>
-  <si>
-    <t>Verifikasi dapat mengatur ulang kata sandi ketika dilupakan</t>
-  </si>
-  <si>
     <t>Verifikasi dapat melakukan pencarian dengan banyak klik</t>
   </si>
   <si>
@@ -552,9 +534,6 @@
   </si>
   <si>
     <t>TC-B15</t>
-  </si>
-  <si>
-    <t>TC-B16</t>
   </si>
   <si>
     <t>TC-C03</t>
@@ -663,9 +642,6 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>Verifikasi dapat masuk dengan username dan password yg benar</t>
-  </si>
-  <si>
     <t>Verifikasi tidak dapat membuat akun untuk masuk dengan invalid email</t>
   </si>
   <si>
@@ -685,9 +661,6 @@
   </si>
   <si>
     <t>Verifikasi tidak dapatt membuat akun untuk masuk dengan password dengan kombinasi angka dan symbol</t>
-  </si>
-  <si>
-    <t>Verifikasi  tidak dapat untuk masuk dengan kombinasi user name dan password yang salah</t>
   </si>
   <si>
     <t>Sign up &amp; Update My Account</t>
@@ -1183,11 +1156,333 @@
   <si>
     <t>Menampilkan 12 item Bags yang sudah terurut berdasarkan posisi</t>
   </si>
+  <si>
+    <t>Verifikasi dapat masuk dengan email dan password yg benar dan yang sudah terdaftar</t>
+  </si>
+  <si>
+    <t>Verifikasi tidak dapat untuk masuk dengan email yang salah</t>
+  </si>
+  <si>
+    <t>Verifikasi tidak dapat untuk masuk dengan password yang salah</t>
+  </si>
+  <si>
+    <t>Verifikasi tidak dapat untuk masuk dengan akun yang tidak terdaftar</t>
+  </si>
+  <si>
+    <t>Verifikasi dapat mengubah password</t>
+  </si>
+  <si>
+    <t>Verifikasi dapat menambahkan produk ke halaman wishlist</t>
+  </si>
+  <si>
+    <t>Verifikasi dapat mengubah wishlist di halaman wishlist</t>
+  </si>
+  <si>
+    <t>Verifikasi dapat menghapus wishlist di halaman wishlist</t>
+  </si>
+  <si>
+    <t>User Login</t>
+  </si>
+  <si>
+    <t>Verifikasi user dapat masuk dengan email dan password yg benar dan sudah terdaftar</t>
+  </si>
+  <si>
+    <t>1. Akses URL: https://magento.softwaretestingboard.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Klik Sign In pada Navbar
+2. Input email yang benar dan sudah terdaftar
+3. Input password yang benar dan sudah terdaftar
+4. Klik tombol Sign In </t>
+  </si>
+  <si>
+    <t>1. Email: team6@test.com
+2. Password: test@1234</t>
+  </si>
+  <si>
+    <t>User berhasil masuk dengan email dan password yg benar dan sudah terdaftar. User diarahkan ke halaman utama webite dan muncul nama user pada pojok kanan atas navbar</t>
+  </si>
+  <si>
+    <t>Vinna</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pjaaruqDLoGvmr3htYldv-la3tP7N3Dh/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Verifikasi user tidak dapat untuk masuk dengan email yang salah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Klik Sign In pada Navbar
+2. Input email yang benar dan sudah terdaftar
+3. Input password yang salah
+4. Klik tombol Sign In </t>
+  </si>
+  <si>
+    <t>1. Email: user6@test.com
+2. Password: zz66@@</t>
+  </si>
+  <si>
+    <t>User tidak dapat untuk masuk dengan email yang salah. Muncul pesan error "Incorrect CAPTCHA".</t>
+  </si>
+  <si>
+    <t>Uuser tidak dapat untuk masuk dengan email yang salah. Muncul pesan error "Incorrect CAPTCHA".</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1CTuNdi9vu4QGaovdbkHzHNr5h9l6c6kZ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Verifikasi user tidak dapat untuk masuk dengan password yang salah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Klik Sign In pada Navbar
+2. Input email yang salah
+3. Input password yang benar dan sudah terdaftar
+4. Klik tombol Sign In </t>
+  </si>
+  <si>
+    <t>1. Email: team6@test.com
+2. Password: zzzzzzzz</t>
+  </si>
+  <si>
+    <t>Verifikasi user tidak dapat untuk masuk dengan password yang salah. Muncul pesan error "The account sign-in was incorrect or your account is disabled temporarily. Please wait and try again later.".</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Fx7vgqoxh1a9DtHjtM90X29agLZKAB2u/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Verifikasi user tidak dapat untuk masuk dengan akun yang tidak terdaftar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Klik Sign In pada Navbar
+2. Input email yang tidak terdaftar
+3. Input password yang tidak terdaftar
+4. Klik tombol Sign In </t>
+  </si>
+  <si>
+    <t>1. Email: user6@test.com
+2. Password: zzzzzzzz</t>
+  </si>
+  <si>
+    <t>User tidak dapat untuk masuk dengan akun yang tidak terdaftar. Muncul pesan error "Incorrect CAPTCHA".</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dw368HWetwlrS02xrrxELkrhZY1c3Bat/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>User Log out</t>
+  </si>
+  <si>
+    <t>Verifikasi user dapat keluar</t>
+  </si>
+  <si>
+    <t>1. Akses URL: https://magento.softwaretestingboard.com/
+2. User sudah login</t>
+  </si>
+  <si>
+    <t>1. Klik dropdown pada nama user di pojok kanan atas navbar
+2. Klik Sign Out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User berhasil keluar. Muncul keterangan "You are signed out" kemudian user diarahkan ke halaman utama website sebelum user melakukan login. </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1B-Han8MxFbAIOO1Zb2cYQARiuOy9TxTy/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Verifikasi user dapat menampilkan halaman informasi akun dan menampilkan nama pelanggan</t>
+  </si>
+  <si>
+    <t>1. Klik dropdown pada nama user di pojok kanan atas navbar
+2. Klik My Account</t>
+  </si>
+  <si>
+    <t>User dapat menampilkan halaman informasi akun dan menampilkan nama pelanggan</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1O0Gha83C8s7YqQJ1SUvNiSUtTAi_y9XO/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Verifikasi user dapat mengubah password</t>
+  </si>
+  <si>
+    <t>1. Klik dropdown pada nama user di pojok kanan atas navbar
+2. Klik My Account
+3. Klik Change Password
+4. Input password lama
+5. Input password baru
+6. Input konfirmasi password
+7. Klik tombol Save</t>
+  </si>
+  <si>
+    <t>1. Password lama: test@1234
+2. Password baru: test@12345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User dapat mengubah password. Setelah berhasil mebubah password, user diarahkan ke halaman login dan muncul pesan "You saved the account information". </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1SiXnDHi7Emq2-RxgPuF59yi_q0Cyuni7/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Verifikasi user dapat mengubah nama pelanggan di halaman informasi akun</t>
+  </si>
+  <si>
+    <t>1. Klik dropdown pada nama user di pojok kanan atas navbar
+2. Klik My Account
+3. Klik Edit
+4. Ubah First Name
+5. Ubah Last Name
+6. Klik tombol Save</t>
+  </si>
+  <si>
+    <t>1. First Name lama: kelompok
+2. Last Name lama: enam
+3. First Name baru: team
+4. Last Name baru: 6</t>
+  </si>
+  <si>
+    <t>User dapat mengubah nama pelanggan di halaman informasi akun. User dapat melihat hasil perubahan nama pelanggan di halaman informasi akun.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zWI3lkwMk3jqlJmYFAas5VwbpyR-Rloa/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Verifikasi user dapat menavigasi ke semua halaman akun pelanggan dan menampilkan judul yang benar</t>
+  </si>
+  <si>
+    <t>1. Klik dropdown pada nama user di pojok kanan atas navbar
+2. Klik My Account
+3. Klik My Orders
+4. Klik My Downloadable Products
+5. Klik My Wish List
+6. Klik Address Book
+7. Klik Account Information
+8. Klik Stored Payment Methods
+9. Klik My Product Reviews</t>
+  </si>
+  <si>
+    <t>User dapat menavigasi ke semua halaman akun pelanggan dan menampilkan judul yang benar</t>
+  </si>
+  <si>
+    <t>Verifikasi user dapat menavigasi ke riwayat pesanan dan menampilkan bahwa tidak ada pesanan yang dilakukan</t>
+  </si>
+  <si>
+    <t>1. Klik dropdown pada nama user di pojok kanan atas navbar
+2. Klik My Account
+3. Klik My Order pada sidebar</t>
+  </si>
+  <si>
+    <t>User dapat menavigasi ke riwayat pesanan dan menampilkan bahwa tidak ada pesanan yang dilakukan</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1IllUKxyCH4abRZH-CUrJE_MZyfPUGIl6/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Verifikasi user dapat menambahkan alamat baru</t>
+  </si>
+  <si>
+    <t>1. Klik dropdown pada nama user di pojok kanan atas navbar
+2. Klik My Account
+3. Klik Manage Addresses
+4. Input Street Address
+5. Input City
+6. Input State/Province
+7. Input Zip/Postal Code
+8. Input Country
+9. Input Phone Number 
+10. Klik tombol Save Address</t>
+  </si>
+  <si>
+    <t>1. Street Address: 152 Freddie Station
+2. City: Rodrigotown
+3. State/Province: Nevada
+4. Zip/Postal Code: 
+92197
+5. Country: United State
+6. Phone Number: 22233</t>
+  </si>
+  <si>
+    <t>User dapat menambahkan alamat baru</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1oGxtT3gj2EAelPASJ9vrYV54H77wllvA/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Verifikasi user dapat mengubah alamat yang ada</t>
+  </si>
+  <si>
+    <t>1. Klik dropdown pada nama user di pojok kanan atas navbar
+2. Klik My Account
+3. Klik Edit Address
+4. Ubah Street Address 
+5. Klik tombol Save Address</t>
+  </si>
+  <si>
+    <t>1. Street Address lama: 152 Freddie Station
+2. Street Address baru: 152 Freddie Station 123</t>
+  </si>
+  <si>
+    <t>User dapat mengubah alamat yang ada</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lqTEW7go6-sutKnbFTnrP2IbamemfuhS/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Verifikasi user dapat menambahkan produk ke halaman wishlist</t>
+  </si>
+  <si>
+    <t>1. Pilih Men dropdown
+2. Pilih Top 
+3. Klik Hoodies &amp; Sweatheart
+4. Pilih salah satu produk
+5. Klik icon berbentuk hati</t>
+  </si>
+  <si>
+    <t>1. Produk: Hero Hoodie</t>
+  </si>
+  <si>
+    <t>User dapat menambahkan produk ke halaman wishlist. User diarahkan ke halaman My Wish List.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dmetH7o9uESFKbvWJKbsI5jjGGT5cADO/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Verifikasi user dapat mengubah wishlist di halaman wishlist</t>
+  </si>
+  <si>
+    <t>1. Klik dropdown pada nama user di pojok kanan atas navbar
+2. Klik My Wish List
+3. Klik icon edit pada produk yang ada di halaman Wish List
+4. Klik Update Wish List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User dapat mengubah wishlist di halaman wishlist. Muncul pesan "Hero Hoodie has been updated in your Wish List." </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YgaWad9KPBmnG_dcFjxYQAl15Z6fpwoY/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Verifikasi user dapat menghapus wishlist di halaman wishlist</t>
+  </si>
+  <si>
+    <t>1. Klik dropdown pada nama user di pojok kanan atas navbar
+2. Klik My Wish List
+3. Klik icon tempat sampah pada produk yang ada di halaman Wish List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User dapat menghapus wishlist di halaman wishlist. Muncul pesan "Hero Hoodie has been removed from your Wish List." </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1P5dwfO9269fPh0-xaX9kXv6rZRJpAvBv/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Menu : Account Login Activities</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d&quot; &quot;mmm&quot; &quot;"/>
   </numFmts>
@@ -2720,7 +3015,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="258">
+  <cellXfs count="265">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2929,15 +3224,6 @@
     <xf numFmtId="0" fontId="23" fillId="31" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="16" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3078,25 +3364,65 @@
     <xf numFmtId="0" fontId="22" fillId="18" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3106,26 +3432,47 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="48" fillId="25" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="48" fillId="25" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="25" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3137,6 +3484,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3170,111 +3526,98 @@
     <xf numFmtId="0" fontId="22" fillId="20" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="25" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="25" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="25" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3289,61 +3632,10 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3433,12 +3725,76 @@
     <xf numFmtId="0" fontId="14" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3849,7 +4205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -3874,19 +4230,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="34" customFormat="1" ht="30">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="135" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
       <c r="L1" s="35"/>
       <c r="M1" s="35"/>
       <c r="N1" s="35"/>
@@ -3903,13 +4259,13 @@
       <c r="Y1" s="35"/>
     </row>
     <row r="2" spans="1:25" ht="3" customHeight="1">
-      <c r="A2" s="136"/>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
+      <c r="A2" s="139"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -3930,17 +4286,17 @@
       <c r="Y2" s="1"/>
     </row>
     <row r="3" spans="1:25" s="33" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="191"/>
-      <c r="C3" s="192" t="s">
+      <c r="B3" s="142"/>
+      <c r="C3" s="143" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="193"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="195"/>
-      <c r="G3" s="195"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
       <c r="J3" s="32"/>
@@ -3961,17 +4317,17 @@
       <c r="Y3" s="32"/>
     </row>
     <row r="4" spans="1:25" s="33" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="190" t="s">
+      <c r="A4" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="191"/>
-      <c r="C4" s="192" t="s">
+      <c r="B4" s="142"/>
+      <c r="C4" s="143" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="193"/>
-      <c r="E4" s="195"/>
-      <c r="F4" s="195"/>
-      <c r="G4" s="195"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
       <c r="J4" s="32"/>
@@ -3992,13 +4348,13 @@
       <c r="Y4" s="32"/>
     </row>
     <row r="5" spans="1:25" ht="6" customHeight="1">
-      <c r="A5" s="136"/>
-      <c r="B5" s="137"/>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137"/>
-      <c r="G5" s="137"/>
+      <c r="A5" s="139"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -4019,17 +4375,17 @@
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:25" s="37" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A6" s="154" t="s">
+      <c r="A6" s="170" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="155"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="155"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="171"/>
+      <c r="D6" s="171"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="171"/>
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
@@ -4045,20 +4401,20 @@
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="196" t="s">
+      <c r="B7" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="140"/>
-      <c r="D7" s="198" t="s">
+      <c r="C7" s="148"/>
+      <c r="D7" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="199"/>
-      <c r="F7" s="200"/>
-      <c r="G7" s="197" t="s">
+      <c r="E7" s="151"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="197"/>
-      <c r="I7" s="197"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -4073,23 +4429,23 @@
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:25" s="25" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A8" s="88">
+      <c r="A8" s="85">
         <v>1</v>
       </c>
-      <c r="B8" s="162" t="s">
+      <c r="B8" s="181" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="163"/>
-      <c r="D8" s="169" t="s">
-        <v>211</v>
-      </c>
-      <c r="E8" s="170"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="159" t="s">
+      <c r="C8" s="182"/>
+      <c r="D8" s="132" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="133"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="159"/>
-      <c r="I8" s="159"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="178"/>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
@@ -4105,23 +4461,23 @@
       <c r="V8" s="24"/>
     </row>
     <row r="9" spans="1:25" s="25" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A9" s="88">
+      <c r="A9" s="85">
         <v>2</v>
       </c>
-      <c r="B9" s="162" t="s">
+      <c r="B9" s="181" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="163"/>
-      <c r="D9" s="169" t="s">
-        <v>212</v>
-      </c>
-      <c r="E9" s="170"/>
-      <c r="F9" s="171"/>
-      <c r="G9" s="161" t="s">
+      <c r="C9" s="182"/>
+      <c r="D9" s="132" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" s="133"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="161"/>
-      <c r="I9" s="161"/>
+      <c r="H9" s="180"/>
+      <c r="I9" s="180"/>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
@@ -4137,23 +4493,23 @@
       <c r="V9" s="24"/>
     </row>
     <row r="10" spans="1:25" s="25" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A10" s="88">
+      <c r="A10" s="85">
         <v>3</v>
       </c>
-      <c r="B10" s="162" t="s">
+      <c r="B10" s="181" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="163"/>
-      <c r="D10" s="169" t="s">
-        <v>213</v>
-      </c>
-      <c r="E10" s="170"/>
-      <c r="F10" s="171"/>
-      <c r="G10" s="160" t="s">
+      <c r="C10" s="182"/>
+      <c r="D10" s="132" t="s">
+        <v>203</v>
+      </c>
+      <c r="E10" s="133"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="160"/>
-      <c r="I10" s="160"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="179"/>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
@@ -4161,166 +4517,166 @@
       <c r="V10" s="24"/>
     </row>
     <row r="11" spans="1:25" s="25" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A11" s="88">
+      <c r="A11" s="85">
         <v>4</v>
       </c>
-      <c r="B11" s="162" t="s">
+      <c r="B11" s="181" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="163"/>
-      <c r="D11" s="169" t="s">
-        <v>214</v>
-      </c>
-      <c r="E11" s="170"/>
-      <c r="F11" s="171"/>
-      <c r="G11" s="158" t="s">
+      <c r="C11" s="182"/>
+      <c r="D11" s="132" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" s="133"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
+      <c r="H11" s="177"/>
+      <c r="I11" s="177"/>
       <c r="J11" s="24"/>
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
-      <c r="Q11" s="187" t="s">
+      <c r="Q11" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="R11" s="91" t="s">
+      <c r="R11" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="S11" s="92" t="s">
+      <c r="S11" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="T11" s="93"/>
-      <c r="U11" s="101"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="98"/>
     </row>
     <row r="12" spans="1:25" s="25" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A12" s="88">
+      <c r="A12" s="85">
         <v>5</v>
       </c>
-      <c r="B12" s="162" t="s">
+      <c r="B12" s="181" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="163"/>
-      <c r="D12" s="169" t="s">
-        <v>215</v>
-      </c>
-      <c r="E12" s="170"/>
-      <c r="F12" s="171"/>
-      <c r="G12" s="168" t="s">
+      <c r="C12" s="182"/>
+      <c r="D12" s="132" t="s">
+        <v>205</v>
+      </c>
+      <c r="E12" s="133"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="168"/>
-      <c r="I12" s="168"/>
+      <c r="H12" s="187"/>
+      <c r="I12" s="187"/>
       <c r="J12" s="24"/>
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
-      <c r="Q12" s="188"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="95" t="s">
+      <c r="Q12" s="137"/>
+      <c r="R12" s="91"/>
+      <c r="S12" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="T12" s="96"/>
-      <c r="U12" s="101"/>
+      <c r="T12" s="93"/>
+      <c r="U12" s="98"/>
     </row>
     <row r="13" spans="1:25" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A13" s="136"/>
-      <c r="B13" s="137"/>
-      <c r="C13" s="137"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
-      <c r="K13" s="137"/>
+      <c r="A13" s="139"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
+      <c r="K13" s="140"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="188"/>
-      <c r="R13" s="97"/>
-      <c r="S13" s="178" t="s">
+      <c r="Q13" s="137"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="156" t="s">
         <v>55</v>
       </c>
-      <c r="T13" s="179"/>
+      <c r="T13" s="157"/>
       <c r="U13" s="45">
         <f>T11+T12</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A14" s="164" t="s">
+      <c r="A14" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="165"/>
-      <c r="C14" s="165"/>
-      <c r="D14" s="165"/>
-      <c r="E14" s="165"/>
-      <c r="F14" s="165"/>
-      <c r="G14" s="165"/>
-      <c r="H14" s="165"/>
-      <c r="I14" s="165"/>
-      <c r="J14" s="165"/>
-      <c r="K14" s="165"/>
-      <c r="L14" s="165"/>
-      <c r="M14" s="165"/>
-      <c r="N14" s="165"/>
-      <c r="O14" s="165"/>
+      <c r="B14" s="184"/>
+      <c r="C14" s="184"/>
+      <c r="D14" s="184"/>
+      <c r="E14" s="184"/>
+      <c r="F14" s="184"/>
+      <c r="G14" s="184"/>
+      <c r="H14" s="184"/>
+      <c r="I14" s="184"/>
+      <c r="J14" s="184"/>
+      <c r="K14" s="184"/>
+      <c r="L14" s="184"/>
+      <c r="M14" s="184"/>
+      <c r="N14" s="184"/>
+      <c r="O14" s="184"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="188"/>
-      <c r="R14" s="175" t="s">
+      <c r="Q14" s="137"/>
+      <c r="R14" s="158" t="s">
         <v>56</v>
       </c>
-      <c r="S14" s="92" t="s">
+      <c r="S14" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="T14" s="98"/>
+      <c r="T14" s="95"/>
       <c r="U14" s="38"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A15" s="156" t="s">
+      <c r="A15" s="172" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="138" t="s">
+      <c r="B15" s="188" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="140"/>
-      <c r="D15" s="138" t="s">
+      <c r="C15" s="148"/>
+      <c r="D15" s="188" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="139"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="166" t="s">
+      <c r="E15" s="189"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="167"/>
-      <c r="K15" s="167"/>
-      <c r="L15" s="167"/>
-      <c r="M15" s="167"/>
-      <c r="N15" s="167"/>
-      <c r="O15" s="167"/>
+      <c r="H15" s="186"/>
+      <c r="I15" s="186"/>
+      <c r="J15" s="186"/>
+      <c r="K15" s="186"/>
+      <c r="L15" s="186"/>
+      <c r="M15" s="186"/>
+      <c r="N15" s="186"/>
+      <c r="O15" s="186"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="188"/>
-      <c r="R15" s="176"/>
-      <c r="S15" s="95" t="s">
+      <c r="Q15" s="137"/>
+      <c r="R15" s="159"/>
+      <c r="S15" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="T15" s="99"/>
+      <c r="T15" s="96"/>
       <c r="U15" s="39"/>
     </row>
     <row r="16" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A16" s="157"/>
-      <c r="B16" s="141"/>
-      <c r="C16" s="143"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="143"/>
+      <c r="A16" s="173"/>
+      <c r="B16" s="190"/>
+      <c r="C16" s="192"/>
+      <c r="D16" s="190"/>
+      <c r="E16" s="191"/>
+      <c r="F16" s="192"/>
       <c r="G16" s="3">
         <v>45132</v>
       </c>
@@ -4349,12 +4705,12 @@
         <v>45140</v>
       </c>
       <c r="P16" s="1"/>
-      <c r="Q16" s="188"/>
-      <c r="R16" s="180"/>
-      <c r="S16" s="181" t="s">
+      <c r="Q16" s="137"/>
+      <c r="R16" s="160"/>
+      <c r="S16" s="161" t="s">
         <v>59</v>
       </c>
-      <c r="T16" s="182"/>
+      <c r="T16" s="162"/>
       <c r="U16" s="46">
         <f>T14+T15</f>
         <v>0</v>
@@ -4364,15 +4720,15 @@
       <c r="A17" s="61">
         <v>1</v>
       </c>
-      <c r="B17" s="144" t="s">
+      <c r="B17" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="146"/>
-      <c r="D17" s="144" t="s">
+      <c r="C17" s="155"/>
+      <c r="D17" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="145"/>
-      <c r="F17" s="146"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="155"/>
       <c r="G17" s="26"/>
       <c r="H17" s="60" t="s">
         <v>80</v>
@@ -4385,27 +4741,27 @@
       <c r="N17" s="59"/>
       <c r="O17" s="27"/>
       <c r="P17" s="9"/>
-      <c r="Q17" s="188"/>
-      <c r="R17" s="183" t="s">
+      <c r="Q17" s="137"/>
+      <c r="R17" s="163" t="s">
         <v>60</v>
       </c>
-      <c r="S17" s="184"/>
-      <c r="T17" s="185"/>
+      <c r="S17" s="164"/>
+      <c r="T17" s="165"/>
       <c r="U17" s="40"/>
     </row>
     <row r="18" spans="1:25" s="10" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A18" s="133">
+      <c r="A18" s="174">
         <v>2</v>
       </c>
-      <c r="B18" s="147" t="s">
+      <c r="B18" s="193" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="148"/>
-      <c r="D18" s="144" t="s">
-        <v>211</v>
-      </c>
-      <c r="E18" s="145"/>
-      <c r="F18" s="146"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="153" t="s">
+        <v>201</v>
+      </c>
+      <c r="E18" s="154"/>
+      <c r="F18" s="155"/>
       <c r="G18" s="9"/>
       <c r="I18" s="28"/>
       <c r="J18" s="28"/>
@@ -4415,26 +4771,26 @@
       <c r="N18" s="9"/>
       <c r="O18" s="27"/>
       <c r="P18" s="9"/>
-      <c r="Q18" s="189"/>
-      <c r="R18" s="172" t="s">
+      <c r="Q18" s="138"/>
+      <c r="R18" s="166" t="s">
         <v>61</v>
       </c>
-      <c r="S18" s="173"/>
-      <c r="T18" s="174"/>
+      <c r="S18" s="167"/>
+      <c r="T18" s="168"/>
       <c r="U18" s="41" t="e">
         <f>U13/(U13+U16+U17)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:25" s="10" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A19" s="134"/>
-      <c r="B19" s="149"/>
-      <c r="C19" s="150"/>
-      <c r="D19" s="144" t="s">
-        <v>212</v>
-      </c>
-      <c r="E19" s="145"/>
-      <c r="F19" s="146"/>
+      <c r="A19" s="175"/>
+      <c r="B19" s="195"/>
+      <c r="C19" s="196"/>
+      <c r="D19" s="153" t="s">
+        <v>202</v>
+      </c>
+      <c r="E19" s="154"/>
+      <c r="F19" s="155"/>
       <c r="G19" s="9"/>
       <c r="I19" s="28"/>
       <c r="J19" s="28"/>
@@ -4445,20 +4801,20 @@
       <c r="O19" s="27"/>
       <c r="P19" s="9"/>
       <c r="Q19"/>
-      <c r="R19" s="100"/>
-      <c r="S19" s="100"/>
-      <c r="T19" s="100"/>
-      <c r="U19" s="102"/>
+      <c r="R19" s="97"/>
+      <c r="S19" s="97"/>
+      <c r="T19" s="97"/>
+      <c r="U19" s="99"/>
     </row>
     <row r="20" spans="1:25" s="10" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A20" s="134"/>
-      <c r="B20" s="149"/>
-      <c r="C20" s="150"/>
-      <c r="D20" s="144" t="s">
-        <v>213</v>
-      </c>
-      <c r="E20" s="145"/>
-      <c r="F20" s="146"/>
+      <c r="A20" s="175"/>
+      <c r="B20" s="195"/>
+      <c r="C20" s="196"/>
+      <c r="D20" s="153" t="s">
+        <v>203</v>
+      </c>
+      <c r="E20" s="154"/>
+      <c r="F20" s="155"/>
       <c r="G20" s="9"/>
       <c r="I20" s="28"/>
       <c r="J20" s="28"/>
@@ -4469,20 +4825,20 @@
       <c r="O20" s="27"/>
       <c r="P20" s="9"/>
       <c r="Q20"/>
-      <c r="R20" s="100"/>
-      <c r="S20" s="100"/>
-      <c r="T20" s="100"/>
-      <c r="U20" s="102"/>
+      <c r="R20" s="97"/>
+      <c r="S20" s="97"/>
+      <c r="T20" s="97"/>
+      <c r="U20" s="99"/>
     </row>
     <row r="21" spans="1:25" s="10" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A21" s="134"/>
-      <c r="B21" s="149"/>
-      <c r="C21" s="150"/>
-      <c r="D21" s="144" t="s">
-        <v>214</v>
-      </c>
-      <c r="E21" s="145"/>
-      <c r="F21" s="146"/>
+      <c r="A21" s="175"/>
+      <c r="B21" s="195"/>
+      <c r="C21" s="196"/>
+      <c r="D21" s="153" t="s">
+        <v>204</v>
+      </c>
+      <c r="E21" s="154"/>
+      <c r="F21" s="155"/>
       <c r="G21" s="9"/>
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
@@ -4492,27 +4848,27 @@
       <c r="N21" s="9"/>
       <c r="O21" s="27"/>
       <c r="P21" s="9"/>
-      <c r="Q21" s="187" t="s">
+      <c r="Q21" s="136" t="s">
         <v>62</v>
       </c>
-      <c r="R21" s="175" t="s">
+      <c r="R21" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="S21" s="92" t="s">
+      <c r="S21" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="T21" s="103"/>
+      <c r="T21" s="100"/>
       <c r="U21" s="38"/>
     </row>
     <row r="22" spans="1:25" s="10" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A22" s="135"/>
-      <c r="B22" s="151"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="144" t="s">
-        <v>215</v>
-      </c>
-      <c r="E22" s="145"/>
-      <c r="F22" s="146"/>
+      <c r="A22" s="176"/>
+      <c r="B22" s="197"/>
+      <c r="C22" s="198"/>
+      <c r="D22" s="153" t="s">
+        <v>205</v>
+      </c>
+      <c r="E22" s="154"/>
+      <c r="F22" s="155"/>
       <c r="G22" s="9"/>
       <c r="I22" s="28"/>
       <c r="J22" s="28"/>
@@ -4522,27 +4878,27 @@
       <c r="N22" s="9"/>
       <c r="O22" s="27"/>
       <c r="P22" s="9"/>
-      <c r="Q22" s="188"/>
-      <c r="R22" s="176"/>
-      <c r="S22" s="95" t="s">
+      <c r="Q22" s="137"/>
+      <c r="R22" s="159"/>
+      <c r="S22" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="T22" s="104"/>
+      <c r="T22" s="101"/>
       <c r="U22" s="38"/>
     </row>
     <row r="23" spans="1:25" s="10" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A23" s="133">
+      <c r="A23" s="174">
         <v>3</v>
       </c>
-      <c r="B23" s="153" t="s">
+      <c r="B23" s="199" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="148"/>
-      <c r="D23" s="144" t="s">
-        <v>211</v>
-      </c>
-      <c r="E23" s="145"/>
-      <c r="F23" s="146"/>
+      <c r="C23" s="194"/>
+      <c r="D23" s="153" t="s">
+        <v>201</v>
+      </c>
+      <c r="E23" s="154"/>
+      <c r="F23" s="155"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
@@ -4551,26 +4907,26 @@
       <c r="N23" s="29"/>
       <c r="O23" s="27"/>
       <c r="P23" s="9"/>
-      <c r="Q23" s="188"/>
-      <c r="R23" s="177"/>
-      <c r="S23" s="178" t="s">
+      <c r="Q23" s="137"/>
+      <c r="R23" s="169"/>
+      <c r="S23" s="156" t="s">
         <v>55</v>
       </c>
-      <c r="T23" s="179"/>
+      <c r="T23" s="157"/>
       <c r="U23" s="45">
         <f>T21+T22</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:25" s="10" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A24" s="134"/>
-      <c r="B24" s="149"/>
-      <c r="C24" s="150"/>
-      <c r="D24" s="144" t="s">
-        <v>212</v>
-      </c>
-      <c r="E24" s="145"/>
-      <c r="F24" s="146"/>
+      <c r="A24" s="175"/>
+      <c r="B24" s="195"/>
+      <c r="C24" s="196"/>
+      <c r="D24" s="153" t="s">
+        <v>202</v>
+      </c>
+      <c r="E24" s="154"/>
+      <c r="F24" s="155"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
@@ -4579,25 +4935,25 @@
       <c r="N24" s="29"/>
       <c r="O24" s="27"/>
       <c r="P24" s="9"/>
-      <c r="Q24" s="188"/>
-      <c r="R24" s="175" t="s">
+      <c r="Q24" s="137"/>
+      <c r="R24" s="158" t="s">
         <v>63</v>
       </c>
-      <c r="S24" s="92" t="s">
+      <c r="S24" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="T24" s="105"/>
+      <c r="T24" s="102"/>
       <c r="U24" s="38"/>
     </row>
     <row r="25" spans="1:25" s="10" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A25" s="134"/>
-      <c r="B25" s="149"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="144" t="s">
-        <v>213</v>
-      </c>
-      <c r="E25" s="145"/>
-      <c r="F25" s="146"/>
+      <c r="A25" s="175"/>
+      <c r="B25" s="195"/>
+      <c r="C25" s="196"/>
+      <c r="D25" s="153" t="s">
+        <v>203</v>
+      </c>
+      <c r="E25" s="154"/>
+      <c r="F25" s="155"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -4606,23 +4962,23 @@
       <c r="N25" s="29"/>
       <c r="O25" s="27"/>
       <c r="P25" s="9"/>
-      <c r="Q25" s="188"/>
-      <c r="R25" s="176"/>
-      <c r="S25" s="95" t="s">
+      <c r="Q25" s="137"/>
+      <c r="R25" s="159"/>
+      <c r="S25" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="T25" s="106"/>
+      <c r="T25" s="103"/>
       <c r="U25" s="39"/>
     </row>
     <row r="26" spans="1:25" s="10" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A26" s="134"/>
-      <c r="B26" s="149"/>
-      <c r="C26" s="150"/>
-      <c r="D26" s="144" t="s">
-        <v>214</v>
-      </c>
-      <c r="E26" s="145"/>
-      <c r="F26" s="146"/>
+      <c r="A26" s="175"/>
+      <c r="B26" s="195"/>
+      <c r="C26" s="196"/>
+      <c r="D26" s="153" t="s">
+        <v>204</v>
+      </c>
+      <c r="E26" s="154"/>
+      <c r="F26" s="155"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -4631,26 +4987,26 @@
       <c r="N26" s="29"/>
       <c r="O26" s="27"/>
       <c r="P26" s="9"/>
-      <c r="Q26" s="188"/>
-      <c r="R26" s="180"/>
-      <c r="S26" s="181" t="s">
+      <c r="Q26" s="137"/>
+      <c r="R26" s="160"/>
+      <c r="S26" s="161" t="s">
         <v>65</v>
       </c>
-      <c r="T26" s="182"/>
+      <c r="T26" s="162"/>
       <c r="U26" s="46">
         <f>T24+T25</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:25" s="10" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A27" s="135"/>
-      <c r="B27" s="151"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="144" t="s">
-        <v>215</v>
-      </c>
-      <c r="E27" s="145"/>
-      <c r="F27" s="146"/>
+      <c r="A27" s="176"/>
+      <c r="B27" s="197"/>
+      <c r="C27" s="198"/>
+      <c r="D27" s="153" t="s">
+        <v>205</v>
+      </c>
+      <c r="E27" s="154"/>
+      <c r="F27" s="155"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -4659,12 +5015,12 @@
       <c r="N27" s="29"/>
       <c r="O27" s="27"/>
       <c r="P27" s="9"/>
-      <c r="Q27" s="188"/>
-      <c r="R27" s="183" t="s">
+      <c r="Q27" s="137"/>
+      <c r="R27" s="163" t="s">
         <v>60</v>
       </c>
-      <c r="S27" s="184"/>
-      <c r="T27" s="185"/>
+      <c r="S27" s="164"/>
+      <c r="T27" s="165"/>
       <c r="U27" s="40">
         <v>0</v>
       </c>
@@ -4677,11 +5033,11 @@
         <v>17</v>
       </c>
       <c r="C28" s="63"/>
-      <c r="D28" s="144" t="s">
+      <c r="D28" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="145"/>
-      <c r="F28" s="146"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="155"/>
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
       <c r="I28" s="30"/>
@@ -4692,12 +5048,12 @@
       <c r="N28" s="30"/>
       <c r="O28" s="31"/>
       <c r="P28" s="9"/>
-      <c r="Q28" s="189"/>
-      <c r="R28" s="172" t="s">
+      <c r="Q28" s="138"/>
+      <c r="R28" s="166" t="s">
         <v>61</v>
       </c>
-      <c r="S28" s="173"/>
-      <c r="T28" s="174"/>
+      <c r="S28" s="167"/>
+      <c r="T28" s="168"/>
       <c r="U28" s="41" t="e">
         <f>U23/(U23+U26+U27)</f>
         <v>#DIV/0!</v>
@@ -30733,6 +31089,53 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="D15:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="B18:C22"/>
+    <mergeCell ref="B23:C27"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A14:O14"/>
+    <mergeCell ref="G15:O15"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="R14:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="R24:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="A1:K1"/>
@@ -30749,62 +31152,15 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="Q11:Q18"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="R24:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="R21:R23"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="R14:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A14:O14"/>
-    <mergeCell ref="G15:O15"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="D15:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="B18:C22"/>
-    <mergeCell ref="B23:C27"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G8:H8" location="'Test Case A'!A1" display="Test Case A"/>
-    <hyperlink ref="G9:H9" location="'Test Case B'!A1" display="Test Case B"/>
-    <hyperlink ref="G10:H10" location="'Test Case C'!A1" display="Test Case C"/>
-    <hyperlink ref="G11:H11" location="'Test Case D'!A1" display="Test Case D"/>
-    <hyperlink ref="G12:H12" location="'Test Case E'!A1" display="Test Case E"/>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="G8:H8" location="'Test Case A'!A1" display="Test Case A" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G9:H9" location="'Test Case B'!A1" display="Test Case B" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G10:H10" location="'Test Case C'!A1" display="Test Case C" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G11:H11" location="'Test Case D'!A1" display="Test Case D" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G12:H12" location="'Test Case E'!A1" display="Test Case E" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -30812,11 +31168,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView topLeftCell="B24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -30829,20 +31185,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" thickBot="1">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="204" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="222"/>
-      <c r="H1" s="223"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="205"/>
     </row>
     <row r="2" spans="1:8" s="67" customFormat="1" ht="48" customHeight="1" thickBot="1">
       <c r="A2" s="79" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B2" s="65" t="s">
         <v>82</v>
@@ -30867,16 +31223,16 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="201" t="s">
+      <c r="A3" s="217" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="220" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="221" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="202" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="203" t="s">
-        <v>199</v>
-      </c>
-      <c r="D3" s="206"/>
+      <c r="D3" s="222"/>
       <c r="E3" s="76" t="s">
         <v>26</v>
       </c>
@@ -30887,110 +31243,110 @@
       <c r="H3" s="74"/>
     </row>
     <row r="4" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A4" s="201"/>
-      <c r="B4" s="202"/>
-      <c r="C4" s="204"/>
-      <c r="D4" s="207"/>
+      <c r="A4" s="217"/>
+      <c r="B4" s="220"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="223"/>
       <c r="E4" s="76" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="72"/>
       <c r="G4" s="73" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="H4" s="74"/>
     </row>
     <row r="5" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="201"/>
-      <c r="B5" s="202"/>
-      <c r="C5" s="204"/>
-      <c r="D5" s="207"/>
+      <c r="A5" s="217"/>
+      <c r="B5" s="220"/>
+      <c r="C5" s="207"/>
+      <c r="D5" s="223"/>
       <c r="E5" s="76" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F5" s="72"/>
       <c r="G5" s="73" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="H5" s="74"/>
     </row>
     <row r="6" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A6" s="201"/>
-      <c r="B6" s="202"/>
-      <c r="C6" s="204"/>
-      <c r="D6" s="207"/>
+      <c r="A6" s="217"/>
+      <c r="B6" s="220"/>
+      <c r="C6" s="207"/>
+      <c r="D6" s="223"/>
       <c r="E6" s="76" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F6" s="72"/>
       <c r="G6" s="73" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H6" s="74"/>
     </row>
     <row r="7" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A7" s="201"/>
-      <c r="B7" s="202"/>
-      <c r="C7" s="204"/>
-      <c r="D7" s="207"/>
+      <c r="A7" s="217"/>
+      <c r="B7" s="220"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="223"/>
       <c r="E7" s="76" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F7" s="72"/>
       <c r="G7" s="73" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="H7" s="74"/>
     </row>
     <row r="8" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A8" s="201"/>
-      <c r="B8" s="202"/>
-      <c r="C8" s="204"/>
-      <c r="D8" s="207"/>
+      <c r="A8" s="217"/>
+      <c r="B8" s="220"/>
+      <c r="C8" s="207"/>
+      <c r="D8" s="223"/>
       <c r="E8" s="76" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F8" s="72"/>
       <c r="G8" s="73" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="H8" s="74"/>
     </row>
     <row r="9" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A9" s="201"/>
-      <c r="B9" s="202"/>
-      <c r="C9" s="204"/>
-      <c r="D9" s="207"/>
+      <c r="A9" s="217"/>
+      <c r="B9" s="220"/>
+      <c r="C9" s="207"/>
+      <c r="D9" s="223"/>
       <c r="E9" s="76" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F9" s="72"/>
       <c r="G9" s="73" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="H9" s="74"/>
     </row>
     <row r="10" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A10" s="201"/>
-      <c r="B10" s="202"/>
-      <c r="C10" s="204"/>
-      <c r="D10" s="207"/>
+      <c r="A10" s="217"/>
+      <c r="B10" s="220"/>
+      <c r="C10" s="207"/>
+      <c r="D10" s="223"/>
       <c r="E10" s="76" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F10" s="72"/>
       <c r="G10" s="73" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="H10" s="74"/>
     </row>
     <row r="11" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A11" s="201"/>
-      <c r="B11" s="202"/>
-      <c r="C11" s="205"/>
-      <c r="D11" s="208"/>
+      <c r="A11" s="217"/>
+      <c r="B11" s="220"/>
+      <c r="C11" s="211"/>
+      <c r="D11" s="224"/>
       <c r="E11" s="76" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F11" s="72"/>
       <c r="G11" s="75" t="s">
@@ -30999,866 +31355,852 @@
       <c r="H11" s="74"/>
     </row>
     <row r="12" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A12" s="214" t="s">
-        <v>192</v>
+      <c r="A12" s="226" t="s">
+        <v>184</v>
       </c>
       <c r="B12" s="212" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="210" t="s">
-        <v>200</v>
-      </c>
-      <c r="D12" s="209"/>
+      <c r="C12" s="208" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" s="225"/>
       <c r="E12" s="77" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="72"/>
       <c r="G12" s="75" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H12" s="74"/>
     </row>
     <row r="13" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A13" s="215"/>
-      <c r="B13" s="213"/>
-      <c r="C13" s="211"/>
-      <c r="D13" s="207"/>
+      <c r="A13" s="227"/>
+      <c r="B13" s="203"/>
+      <c r="C13" s="206"/>
+      <c r="D13" s="223"/>
       <c r="E13" s="77" t="s">
         <v>31</v>
       </c>
       <c r="F13" s="72"/>
       <c r="G13" s="75" t="s">
-        <v>210</v>
+        <v>285</v>
       </c>
       <c r="H13" s="74"/>
     </row>
     <row r="14" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A14" s="215"/>
-      <c r="B14" s="213"/>
-      <c r="C14" s="211"/>
-      <c r="D14" s="207"/>
+      <c r="A14" s="227"/>
+      <c r="B14" s="203"/>
+      <c r="C14" s="206"/>
+      <c r="D14" s="223"/>
       <c r="E14" s="77" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F14" s="72"/>
-      <c r="G14" s="75" t="s">
-        <v>102</v>
+      <c r="G14" s="257" t="s">
+        <v>286</v>
       </c>
       <c r="H14" s="74"/>
     </row>
     <row r="15" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A15" s="215"/>
-      <c r="B15" s="213"/>
-      <c r="C15" s="211"/>
-      <c r="D15" s="207"/>
+      <c r="A15" s="227"/>
+      <c r="B15" s="203"/>
+      <c r="C15" s="206"/>
+      <c r="D15" s="223"/>
       <c r="E15" s="77" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F15" s="72"/>
-      <c r="G15" s="75" t="s">
-        <v>103</v>
+      <c r="G15" s="257" t="s">
+        <v>287</v>
       </c>
       <c r="H15" s="74"/>
     </row>
     <row r="16" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A16" s="215"/>
-      <c r="B16" s="213"/>
-      <c r="C16" s="211"/>
-      <c r="D16" s="207"/>
+      <c r="A16" s="227"/>
+      <c r="B16" s="203"/>
+      <c r="C16" s="206"/>
+      <c r="D16" s="223"/>
       <c r="E16" s="77" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F16" s="72"/>
       <c r="G16" s="75" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H16" s="74"/>
     </row>
     <row r="17" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A17" s="215"/>
-      <c r="B17" s="213"/>
-      <c r="C17" s="211"/>
-      <c r="D17" s="207"/>
+      <c r="A17" s="227"/>
+      <c r="B17" s="203"/>
+      <c r="C17" s="206"/>
+      <c r="D17" s="223"/>
       <c r="E17" s="77" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F17" s="72"/>
       <c r="G17" s="75" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H17" s="74"/>
     </row>
     <row r="18" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A18" s="215"/>
-      <c r="B18" s="213"/>
-      <c r="C18" s="211"/>
-      <c r="D18" s="207"/>
+      <c r="A18" s="227"/>
+      <c r="B18" s="203"/>
+      <c r="C18" s="206"/>
+      <c r="D18" s="223"/>
       <c r="E18" s="77" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F18" s="72"/>
       <c r="G18" s="75" t="s">
-        <v>106</v>
+        <v>288</v>
       </c>
       <c r="H18" s="74"/>
     </row>
     <row r="19" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A19" s="215"/>
-      <c r="B19" s="213"/>
-      <c r="C19" s="211"/>
-      <c r="D19" s="207"/>
+      <c r="A19" s="227"/>
+      <c r="B19" s="203"/>
+      <c r="C19" s="206"/>
+      <c r="D19" s="223"/>
       <c r="E19" s="77" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F19" s="72"/>
       <c r="G19" s="75" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H19" s="74"/>
     </row>
     <row r="20" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A20" s="215"/>
-      <c r="B20" s="213"/>
-      <c r="C20" s="211"/>
-      <c r="D20" s="207"/>
+      <c r="A20" s="227"/>
+      <c r="B20" s="203"/>
+      <c r="C20" s="206"/>
+      <c r="D20" s="223"/>
       <c r="E20" s="77" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F20" s="72"/>
       <c r="G20" s="75" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H20" s="74"/>
     </row>
     <row r="21" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A21" s="215"/>
-      <c r="B21" s="213"/>
-      <c r="C21" s="211"/>
-      <c r="D21" s="207"/>
+      <c r="A21" s="227"/>
+      <c r="B21" s="203"/>
+      <c r="C21" s="206"/>
+      <c r="D21" s="223"/>
       <c r="E21" s="77" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F21" s="72"/>
       <c r="G21" s="75" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H21" s="74"/>
     </row>
     <row r="22" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A22" s="215"/>
-      <c r="B22" s="213"/>
-      <c r="C22" s="211"/>
-      <c r="D22" s="207"/>
+      <c r="A22" s="227"/>
+      <c r="B22" s="203"/>
+      <c r="C22" s="206"/>
+      <c r="D22" s="223"/>
       <c r="E22" s="77" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F22" s="72"/>
       <c r="G22" s="75" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H22" s="74"/>
     </row>
     <row r="23" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A23" s="215"/>
-      <c r="B23" s="213"/>
-      <c r="C23" s="211"/>
-      <c r="D23" s="207"/>
+      <c r="A23" s="227"/>
+      <c r="B23" s="203"/>
+      <c r="C23" s="206"/>
+      <c r="D23" s="223"/>
       <c r="E23" s="77" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F23" s="72"/>
       <c r="G23" s="75" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H23" s="74"/>
     </row>
     <row r="24" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A24" s="215"/>
-      <c r="B24" s="213"/>
-      <c r="C24" s="211"/>
-      <c r="D24" s="207"/>
+      <c r="A24" s="227"/>
+      <c r="B24" s="203"/>
+      <c r="C24" s="206"/>
+      <c r="D24" s="223"/>
       <c r="E24" s="77" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F24" s="72"/>
-      <c r="G24" s="75" t="s">
-        <v>112</v>
+      <c r="G24" s="257" t="s">
+        <v>289</v>
       </c>
       <c r="H24" s="74"/>
     </row>
     <row r="25" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A25" s="215"/>
-      <c r="B25" s="213"/>
-      <c r="C25" s="211"/>
-      <c r="D25" s="207"/>
+      <c r="A25" s="227"/>
+      <c r="B25" s="203"/>
+      <c r="C25" s="206"/>
+      <c r="D25" s="223"/>
       <c r="E25" s="77" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F25" s="72"/>
       <c r="G25" s="75" t="s">
-        <v>113</v>
+        <v>290</v>
       </c>
       <c r="H25" s="74"/>
     </row>
     <row r="26" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A26" s="215"/>
-      <c r="B26" s="213"/>
-      <c r="C26" s="211"/>
-      <c r="D26" s="207"/>
+      <c r="A26" s="227"/>
+      <c r="B26" s="203"/>
+      <c r="C26" s="206"/>
+      <c r="D26" s="223"/>
       <c r="E26" s="77" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F26" s="72"/>
-      <c r="G26" s="75" t="s">
-        <v>114</v>
+      <c r="G26" s="257" t="s">
+        <v>291</v>
       </c>
       <c r="H26" s="74"/>
     </row>
-    <row r="27" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A27" s="215"/>
-      <c r="B27" s="213"/>
-      <c r="C27" s="211"/>
-      <c r="D27" s="207"/>
-      <c r="E27" s="82" t="s">
-        <v>166</v>
-      </c>
-      <c r="F27" s="83"/>
-      <c r="G27" s="84" t="s">
-        <v>115</v>
+    <row r="27" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A27" s="217" t="s">
+        <v>185</v>
+      </c>
+      <c r="B27" s="220" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="219" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="218"/>
+      <c r="E27" s="129" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="71"/>
+      <c r="G27" s="75" t="s">
+        <v>110</v>
       </c>
       <c r="H27" s="74"/>
     </row>
     <row r="28" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A28" s="201" t="s">
-        <v>193</v>
-      </c>
-      <c r="B28" s="202" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="218" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="217"/>
-      <c r="E28" s="132" t="s">
-        <v>34</v>
+      <c r="A28" s="217"/>
+      <c r="B28" s="220"/>
+      <c r="C28" s="219"/>
+      <c r="D28" s="218"/>
+      <c r="E28" s="129" t="s">
+        <v>35</v>
       </c>
       <c r="F28" s="71"/>
       <c r="G28" s="75" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H28" s="74"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A29" s="201"/>
-      <c r="B29" s="202"/>
-      <c r="C29" s="218"/>
-      <c r="D29" s="217"/>
-      <c r="E29" s="132" t="s">
-        <v>35</v>
+      <c r="A29" s="217"/>
+      <c r="B29" s="220"/>
+      <c r="C29" s="219"/>
+      <c r="D29" s="218"/>
+      <c r="E29" s="129" t="s">
+        <v>159</v>
       </c>
       <c r="F29" s="71"/>
       <c r="G29" s="75" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H29" s="74"/>
     </row>
     <row r="30" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A30" s="201"/>
-      <c r="B30" s="202"/>
-      <c r="C30" s="218"/>
-      <c r="D30" s="217"/>
-      <c r="E30" s="132" t="s">
-        <v>167</v>
+      <c r="A30" s="217"/>
+      <c r="B30" s="220"/>
+      <c r="C30" s="219"/>
+      <c r="D30" s="218"/>
+      <c r="E30" s="129" t="s">
+        <v>160</v>
       </c>
       <c r="F30" s="71"/>
       <c r="G30" s="75" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="H30" s="74"/>
     </row>
     <row r="31" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A31" s="201"/>
-      <c r="B31" s="202"/>
-      <c r="C31" s="218"/>
-      <c r="D31" s="217"/>
-      <c r="E31" s="132" t="s">
-        <v>168</v>
+      <c r="A31" s="217"/>
+      <c r="B31" s="220"/>
+      <c r="C31" s="219"/>
+      <c r="D31" s="218"/>
+      <c r="E31" s="129" t="s">
+        <v>161</v>
       </c>
       <c r="F31" s="71"/>
       <c r="G31" s="75" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H31" s="74"/>
     </row>
     <row r="32" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A32" s="201"/>
-      <c r="B32" s="202"/>
-      <c r="C32" s="218"/>
-      <c r="D32" s="217"/>
-      <c r="E32" s="132" t="s">
-        <v>169</v>
+      <c r="A32" s="217"/>
+      <c r="B32" s="220"/>
+      <c r="C32" s="219"/>
+      <c r="D32" s="218"/>
+      <c r="E32" s="129" t="s">
+        <v>162</v>
       </c>
       <c r="F32" s="71"/>
       <c r="G32" s="75" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H32" s="74"/>
     </row>
     <row r="33" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A33" s="201"/>
-      <c r="B33" s="202"/>
-      <c r="C33" s="218"/>
-      <c r="D33" s="217"/>
-      <c r="E33" s="132" t="s">
-        <v>170</v>
+      <c r="A33" s="217"/>
+      <c r="B33" s="220"/>
+      <c r="C33" s="219"/>
+      <c r="D33" s="218"/>
+      <c r="E33" s="129" t="s">
+        <v>163</v>
       </c>
       <c r="F33" s="71"/>
       <c r="G33" s="75" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="H33" s="74"/>
     </row>
     <row r="34" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A34" s="201"/>
-      <c r="B34" s="202"/>
-      <c r="C34" s="218"/>
-      <c r="D34" s="217"/>
-      <c r="E34" s="132" t="s">
-        <v>171</v>
+      <c r="A34" s="217"/>
+      <c r="B34" s="220"/>
+      <c r="C34" s="219"/>
+      <c r="D34" s="218"/>
+      <c r="E34" s="129" t="s">
+        <v>279</v>
       </c>
       <c r="F34" s="71"/>
       <c r="G34" s="75" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H34" s="74"/>
     </row>
     <row r="35" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A35" s="201"/>
-      <c r="B35" s="202"/>
-      <c r="C35" s="218"/>
-      <c r="D35" s="217"/>
-      <c r="E35" s="132" t="s">
-        <v>289</v>
+      <c r="A35" s="217"/>
+      <c r="B35" s="220"/>
+      <c r="C35" s="219"/>
+      <c r="D35" s="218"/>
+      <c r="E35" s="129" t="s">
+        <v>186</v>
       </c>
       <c r="F35" s="71"/>
       <c r="G35" s="75" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H35" s="74"/>
     </row>
-    <row r="36" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A36" s="201"/>
-      <c r="B36" s="202"/>
-      <c r="C36" s="218"/>
-      <c r="D36" s="217"/>
-      <c r="E36" s="132" t="s">
-        <v>194</v>
-      </c>
-      <c r="F36" s="71"/>
+    <row r="36" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A36" s="217"/>
+      <c r="B36" s="220"/>
+      <c r="C36" s="219"/>
+      <c r="D36" s="218"/>
+      <c r="E36" s="129" t="s">
+        <v>187</v>
+      </c>
+      <c r="F36" s="72"/>
       <c r="G36" s="75" t="s">
-        <v>123</v>
+        <v>261</v>
       </c>
       <c r="H36" s="74"/>
     </row>
     <row r="37" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A37" s="201"/>
-      <c r="B37" s="202"/>
-      <c r="C37" s="218"/>
-      <c r="D37" s="217"/>
-      <c r="E37" s="132" t="s">
-        <v>195</v>
+      <c r="A37" s="217"/>
+      <c r="B37" s="220"/>
+      <c r="C37" s="219"/>
+      <c r="D37" s="218"/>
+      <c r="E37" s="129" t="s">
+        <v>188</v>
       </c>
       <c r="F37" s="72"/>
       <c r="G37" s="75" t="s">
-        <v>271</v>
+        <v>118</v>
       </c>
       <c r="H37" s="74"/>
     </row>
     <row r="38" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A38" s="201"/>
-      <c r="B38" s="202"/>
-      <c r="C38" s="218"/>
-      <c r="D38" s="217"/>
-      <c r="E38" s="132" t="s">
-        <v>196</v>
+      <c r="A38" s="217"/>
+      <c r="B38" s="220"/>
+      <c r="C38" s="219"/>
+      <c r="D38" s="218"/>
+      <c r="E38" s="129" t="s">
+        <v>189</v>
       </c>
       <c r="F38" s="72"/>
       <c r="G38" s="75" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H38" s="74"/>
     </row>
     <row r="39" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A39" s="201"/>
-      <c r="B39" s="202"/>
-      <c r="C39" s="218"/>
-      <c r="D39" s="217"/>
-      <c r="E39" s="132" t="s">
-        <v>197</v>
+      <c r="A39" s="217"/>
+      <c r="B39" s="220"/>
+      <c r="C39" s="219"/>
+      <c r="D39" s="218"/>
+      <c r="E39" s="129" t="s">
+        <v>190</v>
       </c>
       <c r="F39" s="72"/>
       <c r="G39" s="75" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H39" s="74"/>
     </row>
     <row r="40" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A40" s="201"/>
-      <c r="B40" s="202"/>
-      <c r="C40" s="218"/>
-      <c r="D40" s="217"/>
-      <c r="E40" s="132" t="s">
-        <v>198</v>
-      </c>
-      <c r="F40" s="72"/>
-      <c r="G40" s="75" t="s">
-        <v>127</v>
-      </c>
-      <c r="H40" s="74"/>
+      <c r="A40" s="206" t="s">
+        <v>179</v>
+      </c>
+      <c r="B40" s="203" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="207" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="203"/>
+      <c r="E40" s="114" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="80"/>
+      <c r="G40" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="H40" s="115"/>
     </row>
     <row r="41" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A41" s="211" t="s">
-        <v>187</v>
-      </c>
-      <c r="B41" s="213" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="204" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" s="213"/>
-      <c r="E41" s="117" t="s">
-        <v>36</v>
-      </c>
-      <c r="F41" s="80"/>
-      <c r="G41" s="81" t="s">
-        <v>124</v>
-      </c>
-      <c r="H41" s="118"/>
+      <c r="A41" s="206"/>
+      <c r="B41" s="203"/>
+      <c r="C41" s="207"/>
+      <c r="D41" s="203"/>
+      <c r="E41" s="114" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="72"/>
+      <c r="G41" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="H41" s="115"/>
     </row>
     <row r="42" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A42" s="211"/>
-      <c r="B42" s="213"/>
-      <c r="C42" s="204"/>
-      <c r="D42" s="213"/>
-      <c r="E42" s="117" t="s">
-        <v>37</v>
+      <c r="A42" s="206"/>
+      <c r="B42" s="203"/>
+      <c r="C42" s="207"/>
+      <c r="D42" s="203"/>
+      <c r="E42" s="114" t="s">
+        <v>164</v>
       </c>
       <c r="F42" s="72"/>
       <c r="G42" s="75" t="s">
-        <v>128</v>
-      </c>
-      <c r="H42" s="118"/>
+        <v>177</v>
+      </c>
+      <c r="H42" s="115"/>
     </row>
     <row r="43" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A43" s="211"/>
-      <c r="B43" s="213"/>
-      <c r="C43" s="204"/>
-      <c r="D43" s="213"/>
-      <c r="E43" s="117" t="s">
-        <v>172</v>
+      <c r="A43" s="206"/>
+      <c r="B43" s="203"/>
+      <c r="C43" s="207"/>
+      <c r="D43" s="203"/>
+      <c r="E43" s="114" t="s">
+        <v>165</v>
       </c>
       <c r="F43" s="72"/>
       <c r="G43" s="75" t="s">
-        <v>185</v>
-      </c>
-      <c r="H43" s="118"/>
+        <v>122</v>
+      </c>
+      <c r="H43" s="115"/>
     </row>
     <row r="44" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A44" s="211"/>
-      <c r="B44" s="213"/>
-      <c r="C44" s="204"/>
-      <c r="D44" s="213"/>
-      <c r="E44" s="117" t="s">
-        <v>173</v>
+      <c r="A44" s="206"/>
+      <c r="B44" s="203"/>
+      <c r="C44" s="207"/>
+      <c r="D44" s="203"/>
+      <c r="E44" s="114" t="s">
+        <v>166</v>
       </c>
       <c r="F44" s="72"/>
       <c r="G44" s="75" t="s">
-        <v>129</v>
-      </c>
-      <c r="H44" s="118"/>
+        <v>123</v>
+      </c>
+      <c r="H44" s="115"/>
     </row>
     <row r="45" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A45" s="211"/>
-      <c r="B45" s="213"/>
-      <c r="C45" s="204"/>
-      <c r="D45" s="213"/>
-      <c r="E45" s="117" t="s">
-        <v>174</v>
+      <c r="A45" s="206"/>
+      <c r="B45" s="203"/>
+      <c r="C45" s="207"/>
+      <c r="D45" s="203"/>
+      <c r="E45" s="114" t="s">
+        <v>167</v>
       </c>
       <c r="F45" s="72"/>
       <c r="G45" s="75" t="s">
-        <v>130</v>
-      </c>
-      <c r="H45" s="118"/>
+        <v>124</v>
+      </c>
+      <c r="H45" s="115"/>
     </row>
     <row r="46" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A46" s="211"/>
-      <c r="B46" s="213"/>
-      <c r="C46" s="204"/>
-      <c r="D46" s="213"/>
-      <c r="E46" s="117" t="s">
-        <v>175</v>
+      <c r="A46" s="206"/>
+      <c r="B46" s="203"/>
+      <c r="C46" s="207"/>
+      <c r="D46" s="203"/>
+      <c r="E46" s="114" t="s">
+        <v>168</v>
       </c>
       <c r="F46" s="72"/>
       <c r="G46" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="H46" s="118"/>
+        <v>125</v>
+      </c>
+      <c r="H46" s="115"/>
     </row>
     <row r="47" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A47" s="211"/>
-      <c r="B47" s="213"/>
-      <c r="C47" s="204"/>
-      <c r="D47" s="213"/>
-      <c r="E47" s="117" t="s">
-        <v>176</v>
+      <c r="A47" s="208" t="s">
+        <v>180</v>
+      </c>
+      <c r="B47" s="212" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="210" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="212"/>
+      <c r="E47" s="78" t="s">
+        <v>38</v>
       </c>
       <c r="F47" s="72"/>
       <c r="G47" s="75" t="s">
-        <v>132</v>
-      </c>
-      <c r="H47" s="118"/>
+        <v>126</v>
+      </c>
+      <c r="H47" s="74"/>
     </row>
     <row r="48" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A48" s="210" t="s">
-        <v>188</v>
-      </c>
-      <c r="B48" s="212" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="225" t="s">
-        <v>93</v>
-      </c>
-      <c r="D48" s="212"/>
+      <c r="A48" s="206"/>
+      <c r="B48" s="203"/>
+      <c r="C48" s="207"/>
+      <c r="D48" s="203"/>
       <c r="E48" s="78" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F48" s="72"/>
       <c r="G48" s="75" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H48" s="74"/>
     </row>
     <row r="49" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A49" s="211"/>
-      <c r="B49" s="213"/>
-      <c r="C49" s="204"/>
-      <c r="D49" s="213"/>
+      <c r="A49" s="206"/>
+      <c r="B49" s="203"/>
+      <c r="C49" s="207"/>
+      <c r="D49" s="203"/>
       <c r="E49" s="78" t="s">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="F49" s="72"/>
       <c r="G49" s="75" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H49" s="74"/>
     </row>
     <row r="50" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A50" s="211"/>
-      <c r="B50" s="213"/>
-      <c r="C50" s="204"/>
-      <c r="D50" s="213"/>
+      <c r="A50" s="206"/>
+      <c r="B50" s="203"/>
+      <c r="C50" s="207"/>
+      <c r="D50" s="203"/>
       <c r="E50" s="78" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F50" s="72"/>
       <c r="G50" s="75" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H50" s="74"/>
     </row>
     <row r="51" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A51" s="211"/>
-      <c r="B51" s="213"/>
-      <c r="C51" s="204"/>
-      <c r="D51" s="213"/>
+      <c r="A51" s="206"/>
+      <c r="B51" s="203"/>
+      <c r="C51" s="207"/>
+      <c r="D51" s="203"/>
       <c r="E51" s="78" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F51" s="72"/>
       <c r="G51" s="75" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H51" s="74"/>
     </row>
     <row r="52" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A52" s="211"/>
-      <c r="B52" s="213"/>
-      <c r="C52" s="204"/>
-      <c r="D52" s="213"/>
+      <c r="A52" s="206"/>
+      <c r="B52" s="203"/>
+      <c r="C52" s="207"/>
+      <c r="D52" s="203"/>
       <c r="E52" s="78" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F52" s="72"/>
       <c r="G52" s="75" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H52" s="74"/>
     </row>
     <row r="53" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A53" s="211"/>
-      <c r="B53" s="213"/>
-      <c r="C53" s="204"/>
-      <c r="D53" s="213"/>
+      <c r="A53" s="206"/>
+      <c r="B53" s="203"/>
+      <c r="C53" s="207"/>
+      <c r="D53" s="203"/>
       <c r="E53" s="78" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F53" s="72"/>
       <c r="G53" s="75" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H53" s="74"/>
     </row>
     <row r="54" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A54" s="211"/>
-      <c r="B54" s="213"/>
-      <c r="C54" s="204"/>
+      <c r="A54" s="206"/>
+      <c r="B54" s="203"/>
+      <c r="C54" s="211"/>
       <c r="D54" s="213"/>
       <c r="E54" s="78" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F54" s="72"/>
       <c r="G54" s="75" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H54" s="74"/>
     </row>
     <row r="55" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A55" s="211"/>
-      <c r="B55" s="213"/>
-      <c r="C55" s="205"/>
-      <c r="D55" s="216"/>
+      <c r="A55" s="206"/>
+      <c r="B55" s="203"/>
+      <c r="C55" s="210" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" s="212"/>
       <c r="E55" s="78" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F55" s="72"/>
       <c r="G55" s="75" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H55" s="74"/>
     </row>
     <row r="56" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A56" s="211"/>
+      <c r="A56" s="209"/>
       <c r="B56" s="213"/>
-      <c r="C56" s="225" t="s">
-        <v>94</v>
-      </c>
-      <c r="D56" s="212"/>
+      <c r="C56" s="211"/>
+      <c r="D56" s="213"/>
       <c r="E56" s="78" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F56" s="72"/>
       <c r="G56" s="75" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H56" s="74"/>
     </row>
-    <row r="57" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A57" s="224"/>
-      <c r="B57" s="216"/>
-      <c r="C57" s="205"/>
-      <c r="D57" s="216"/>
-      <c r="E57" s="78" t="s">
-        <v>184</v>
-      </c>
-      <c r="F57" s="72"/>
-      <c r="G57" s="75" t="s">
-        <v>142</v>
-      </c>
-      <c r="H57" s="74"/>
+    <row r="57" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A57" s="214" t="s">
+        <v>181</v>
+      </c>
+      <c r="B57" s="200"/>
+      <c r="C57" s="200" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" s="200"/>
+      <c r="E57" s="82"/>
+      <c r="F57" s="83"/>
+      <c r="G57" s="84" t="s">
+        <v>109</v>
+      </c>
+      <c r="H57" s="84"/>
     </row>
     <row r="58" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A58" s="226" t="s">
-        <v>189</v>
-      </c>
-      <c r="B58" s="219"/>
-      <c r="C58" s="219" t="s">
-        <v>89</v>
-      </c>
-      <c r="D58" s="219"/>
-      <c r="E58" s="85"/>
-      <c r="F58" s="86"/>
-      <c r="G58" s="87" t="s">
+      <c r="A58" s="215"/>
+      <c r="B58" s="201"/>
+      <c r="C58" s="201"/>
+      <c r="D58" s="201"/>
+      <c r="E58" s="82"/>
+      <c r="F58" s="83"/>
+      <c r="G58" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="H58" s="84"/>
+    </row>
+    <row r="59" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A59" s="215"/>
+      <c r="B59" s="201"/>
+      <c r="C59" s="201"/>
+      <c r="D59" s="201"/>
+      <c r="E59" s="82"/>
+      <c r="F59" s="83"/>
+      <c r="G59" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="H59" s="84"/>
+    </row>
+    <row r="60" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A60" s="216"/>
+      <c r="B60" s="202"/>
+      <c r="C60" s="202"/>
+      <c r="D60" s="202"/>
+      <c r="E60" s="82"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="H60" s="84"/>
+    </row>
+    <row r="61" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A61" s="214" t="s">
+        <v>182</v>
+      </c>
+      <c r="B61" s="200"/>
+      <c r="C61" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" s="200"/>
+      <c r="E61" s="82"/>
+      <c r="F61" s="83"/>
+      <c r="G61" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="H61" s="84"/>
+    </row>
+    <row r="62" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A62" s="215"/>
+      <c r="B62" s="201"/>
+      <c r="C62" s="201"/>
+      <c r="D62" s="201"/>
+      <c r="E62" s="82"/>
+      <c r="F62" s="83"/>
+      <c r="G62" s="84" t="s">
+        <v>144</v>
+      </c>
+      <c r="H62" s="84"/>
+    </row>
+    <row r="63" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A63" s="215"/>
+      <c r="B63" s="201"/>
+      <c r="C63" s="201"/>
+      <c r="D63" s="201"/>
+      <c r="E63" s="82"/>
+      <c r="F63" s="83"/>
+      <c r="G63" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="H63" s="84"/>
+    </row>
+    <row r="64" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A64" s="215"/>
+      <c r="B64" s="201"/>
+      <c r="C64" s="201"/>
+      <c r="D64" s="201"/>
+      <c r="E64" s="82"/>
+      <c r="F64" s="83"/>
+      <c r="G64" s="84" t="s">
+        <v>113</v>
+      </c>
+      <c r="H64" s="84"/>
+    </row>
+    <row r="65" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A65" s="215"/>
+      <c r="B65" s="201"/>
+      <c r="C65" s="201"/>
+      <c r="D65" s="201"/>
+      <c r="E65" s="82"/>
+      <c r="F65" s="83"/>
+      <c r="G65" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="H65" s="84"/>
+    </row>
+    <row r="66" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A66" s="215"/>
+      <c r="B66" s="201"/>
+      <c r="C66" s="201"/>
+      <c r="D66" s="201"/>
+      <c r="E66" s="82"/>
+      <c r="F66" s="83"/>
+      <c r="G66" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="H66" s="84"/>
+    </row>
+    <row r="67" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A67" s="216"/>
+      <c r="B67" s="202"/>
+      <c r="C67" s="202"/>
+      <c r="D67" s="202"/>
+      <c r="E67" s="82"/>
+      <c r="F67" s="83"/>
+      <c r="G67" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="H58" s="87"/>
-    </row>
-    <row r="59" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A59" s="227"/>
-      <c r="B59" s="220"/>
-      <c r="C59" s="220"/>
-      <c r="D59" s="220"/>
-      <c r="E59" s="85"/>
-      <c r="F59" s="86"/>
-      <c r="G59" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="H59" s="87"/>
-    </row>
-    <row r="60" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A60" s="227"/>
-      <c r="B60" s="220"/>
-      <c r="C60" s="220"/>
-      <c r="D60" s="220"/>
-      <c r="E60" s="85"/>
-      <c r="F60" s="86"/>
-      <c r="G60" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="H60" s="87"/>
-    </row>
-    <row r="61" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A61" s="228"/>
-      <c r="B61" s="221"/>
-      <c r="C61" s="221"/>
-      <c r="D61" s="221"/>
-      <c r="E61" s="85"/>
-      <c r="F61" s="86"/>
-      <c r="G61" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="H61" s="87"/>
-    </row>
-    <row r="62" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A62" s="226" t="s">
-        <v>190</v>
-      </c>
-      <c r="B62" s="219"/>
-      <c r="C62" s="219" t="s">
-        <v>90</v>
-      </c>
-      <c r="D62" s="219"/>
-      <c r="E62" s="85"/>
-      <c r="F62" s="86"/>
-      <c r="G62" s="87" t="s">
-        <v>150</v>
-      </c>
-      <c r="H62" s="87"/>
-    </row>
-    <row r="63" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A63" s="227"/>
-      <c r="B63" s="220"/>
-      <c r="C63" s="220"/>
-      <c r="D63" s="220"/>
-      <c r="E63" s="85"/>
-      <c r="F63" s="86"/>
-      <c r="G63" s="87" t="s">
-        <v>151</v>
-      </c>
-      <c r="H63" s="87"/>
-    </row>
-    <row r="64" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A64" s="227"/>
-      <c r="B64" s="220"/>
-      <c r="C64" s="220"/>
-      <c r="D64" s="220"/>
-      <c r="E64" s="85"/>
-      <c r="F64" s="86"/>
-      <c r="G64" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="H64" s="87"/>
-    </row>
-    <row r="65" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A65" s="227"/>
-      <c r="B65" s="220"/>
-      <c r="C65" s="220"/>
-      <c r="D65" s="220"/>
-      <c r="E65" s="85"/>
-      <c r="F65" s="86"/>
-      <c r="G65" s="87" t="s">
-        <v>120</v>
-      </c>
-      <c r="H65" s="87"/>
-    </row>
-    <row r="66" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A66" s="227"/>
-      <c r="B66" s="220"/>
-      <c r="C66" s="220"/>
-      <c r="D66" s="220"/>
-      <c r="E66" s="85"/>
-      <c r="F66" s="86"/>
-      <c r="G66" s="87" t="s">
-        <v>121</v>
-      </c>
-      <c r="H66" s="87"/>
-    </row>
-    <row r="67" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A67" s="227"/>
-      <c r="B67" s="220"/>
-      <c r="C67" s="220"/>
-      <c r="D67" s="220"/>
-      <c r="E67" s="85"/>
-      <c r="F67" s="86"/>
-      <c r="G67" s="87" t="s">
-        <v>122</v>
-      </c>
-      <c r="H67" s="87"/>
-    </row>
-    <row r="68" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A68" s="228"/>
-      <c r="B68" s="221"/>
-      <c r="C68" s="221"/>
-      <c r="D68" s="221"/>
-      <c r="E68" s="85"/>
-      <c r="F68" s="86"/>
-      <c r="G68" s="87" t="s">
-        <v>123</v>
-      </c>
-      <c r="H68" s="87"/>
+      <c r="H67" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B62:B68"/>
-    <mergeCell ref="B41:B47"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="C41:C47"/>
-    <mergeCell ref="A48:A57"/>
-    <mergeCell ref="C48:C55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="B48:B57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="C62:C68"/>
-    <mergeCell ref="D58:D61"/>
-    <mergeCell ref="D62:D68"/>
-    <mergeCell ref="D41:D47"/>
-    <mergeCell ref="D48:D55"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="A28:A40"/>
-    <mergeCell ref="D28:D40"/>
-    <mergeCell ref="C28:C40"/>
-    <mergeCell ref="B28:B40"/>
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="B3:B11"/>
     <mergeCell ref="C3:C11"/>
     <mergeCell ref="D3:D11"/>
-    <mergeCell ref="D12:D27"/>
-    <mergeCell ref="C12:C27"/>
-    <mergeCell ref="B12:B27"/>
-    <mergeCell ref="A12:A27"/>
+    <mergeCell ref="D12:D26"/>
+    <mergeCell ref="C12:C26"/>
+    <mergeCell ref="B12:B26"/>
+    <mergeCell ref="A12:A26"/>
+    <mergeCell ref="D40:D46"/>
+    <mergeCell ref="D47:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="A27:A39"/>
+    <mergeCell ref="D27:D39"/>
+    <mergeCell ref="C27:C39"/>
+    <mergeCell ref="B27:B39"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B61:B67"/>
+    <mergeCell ref="B40:B46"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="C40:C46"/>
+    <mergeCell ref="A47:A56"/>
+    <mergeCell ref="C47:C54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="B47:B56"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="A61:A67"/>
+    <mergeCell ref="C61:C67"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="D61:D67"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E41" location="'Test Case D'!A4" display="TC-D01"/>
-    <hyperlink ref="E42" location="'Test Case D'!A5" display="TC-D02"/>
-    <hyperlink ref="E43" location="'Test Case D'!A6" display="TC-D03"/>
-    <hyperlink ref="E44" location="'Test Case D'!A7" display="TC-D04"/>
-    <hyperlink ref="E45" location="'Test Case D'!A8" display="TC-D05"/>
-    <hyperlink ref="E46" location="'Test Case D'!A9" display="TC-D06"/>
-    <hyperlink ref="E47" location="'Test Case D'!A10" display="TC-D07"/>
-    <hyperlink ref="E28" location="'Test Case C'!A4" display="TC-C01"/>
+    <hyperlink ref="E40" location="'Test Case D'!A4" display="TC-D01" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E41" location="'Test Case D'!A5" display="TC-D02" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E42" location="'Test Case D'!A6" display="TC-D03" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E43" location="'Test Case D'!A7" display="TC-D04" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="E44" location="'Test Case D'!A8" display="TC-D05" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="E45" location="'Test Case D'!A9" display="TC-D06" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="E46" location="'Test Case D'!A10" display="TC-D07" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="E27" location="'Test Case C'!A4" display="TC-C01" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -31890,21 +32232,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="20" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="228" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="230"/>
-      <c r="I1" s="230"/>
-      <c r="J1" s="230"/>
-      <c r="K1" s="230"/>
-      <c r="L1" s="230"/>
-      <c r="M1" s="231"/>
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="229"/>
+      <c r="L1" s="229"/>
+      <c r="M1" s="230"/>
     </row>
     <row r="2" spans="1:14" ht="5.25" customHeight="1"/>
     <row r="3" spans="1:14" s="13" customFormat="1" ht="21.75" customHeight="1">
@@ -31915,7 +32257,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D3" s="58" t="s">
         <v>20</v>
@@ -31947,8 +32289,8 @@
       <c r="M3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="114" t="s">
-        <v>238</v>
+      <c r="N3" s="111" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -31956,8 +32298,8 @@
         <v>26</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="89" t="s">
-        <v>216</v>
+      <c r="C4" s="86" t="s">
+        <v>206</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -31985,7 +32327,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="19"/>
-      <c r="C5" s="90"/>
+      <c r="C5" s="87"/>
       <c r="D5" s="5"/>
       <c r="E5" s="7"/>
       <c r="F5" s="8" t="s">
@@ -32010,37 +32352,37 @@
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="L4:L100">
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH("PASSED",L4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",L4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:M100">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="Automation Passed">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="Automation Passed">
       <formula>NOT(ISERROR(SEARCH("Automation Passed",L4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="Not Passed">
+    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="Not Passed">
       <formula>NOT(ISERROR(SEARCH("Not Passed",L4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M4:M5">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M4:M5" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Automation Passed,Not Passed,Not Tested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L102" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PASSED,FAILED,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L4" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"PASSED,FAILED,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="N3" location="'Test Plan'!A1" display="Home"/>
+    <hyperlink ref="N3" location="'Test Plan'!A1" display="Home" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -32048,17 +32390,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E25" sqref="E25"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.7109375" defaultRowHeight="12.75"/>
@@ -32081,34 +32423,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="21" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A1" s="234" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
-      <c r="N1" s="236"/>
+      <c r="A1" s="233" t="s">
+        <v>366</v>
+      </c>
+      <c r="B1" s="234"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="234"/>
+      <c r="J1" s="234"/>
+      <c r="K1" s="234"/>
+      <c r="L1" s="234"/>
+      <c r="M1" s="234"/>
+      <c r="N1" s="235"/>
     </row>
     <row r="2" spans="1:15" ht="5.25" customHeight="1"/>
     <row r="3" spans="1:15" s="13" customFormat="1" ht="21.75" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="232" t="s">
+      <c r="B3" s="231" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="233"/>
+      <c r="C3" s="232"/>
       <c r="D3" s="58" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>20</v>
@@ -32140,64 +32482,658 @@
       <c r="N3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="114" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="15" t="s">
+      <c r="O3" s="111" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="156.75">
+      <c r="A4" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="89" t="s">
-        <v>216</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6" t="s">
+      <c r="B4" s="258" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" s="257" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" s="131" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="258" t="s">
+        <v>294</v>
+      </c>
+      <c r="F4" s="258" t="s">
+        <v>295</v>
+      </c>
+      <c r="G4" s="259" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" s="17" t="s">
+      <c r="H4" s="120" t="s">
+        <v>296</v>
+      </c>
+      <c r="I4" s="72" t="s">
+        <v>297</v>
+      </c>
+      <c r="J4" s="72" t="s">
+        <v>297</v>
+      </c>
+      <c r="K4" s="260" t="s">
+        <v>298</v>
+      </c>
+      <c r="L4" s="261" t="s">
+        <v>299</v>
+      </c>
+      <c r="M4" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="262" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:15" ht="99.75">
+      <c r="A5" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8" t="s">
+      <c r="B5" s="258" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="257" t="s">
+        <v>300</v>
+      </c>
+      <c r="D5" s="130" t="s">
+        <v>206</v>
+      </c>
+      <c r="E5" s="258" t="s">
+        <v>294</v>
+      </c>
+      <c r="F5" s="258" t="s">
+        <v>301</v>
+      </c>
+      <c r="G5" s="263" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="17" t="s">
-        <v>43</v>
+      <c r="H5" s="258" t="s">
+        <v>302</v>
+      </c>
+      <c r="I5" s="72" t="s">
+        <v>303</v>
+      </c>
+      <c r="J5" s="72" t="s">
+        <v>304</v>
+      </c>
+      <c r="K5" s="260" t="s">
+        <v>298</v>
+      </c>
+      <c r="L5" s="260" t="s">
+        <v>305</v>
+      </c>
+      <c r="M5" s="264" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="262" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="156.75">
+      <c r="A6" s="124" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="258" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" s="257" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" s="130" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" s="258" t="s">
+        <v>294</v>
+      </c>
+      <c r="F6" s="258" t="s">
+        <v>307</v>
+      </c>
+      <c r="G6" s="263" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="120" t="s">
+        <v>308</v>
+      </c>
+      <c r="I6" s="72" t="s">
+        <v>309</v>
+      </c>
+      <c r="J6" s="72" t="s">
+        <v>309</v>
+      </c>
+      <c r="K6" s="260" t="s">
+        <v>298</v>
+      </c>
+      <c r="L6" s="260" t="s">
+        <v>310</v>
+      </c>
+      <c r="M6" s="264" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="262" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="99.75">
+      <c r="A7" s="124" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="258" t="s">
+        <v>292</v>
+      </c>
+      <c r="C7" s="257" t="s">
+        <v>311</v>
+      </c>
+      <c r="D7" s="130" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" s="258" t="s">
+        <v>294</v>
+      </c>
+      <c r="F7" s="258" t="s">
+        <v>312</v>
+      </c>
+      <c r="G7" s="263" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="120" t="s">
+        <v>313</v>
+      </c>
+      <c r="I7" s="72" t="s">
+        <v>314</v>
+      </c>
+      <c r="J7" s="72" t="s">
+        <v>314</v>
+      </c>
+      <c r="K7" s="260" t="s">
+        <v>298</v>
+      </c>
+      <c r="L7" s="260" t="s">
+        <v>315</v>
+      </c>
+      <c r="M7" s="264" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="262" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="102">
+      <c r="A8" s="124" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="126" t="s">
+        <v>316</v>
+      </c>
+      <c r="C8" s="257" t="s">
+        <v>317</v>
+      </c>
+      <c r="D8" s="127" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" s="258" t="s">
+        <v>318</v>
+      </c>
+      <c r="F8" s="124" t="s">
+        <v>319</v>
+      </c>
+      <c r="G8" s="259" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="126"/>
+      <c r="I8" s="124" t="s">
+        <v>320</v>
+      </c>
+      <c r="J8" s="124" t="s">
+        <v>320</v>
+      </c>
+      <c r="K8" s="260" t="s">
+        <v>298</v>
+      </c>
+      <c r="L8" s="127" t="s">
+        <v>321</v>
+      </c>
+      <c r="M8" s="264" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="262" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="99.75">
+      <c r="A9" s="124" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="126" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="257" t="s">
+        <v>322</v>
+      </c>
+      <c r="D9" s="127" t="s">
+        <v>206</v>
+      </c>
+      <c r="E9" s="258" t="s">
+        <v>318</v>
+      </c>
+      <c r="F9" s="124" t="s">
+        <v>323</v>
+      </c>
+      <c r="G9" s="259" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="126"/>
+      <c r="I9" s="72" t="s">
+        <v>324</v>
+      </c>
+      <c r="J9" s="72" t="s">
+        <v>324</v>
+      </c>
+      <c r="K9" s="260" t="s">
+        <v>298</v>
+      </c>
+      <c r="L9" s="127" t="s">
+        <v>325</v>
+      </c>
+      <c r="M9" s="127" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="262" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="142.5">
+      <c r="A10" s="124" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="126" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="257" t="s">
+        <v>326</v>
+      </c>
+      <c r="D10" s="127" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" s="258" t="s">
+        <v>318</v>
+      </c>
+      <c r="F10" s="124" t="s">
+        <v>327</v>
+      </c>
+      <c r="G10" s="259" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="126" t="s">
+        <v>328</v>
+      </c>
+      <c r="I10" s="72" t="s">
+        <v>329</v>
+      </c>
+      <c r="J10" s="72" t="s">
+        <v>329</v>
+      </c>
+      <c r="K10" s="260" t="s">
+        <v>298</v>
+      </c>
+      <c r="L10" s="127" t="s">
+        <v>330</v>
+      </c>
+      <c r="M10" s="127" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="262" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="142.5">
+      <c r="A11" s="124" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="126" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="257" t="s">
+        <v>331</v>
+      </c>
+      <c r="D11" s="127" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11" s="258" t="s">
+        <v>318</v>
+      </c>
+      <c r="F11" s="124" t="s">
+        <v>332</v>
+      </c>
+      <c r="G11" s="259" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="126" t="s">
+        <v>333</v>
+      </c>
+      <c r="I11" s="72" t="s">
+        <v>334</v>
+      </c>
+      <c r="J11" s="72" t="s">
+        <v>334</v>
+      </c>
+      <c r="K11" s="260" t="s">
+        <v>298</v>
+      </c>
+      <c r="L11" s="127" t="s">
+        <v>335</v>
+      </c>
+      <c r="M11" s="127" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" s="262" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="127.5">
+      <c r="A12" s="124" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="126" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" s="257" t="s">
+        <v>336</v>
+      </c>
+      <c r="D12" s="127" t="s">
+        <v>206</v>
+      </c>
+      <c r="E12" s="258" t="s">
+        <v>318</v>
+      </c>
+      <c r="F12" s="124" t="s">
+        <v>337</v>
+      </c>
+      <c r="G12" s="259" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="126"/>
+      <c r="I12" s="72" t="s">
+        <v>338</v>
+      </c>
+      <c r="J12" s="72" t="s">
+        <v>338</v>
+      </c>
+      <c r="K12" s="260" t="s">
+        <v>298</v>
+      </c>
+      <c r="L12" s="127"/>
+      <c r="M12" s="127" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" s="262" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="114">
+      <c r="A13" s="124" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="126" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="257" t="s">
+        <v>339</v>
+      </c>
+      <c r="D13" s="127" t="s">
+        <v>206</v>
+      </c>
+      <c r="E13" s="258" t="s">
+        <v>318</v>
+      </c>
+      <c r="F13" s="124" t="s">
+        <v>340</v>
+      </c>
+      <c r="G13" s="259" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="126"/>
+      <c r="I13" s="72" t="s">
+        <v>341</v>
+      </c>
+      <c r="J13" s="72" t="s">
+        <v>341</v>
+      </c>
+      <c r="K13" s="260" t="s">
+        <v>298</v>
+      </c>
+      <c r="L13" s="127" t="s">
+        <v>342</v>
+      </c>
+      <c r="M13" s="127" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" s="262" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="140.25">
+      <c r="A14" s="124" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="126" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="257" t="s">
+        <v>343</v>
+      </c>
+      <c r="D14" s="127" t="s">
+        <v>206</v>
+      </c>
+      <c r="E14" s="258" t="s">
+        <v>318</v>
+      </c>
+      <c r="F14" s="124" t="s">
+        <v>344</v>
+      </c>
+      <c r="G14" s="259" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="124" t="s">
+        <v>345</v>
+      </c>
+      <c r="I14" s="72" t="s">
+        <v>346</v>
+      </c>
+      <c r="J14" s="72" t="s">
+        <v>346</v>
+      </c>
+      <c r="K14" s="260" t="s">
+        <v>298</v>
+      </c>
+      <c r="L14" s="127" t="s">
+        <v>347</v>
+      </c>
+      <c r="M14" s="127" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" s="262" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="76.5">
+      <c r="A15" s="124" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="126" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="257" t="s">
+        <v>348</v>
+      </c>
+      <c r="D15" s="127" t="s">
+        <v>206</v>
+      </c>
+      <c r="E15" s="258" t="s">
+        <v>318</v>
+      </c>
+      <c r="F15" s="124" t="s">
+        <v>349</v>
+      </c>
+      <c r="G15" s="259" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="124" t="s">
+        <v>350</v>
+      </c>
+      <c r="I15" s="72" t="s">
+        <v>351</v>
+      </c>
+      <c r="J15" s="72" t="s">
+        <v>351</v>
+      </c>
+      <c r="K15" s="260" t="s">
+        <v>298</v>
+      </c>
+      <c r="L15" s="127" t="s">
+        <v>352</v>
+      </c>
+      <c r="M15" s="127" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" s="262" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="99.75">
+      <c r="A16" s="124" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="126" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="257" t="s">
+        <v>353</v>
+      </c>
+      <c r="D16" s="127" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" s="120" t="s">
+        <v>318</v>
+      </c>
+      <c r="F16" s="124" t="s">
+        <v>354</v>
+      </c>
+      <c r="G16" s="259" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="124" t="s">
+        <v>355</v>
+      </c>
+      <c r="I16" s="72" t="s">
+        <v>356</v>
+      </c>
+      <c r="J16" s="72" t="s">
+        <v>356</v>
+      </c>
+      <c r="K16" s="260" t="s">
+        <v>298</v>
+      </c>
+      <c r="L16" s="127" t="s">
+        <v>357</v>
+      </c>
+      <c r="M16" s="127" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16" s="262" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="99.75">
+      <c r="A17" s="124" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="126" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="257" t="s">
+        <v>358</v>
+      </c>
+      <c r="D17" s="127" t="s">
+        <v>206</v>
+      </c>
+      <c r="E17" s="258" t="s">
+        <v>318</v>
+      </c>
+      <c r="F17" s="124" t="s">
+        <v>359</v>
+      </c>
+      <c r="G17" s="259" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="124" t="s">
+        <v>355</v>
+      </c>
+      <c r="I17" s="72" t="s">
+        <v>360</v>
+      </c>
+      <c r="J17" s="72" t="s">
+        <v>360</v>
+      </c>
+      <c r="K17" s="260" t="s">
+        <v>298</v>
+      </c>
+      <c r="L17" s="127" t="s">
+        <v>361</v>
+      </c>
+      <c r="M17" s="127" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" s="262" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="99.75">
+      <c r="A18" s="124" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" s="126" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" s="257" t="s">
+        <v>362</v>
+      </c>
+      <c r="D18" s="127" t="s">
+        <v>206</v>
+      </c>
+      <c r="E18" s="258" t="s">
+        <v>318</v>
+      </c>
+      <c r="F18" s="124" t="s">
+        <v>363</v>
+      </c>
+      <c r="G18" s="259" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="124" t="s">
+        <v>355</v>
+      </c>
+      <c r="I18" s="72" t="s">
+        <v>364</v>
+      </c>
+      <c r="J18" s="72" t="s">
+        <v>364</v>
+      </c>
+      <c r="K18" s="260" t="s">
+        <v>298</v>
+      </c>
+      <c r="L18" s="127" t="s">
+        <v>365</v>
+      </c>
+      <c r="M18" s="127" t="s">
+        <v>46</v>
+      </c>
+      <c r="N18" s="262" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -32206,38 +33142,54 @@
     <mergeCell ref="A1:N1"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
-  <conditionalFormatting sqref="M4:M100">
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="PASSED">
+  <conditionalFormatting sqref="M19:M100">
+    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="PASSED">
+      <formula>NOT(ISERROR(SEARCH("PASSED",M19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="8" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",M19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19:N100">
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="Automation Passed">
+      <formula>NOT(ISERROR(SEARCH("Automation Passed",M19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="Not Passed">
+      <formula>NOT(ISERROR(SEARCH("Not Passed",M19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:M18">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH("PASSED",M4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",M4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:N100">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Automation Passed">
+  <conditionalFormatting sqref="M4:N18">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Automation Passed">
       <formula>NOT(ISERROR(SEARCH("Automation Passed",M4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="Not Passed">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Not Passed">
       <formula>NOT(ISERROR(SEARCH("Not Passed",M4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M4" xr:uid="{FF295890-BC63-422B-8F82-671A011BC5FC}">
       <formula1>"PASSED,FAILED,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5:M102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5:M102" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"PASSED,FAILED,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N4:N5">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N4:N18" xr:uid="{3A3FCB4A-5BA5-47AD-A99C-A5518896852D}">
       <formula1>"Automation Passed,Not Passed,Not Tested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="O3" location="'Test Plan'!A1" display="Home"/>
+    <hyperlink ref="O3" location="'Test Plan'!A1" display="Home" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -32245,7 +33197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -32253,7 +33205,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C39" sqref="C39"/>
       <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
@@ -32278,610 +33230,610 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="22" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A1" s="237" t="s">
-        <v>279</v>
-      </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="238"/>
-      <c r="K1" s="238"/>
-      <c r="L1" s="238"/>
-      <c r="M1" s="238"/>
-      <c r="N1" s="239"/>
+      <c r="A1" s="236" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
+      <c r="F1" s="237"/>
+      <c r="G1" s="237"/>
+      <c r="H1" s="237"/>
+      <c r="I1" s="237"/>
+      <c r="J1" s="237"/>
+      <c r="K1" s="237"/>
+      <c r="L1" s="237"/>
+      <c r="M1" s="237"/>
+      <c r="N1" s="238"/>
     </row>
     <row r="2" spans="1:15" ht="5.25" customHeight="1"/>
     <row r="3" spans="1:15" s="13" customFormat="1" ht="21.75" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="232" t="s">
+      <c r="B3" s="231" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="233"/>
+      <c r="C3" s="232"/>
       <c r="D3" s="58" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="119" t="s">
+      <c r="F3" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="119" t="s">
+      <c r="G3" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="119" t="s">
+      <c r="H3" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="119" t="s">
+      <c r="I3" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="119" t="s">
+      <c r="J3" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="K3" s="119" t="s">
+      <c r="K3" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="119" t="s">
+      <c r="L3" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="M3" s="119" t="s">
+      <c r="M3" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="119" t="s">
+      <c r="N3" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="114" t="s">
+      <c r="O3" s="111" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="102">
+      <c r="A4" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="245" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="246"/>
+      <c r="D4" s="118" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="119" t="s">
+        <v>278</v>
+      </c>
+      <c r="F4" s="120" t="s">
+        <v>229</v>
+      </c>
+      <c r="G4" s="128" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="120" t="s">
+        <v>230</v>
+      </c>
+      <c r="I4" s="120" t="s">
+        <v>280</v>
+      </c>
+      <c r="J4" s="120" t="s">
+        <v>231</v>
+      </c>
+      <c r="K4" s="121" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="122" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="123" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="123" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="102">
+      <c r="A5" s="124" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="243" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="244"/>
+      <c r="D5" s="125" t="s">
+        <v>226</v>
+      </c>
+      <c r="E5" s="119" t="s">
+        <v>278</v>
+      </c>
+      <c r="F5" s="120" t="s">
+        <v>232</v>
+      </c>
+      <c r="G5" s="113" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="120" t="s">
+        <v>233</v>
+      </c>
+      <c r="I5" s="120" t="s">
+        <v>249</v>
+      </c>
+      <c r="J5" s="120" t="s">
+        <v>248</v>
+      </c>
+      <c r="K5" s="121" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="122" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="123" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="123" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="76.5">
+      <c r="A6" s="124" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="241" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="242"/>
+      <c r="D6" s="127" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" s="119" t="s">
+        <v>278</v>
+      </c>
+      <c r="F6" s="120" t="s">
+        <v>234</v>
+      </c>
+      <c r="G6" s="128" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="120" t="s">
+        <v>235</v>
+      </c>
+      <c r="I6" s="120" t="s">
+        <v>251</v>
+      </c>
+      <c r="J6" s="120" t="s">
+        <v>250</v>
+      </c>
+      <c r="K6" s="121" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="122" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="123" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="123" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="76.5">
+      <c r="A7" s="124" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="241" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="242"/>
+      <c r="D7" s="127" t="s">
+        <v>226</v>
+      </c>
+      <c r="E7" s="119" t="s">
+        <v>278</v>
+      </c>
+      <c r="F7" s="120" t="s">
+        <v>236</v>
+      </c>
+      <c r="G7" s="128" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="120" t="s">
+        <v>237</v>
+      </c>
+      <c r="I7" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="J7" s="124" t="s">
+        <v>252</v>
+      </c>
+      <c r="K7" s="127" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="122" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="123" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="123" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="102">
+      <c r="A8" s="126" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="239" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="240"/>
+      <c r="D8" s="127" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" s="119" t="s">
+        <v>278</v>
+      </c>
+      <c r="F8" s="120" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="102">
-      <c r="A4" s="120" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="246" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="247"/>
-      <c r="D4" s="121" t="s">
-        <v>216</v>
-      </c>
-      <c r="E4" s="122" t="s">
-        <v>288</v>
-      </c>
-      <c r="F4" s="123" t="s">
+      <c r="G8" s="128" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="120" t="s">
+        <v>237</v>
+      </c>
+      <c r="I8" s="126" t="s">
+        <v>282</v>
+      </c>
+      <c r="J8" s="126" t="s">
+        <v>283</v>
+      </c>
+      <c r="K8" s="127" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="122" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" s="123" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="123" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="102">
+      <c r="A9" s="126" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="239" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="240"/>
+      <c r="D9" s="127" t="s">
+        <v>226</v>
+      </c>
+      <c r="E9" s="119" t="s">
+        <v>278</v>
+      </c>
+      <c r="F9" s="120" t="s">
         <v>239</v>
       </c>
-      <c r="G4" s="131" t="s">
+      <c r="G9" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="123" t="s">
+      <c r="H9" s="120" t="s">
+        <v>237</v>
+      </c>
+      <c r="I9" s="124" t="s">
+        <v>253</v>
+      </c>
+      <c r="J9" s="124" t="s">
+        <v>254</v>
+      </c>
+      <c r="K9" s="127" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="122" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="123" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="123" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="102">
+      <c r="A10" s="124" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="241" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="242"/>
+      <c r="D10" s="127" t="s">
+        <v>226</v>
+      </c>
+      <c r="E10" s="119" t="s">
+        <v>278</v>
+      </c>
+      <c r="F10" s="120" t="s">
         <v>240</v>
       </c>
-      <c r="I4" s="123" t="s">
-        <v>290</v>
-      </c>
-      <c r="J4" s="123" t="s">
+      <c r="G10" s="128" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="120" t="s">
+        <v>237</v>
+      </c>
+      <c r="I10" s="124" t="s">
+        <v>253</v>
+      </c>
+      <c r="J10" s="124" t="s">
+        <v>255</v>
+      </c>
+      <c r="K10" s="127" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="122" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" s="123" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="123" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="127.5">
+      <c r="A11" s="124" t="s">
+        <v>279</v>
+      </c>
+      <c r="B11" s="241" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="242"/>
+      <c r="D11" s="127" t="s">
+        <v>226</v>
+      </c>
+      <c r="E11" s="119" t="s">
+        <v>278</v>
+      </c>
+      <c r="F11" s="120" t="s">
         <v>241</v>
       </c>
-      <c r="K4" s="124" t="s">
+      <c r="G11" s="128" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="120" t="s">
+        <v>237</v>
+      </c>
+      <c r="I11" s="124" t="s">
+        <v>256</v>
+      </c>
+      <c r="J11" s="124" t="s">
+        <v>257</v>
+      </c>
+      <c r="K11" s="127" t="s">
         <v>74</v>
       </c>
-      <c r="L4" s="125" t="s">
+      <c r="L11" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="M4" s="126" t="s">
+      <c r="M11" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="126" t="s">
+      <c r="N11" s="123" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="102">
-      <c r="A5" s="127" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="244" t="s">
+    <row r="12" spans="1:15" ht="127.5">
+      <c r="A12" s="124" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="241" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="242"/>
+      <c r="D12" s="127" t="s">
+        <v>226</v>
+      </c>
+      <c r="E12" s="119" t="s">
+        <v>278</v>
+      </c>
+      <c r="F12" s="120" t="s">
+        <v>242</v>
+      </c>
+      <c r="G12" s="128" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="120" t="s">
+        <v>237</v>
+      </c>
+      <c r="I12" s="124" t="s">
+        <v>258</v>
+      </c>
+      <c r="J12" s="124" t="s">
+        <v>259</v>
+      </c>
+      <c r="K12" s="127" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="122" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" s="123" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" s="127"/>
+    </row>
+    <row r="13" spans="1:15" ht="153">
+      <c r="A13" s="124" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" s="241" t="s">
+        <v>261</v>
+      </c>
+      <c r="C13" s="242"/>
+      <c r="D13" s="127" t="s">
+        <v>206</v>
+      </c>
+      <c r="E13" s="119" t="s">
+        <v>278</v>
+      </c>
+      <c r="F13" s="120" t="s">
+        <v>262</v>
+      </c>
+      <c r="G13" s="128" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="120" t="s">
+        <v>243</v>
+      </c>
+      <c r="I13" s="124" t="s">
+        <v>260</v>
+      </c>
+      <c r="J13" s="120" t="s">
+        <v>263</v>
+      </c>
+      <c r="K13" s="127" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="122" t="s">
+        <v>70</v>
+      </c>
+      <c r="M13" s="123" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" s="123" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="20" customFormat="1" ht="102">
+      <c r="A14" s="126" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" s="239" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="245"/>
-      <c r="D5" s="128" t="s">
-        <v>236</v>
-      </c>
-      <c r="E5" s="122" t="s">
-        <v>288</v>
-      </c>
-      <c r="F5" s="123" t="s">
-        <v>242</v>
-      </c>
-      <c r="G5" s="116" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="123" t="s">
-        <v>243</v>
-      </c>
-      <c r="I5" s="123" t="s">
-        <v>259</v>
-      </c>
-      <c r="J5" s="123" t="s">
-        <v>258</v>
-      </c>
-      <c r="K5" s="124" t="s">
+      <c r="C14" s="240"/>
+      <c r="D14" s="127" t="s">
+        <v>226</v>
+      </c>
+      <c r="E14" s="119" t="s">
+        <v>278</v>
+      </c>
+      <c r="F14" s="120" t="s">
+        <v>245</v>
+      </c>
+      <c r="G14" s="128" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="120" t="s">
+        <v>244</v>
+      </c>
+      <c r="I14" s="124" t="s">
+        <v>264</v>
+      </c>
+      <c r="J14" s="124" t="s">
+        <v>265</v>
+      </c>
+      <c r="K14" s="127" t="s">
         <v>74</v>
       </c>
-      <c r="L5" s="125" t="s">
+      <c r="L14" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="M5" s="126" t="s">
+      <c r="M14" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="126" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="76.5">
-      <c r="A6" s="127" t="s">
-        <v>167</v>
-      </c>
-      <c r="B6" s="242" t="s">
+      <c r="N14" s="123" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="114.75">
+      <c r="A15" s="126" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" s="241" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="243"/>
-      <c r="D6" s="130" t="s">
-        <v>236</v>
-      </c>
-      <c r="E6" s="122" t="s">
-        <v>288</v>
-      </c>
-      <c r="F6" s="123" t="s">
+      <c r="C15" s="242"/>
+      <c r="D15" s="127" t="s">
+        <v>226</v>
+      </c>
+      <c r="E15" s="119" t="s">
+        <v>278</v>
+      </c>
+      <c r="F15" s="120" t="s">
+        <v>246</v>
+      </c>
+      <c r="G15" s="128" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="120" t="s">
         <v>244</v>
       </c>
-      <c r="G6" s="131" t="s">
+      <c r="I15" s="124" t="s">
+        <v>267</v>
+      </c>
+      <c r="J15" s="124" t="s">
+        <v>267</v>
+      </c>
+      <c r="K15" s="127" t="s">
+        <v>74</v>
+      </c>
+      <c r="L15" s="122" t="s">
+        <v>70</v>
+      </c>
+      <c r="M15" s="123" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" s="123" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="127.5">
+      <c r="A16" s="126" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="239" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="240"/>
+      <c r="D16" s="127" t="s">
+        <v>226</v>
+      </c>
+      <c r="E16" s="119" t="s">
+        <v>278</v>
+      </c>
+      <c r="F16" s="120" t="s">
+        <v>247</v>
+      </c>
+      <c r="G16" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="123" t="s">
-        <v>245</v>
-      </c>
-      <c r="I6" s="123" t="s">
-        <v>261</v>
-      </c>
-      <c r="J6" s="123" t="s">
-        <v>260</v>
-      </c>
-      <c r="K6" s="124" t="s">
+      <c r="H16" s="120" t="s">
+        <v>244</v>
+      </c>
+      <c r="I16" s="124" t="s">
+        <v>266</v>
+      </c>
+      <c r="J16" s="124" t="s">
+        <v>268</v>
+      </c>
+      <c r="K16" s="127" t="s">
         <v>74</v>
       </c>
-      <c r="L6" s="125" t="s">
+      <c r="L16" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="M6" s="126" t="s">
+      <c r="M16" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="126" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="76.5">
-      <c r="A7" s="127" t="s">
-        <v>168</v>
-      </c>
-      <c r="B7" s="242" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" s="243"/>
-      <c r="D7" s="130" t="s">
-        <v>236</v>
-      </c>
-      <c r="E7" s="122" t="s">
-        <v>288</v>
-      </c>
-      <c r="F7" s="123" t="s">
-        <v>246</v>
-      </c>
-      <c r="G7" s="131" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="123" t="s">
-        <v>247</v>
-      </c>
-      <c r="I7" s="127" t="s">
-        <v>291</v>
-      </c>
-      <c r="J7" s="127" t="s">
-        <v>262</v>
-      </c>
-      <c r="K7" s="130" t="s">
-        <v>74</v>
-      </c>
-      <c r="L7" s="125" t="s">
-        <v>70</v>
-      </c>
-      <c r="M7" s="126" t="s">
-        <v>46</v>
-      </c>
-      <c r="N7" s="126" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="102">
-      <c r="A8" s="129" t="s">
-        <v>169</v>
-      </c>
-      <c r="B8" s="240" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" s="241"/>
-      <c r="D8" s="130" t="s">
-        <v>236</v>
-      </c>
-      <c r="E8" s="122" t="s">
-        <v>288</v>
-      </c>
-      <c r="F8" s="123" t="s">
-        <v>248</v>
-      </c>
-      <c r="G8" s="131" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="123" t="s">
-        <v>247</v>
-      </c>
-      <c r="I8" s="129" t="s">
-        <v>292</v>
-      </c>
-      <c r="J8" s="129" t="s">
-        <v>293</v>
-      </c>
-      <c r="K8" s="130" t="s">
-        <v>74</v>
-      </c>
-      <c r="L8" s="125" t="s">
-        <v>70</v>
-      </c>
-      <c r="M8" s="126" t="s">
-        <v>46</v>
-      </c>
-      <c r="N8" s="126" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="102">
-      <c r="A9" s="129" t="s">
-        <v>170</v>
-      </c>
-      <c r="B9" s="240" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="241"/>
-      <c r="D9" s="130" t="s">
-        <v>236</v>
-      </c>
-      <c r="E9" s="122" t="s">
-        <v>288</v>
-      </c>
-      <c r="F9" s="123" t="s">
-        <v>249</v>
-      </c>
-      <c r="G9" s="131" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="123" t="s">
-        <v>247</v>
-      </c>
-      <c r="I9" s="127" t="s">
-        <v>263</v>
-      </c>
-      <c r="J9" s="127" t="s">
-        <v>264</v>
-      </c>
-      <c r="K9" s="130" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" s="125" t="s">
-        <v>70</v>
-      </c>
-      <c r="M9" s="126" t="s">
-        <v>46</v>
-      </c>
-      <c r="N9" s="126" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="102">
-      <c r="A10" s="127" t="s">
-        <v>171</v>
-      </c>
-      <c r="B10" s="242" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="243"/>
-      <c r="D10" s="130" t="s">
-        <v>236</v>
-      </c>
-      <c r="E10" s="122" t="s">
-        <v>288</v>
-      </c>
-      <c r="F10" s="123" t="s">
-        <v>250</v>
-      </c>
-      <c r="G10" s="131" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="123" t="s">
-        <v>247</v>
-      </c>
-      <c r="I10" s="127" t="s">
-        <v>263</v>
-      </c>
-      <c r="J10" s="127" t="s">
-        <v>265</v>
-      </c>
-      <c r="K10" s="130" t="s">
-        <v>74</v>
-      </c>
-      <c r="L10" s="125" t="s">
-        <v>70</v>
-      </c>
-      <c r="M10" s="126" t="s">
-        <v>46</v>
-      </c>
-      <c r="N10" s="126" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="127.5">
-      <c r="A11" s="127" t="s">
-        <v>289</v>
-      </c>
-      <c r="B11" s="242" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="243"/>
-      <c r="D11" s="130" t="s">
-        <v>236</v>
-      </c>
-      <c r="E11" s="122" t="s">
-        <v>288</v>
-      </c>
-      <c r="F11" s="123" t="s">
-        <v>251</v>
-      </c>
-      <c r="G11" s="131" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="123" t="s">
-        <v>247</v>
-      </c>
-      <c r="I11" s="127" t="s">
-        <v>266</v>
-      </c>
-      <c r="J11" s="127" t="s">
-        <v>267</v>
-      </c>
-      <c r="K11" s="130" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="125" t="s">
-        <v>70</v>
-      </c>
-      <c r="M11" s="126" t="s">
-        <v>46</v>
-      </c>
-      <c r="N11" s="126" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="127.5">
-      <c r="A12" s="127" t="s">
-        <v>194</v>
-      </c>
-      <c r="B12" s="242" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="243"/>
-      <c r="D12" s="130" t="s">
-        <v>236</v>
-      </c>
-      <c r="E12" s="122" t="s">
-        <v>288</v>
-      </c>
-      <c r="F12" s="123" t="s">
-        <v>252</v>
-      </c>
-      <c r="G12" s="131" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="123" t="s">
-        <v>247</v>
-      </c>
-      <c r="I12" s="127" t="s">
-        <v>268</v>
-      </c>
-      <c r="J12" s="127" t="s">
-        <v>269</v>
-      </c>
-      <c r="K12" s="130" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="125" t="s">
-        <v>70</v>
-      </c>
-      <c r="M12" s="126" t="s">
-        <v>46</v>
-      </c>
-      <c r="N12" s="130"/>
-    </row>
-    <row r="13" spans="1:15" ht="153">
-      <c r="A13" s="127" t="s">
-        <v>195</v>
-      </c>
-      <c r="B13" s="242" t="s">
-        <v>271</v>
-      </c>
-      <c r="C13" s="243"/>
-      <c r="D13" s="130" t="s">
-        <v>216</v>
-      </c>
-      <c r="E13" s="122" t="s">
-        <v>288</v>
-      </c>
-      <c r="F13" s="123" t="s">
-        <v>272</v>
-      </c>
-      <c r="G13" s="131" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="123" t="s">
-        <v>253</v>
-      </c>
-      <c r="I13" s="127" t="s">
-        <v>270</v>
-      </c>
-      <c r="J13" s="123" t="s">
-        <v>273</v>
-      </c>
-      <c r="K13" s="130" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="125" t="s">
-        <v>70</v>
-      </c>
-      <c r="M13" s="126" t="s">
-        <v>46</v>
-      </c>
-      <c r="N13" s="126" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="20" customFormat="1" ht="102">
-      <c r="A14" s="129" t="s">
-        <v>196</v>
-      </c>
-      <c r="B14" s="240" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="241"/>
-      <c r="D14" s="130" t="s">
-        <v>236</v>
-      </c>
-      <c r="E14" s="122" t="s">
-        <v>288</v>
-      </c>
-      <c r="F14" s="123" t="s">
-        <v>255</v>
-      </c>
-      <c r="G14" s="131" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="123" t="s">
-        <v>254</v>
-      </c>
-      <c r="I14" s="127" t="s">
-        <v>274</v>
-      </c>
-      <c r="J14" s="127" t="s">
-        <v>275</v>
-      </c>
-      <c r="K14" s="130" t="s">
-        <v>74</v>
-      </c>
-      <c r="L14" s="125" t="s">
-        <v>70</v>
-      </c>
-      <c r="M14" s="126" t="s">
-        <v>46</v>
-      </c>
-      <c r="N14" s="126" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="114.75">
-      <c r="A15" s="129" t="s">
-        <v>197</v>
-      </c>
-      <c r="B15" s="242" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="243"/>
-      <c r="D15" s="130" t="s">
-        <v>236</v>
-      </c>
-      <c r="E15" s="122" t="s">
-        <v>288</v>
-      </c>
-      <c r="F15" s="123" t="s">
-        <v>256</v>
-      </c>
-      <c r="G15" s="131" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="123" t="s">
-        <v>254</v>
-      </c>
-      <c r="I15" s="127" t="s">
-        <v>277</v>
-      </c>
-      <c r="J15" s="127" t="s">
-        <v>277</v>
-      </c>
-      <c r="K15" s="130" t="s">
-        <v>74</v>
-      </c>
-      <c r="L15" s="125" t="s">
-        <v>70</v>
-      </c>
-      <c r="M15" s="126" t="s">
-        <v>46</v>
-      </c>
-      <c r="N15" s="126" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="127.5">
-      <c r="A16" s="129" t="s">
-        <v>198</v>
-      </c>
-      <c r="B16" s="240" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="241"/>
-      <c r="D16" s="130" t="s">
-        <v>236</v>
-      </c>
-      <c r="E16" s="122" t="s">
-        <v>288</v>
-      </c>
-      <c r="F16" s="123" t="s">
-        <v>257</v>
-      </c>
-      <c r="G16" s="131" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="123" t="s">
-        <v>254</v>
-      </c>
-      <c r="I16" s="127" t="s">
-        <v>276</v>
-      </c>
-      <c r="J16" s="127" t="s">
-        <v>278</v>
-      </c>
-      <c r="K16" s="130" t="s">
-        <v>74</v>
-      </c>
-      <c r="L16" s="125" t="s">
-        <v>70</v>
-      </c>
-      <c r="M16" s="126" t="s">
-        <v>46</v>
-      </c>
-      <c r="N16" s="126" t="s">
+      <c r="N16" s="123" t="s">
         <v>43</v>
       </c>
     </row>
@@ -32905,50 +33857,50 @@
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <conditionalFormatting sqref="M4:M98">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH("PASSED",M4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",M4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:N98">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Automation Passed">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Automation Passed">
       <formula>NOT(ISERROR(SEARCH("Automation Passed",M4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Not Passed">
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="Not Passed">
       <formula>NOT(ISERROR(SEARCH("Not Passed",M4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M4:M16">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M4:M16" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"PASSED,FAILED,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M17:M100">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M17:M100" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"PASSED,FAILED,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N4:N11 N13:N16">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N4:N11 N13:N16" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>"Automation Passed,Not Passed,Not Tested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="L4" r:id="rId1"/>
-    <hyperlink ref="L5:L16" r:id="rId2" display="Link"/>
-    <hyperlink ref="L5" r:id="rId3"/>
-    <hyperlink ref="L6" r:id="rId4"/>
-    <hyperlink ref="L7" r:id="rId5"/>
-    <hyperlink ref="L8" r:id="rId6"/>
-    <hyperlink ref="L9" r:id="rId7"/>
-    <hyperlink ref="L10" r:id="rId8"/>
-    <hyperlink ref="L11" r:id="rId9"/>
-    <hyperlink ref="L12" r:id="rId10"/>
-    <hyperlink ref="L13" r:id="rId11"/>
-    <hyperlink ref="L14:L16" r:id="rId12" display="Link"/>
-    <hyperlink ref="O3" location="'Test Plan'!A1" display="Home"/>
-    <hyperlink ref="L14:L16" r:id="rId13" display="Link"/>
+    <hyperlink ref="L4" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="L5:L16" r:id="rId2" display="Link" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="L5" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="L6" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="L7" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="L8" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="L9" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="L10" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="L11" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="L12" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="L13" r:id="rId11" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
+    <hyperlink ref="L14:L16" r:id="rId12" display="Link" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
+    <hyperlink ref="O3" location="'Test Plan'!A1" display="Home" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
+    <hyperlink ref="L14:L16" r:id="rId13" display="Link" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId14"/>
@@ -32956,14 +33908,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E25" sqref="E25"/>
       <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
@@ -32990,34 +33942,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="57" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A1" s="250" t="s">
-        <v>219</v>
-      </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="251"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="251"/>
-      <c r="I1" s="251"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251"/>
-      <c r="M1" s="251"/>
-      <c r="N1" s="252"/>
+      <c r="A1" s="249" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="250"/>
+      <c r="C1" s="250"/>
+      <c r="D1" s="250"/>
+      <c r="E1" s="250"/>
+      <c r="F1" s="250"/>
+      <c r="G1" s="250"/>
+      <c r="H1" s="250"/>
+      <c r="I1" s="250"/>
+      <c r="J1" s="250"/>
+      <c r="K1" s="250"/>
+      <c r="L1" s="250"/>
+      <c r="M1" s="250"/>
+      <c r="N1" s="251"/>
     </row>
     <row r="2" spans="1:15" ht="5.25" customHeight="1"/>
     <row r="3" spans="1:15" s="13" customFormat="1" ht="21.75" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="248" t="s">
+      <c r="B3" s="247" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="249"/>
+      <c r="C3" s="248"/>
       <c r="D3" s="58" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>20</v>
@@ -33049,43 +34001,43 @@
       <c r="N3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="114" t="s">
-        <v>238</v>
+      <c r="O3" s="111" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="105" customHeight="1">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="253" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="253"/>
-      <c r="D4" s="112" t="s">
-        <v>216</v>
+      <c r="B4" s="252" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="252"/>
+      <c r="D4" s="109" t="s">
+        <v>206</v>
       </c>
       <c r="E4" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="108" t="s">
-        <v>220</v>
-      </c>
-      <c r="G4" s="115" t="s">
+      <c r="F4" s="105" t="s">
+        <v>210</v>
+      </c>
+      <c r="G4" s="112" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="K4" s="107" t="s">
-        <v>218</v>
-      </c>
-      <c r="L4" s="110" t="s">
+        <v>207</v>
+      </c>
+      <c r="K4" s="104" t="s">
+        <v>208</v>
+      </c>
+      <c r="L4" s="107" t="s">
         <v>70</v>
       </c>
       <c r="M4" s="17" t="s">
@@ -33096,38 +34048,38 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="58.5" customHeight="1">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="253" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="253"/>
-      <c r="D5" s="113" t="s">
-        <v>216</v>
+      <c r="B5" s="252" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="252"/>
+      <c r="D5" s="110" t="s">
+        <v>206</v>
       </c>
       <c r="E5" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="109" t="s">
-        <v>287</v>
-      </c>
-      <c r="G5" s="115" t="s">
+      <c r="F5" s="106" t="s">
+        <v>277</v>
+      </c>
+      <c r="G5" s="112" t="s">
         <v>27</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="J5" s="108" t="s">
-        <v>281</v>
-      </c>
-      <c r="K5" s="107" t="s">
-        <v>218</v>
-      </c>
-      <c r="L5" s="110" t="s">
+        <v>213</v>
+      </c>
+      <c r="J5" s="105" t="s">
+        <v>271</v>
+      </c>
+      <c r="K5" s="104" t="s">
+        <v>208</v>
+      </c>
+      <c r="L5" s="107" t="s">
         <v>70</v>
       </c>
       <c r="M5" s="16" t="s">
@@ -33138,38 +34090,38 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="102">
-      <c r="A6" s="111" t="s">
-        <v>172</v>
-      </c>
-      <c r="B6" s="253" t="s">
-        <v>185</v>
-      </c>
-      <c r="C6" s="253"/>
-      <c r="D6" s="113" t="s">
-        <v>236</v>
+      <c r="A6" s="108" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="252" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="252"/>
+      <c r="D6" s="110" t="s">
+        <v>226</v>
       </c>
       <c r="E6" s="56" t="s">
         <v>36</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G6" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="G6" s="113" t="s">
         <v>29</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="J6" s="108" t="s">
-        <v>283</v>
-      </c>
-      <c r="K6" s="107" t="s">
-        <v>218</v>
-      </c>
-      <c r="L6" s="110" t="s">
+        <v>216</v>
+      </c>
+      <c r="J6" s="105" t="s">
+        <v>273</v>
+      </c>
+      <c r="K6" s="104" t="s">
+        <v>208</v>
+      </c>
+      <c r="L6" s="107" t="s">
         <v>70</v>
       </c>
       <c r="M6" s="17" t="s">
@@ -33180,38 +34132,38 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="51">
-      <c r="A7" s="111" t="s">
-        <v>173</v>
-      </c>
-      <c r="B7" s="253" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="253"/>
-      <c r="D7" s="113" t="s">
-        <v>216</v>
+      <c r="A7" s="108" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="252" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="252"/>
+      <c r="D7" s="110" t="s">
+        <v>206</v>
       </c>
       <c r="E7" s="56" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G7" s="115" t="s">
+        <v>217</v>
+      </c>
+      <c r="G7" s="112" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="J7" s="108" t="s">
-        <v>280</v>
-      </c>
-      <c r="K7" s="107" t="s">
         <v>218</v>
       </c>
-      <c r="L7" s="110" t="s">
+      <c r="J7" s="105" t="s">
+        <v>270</v>
+      </c>
+      <c r="K7" s="104" t="s">
+        <v>208</v>
+      </c>
+      <c r="L7" s="107" t="s">
         <v>70</v>
       </c>
       <c r="M7" s="17" t="s">
@@ -33222,38 +34174,38 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="89.25">
-      <c r="A8" s="111" t="s">
-        <v>174</v>
-      </c>
-      <c r="B8" s="253" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="253"/>
-      <c r="D8" s="113" t="s">
-        <v>237</v>
+      <c r="A8" s="108" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="252" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="252"/>
+      <c r="D8" s="110" t="s">
+        <v>227</v>
       </c>
       <c r="E8" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="109" t="s">
-        <v>230</v>
-      </c>
-      <c r="G8" s="116" t="s">
+      <c r="F8" s="106" t="s">
+        <v>220</v>
+      </c>
+      <c r="G8" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="108" t="s">
-        <v>231</v>
-      </c>
-      <c r="I8" s="108" t="s">
-        <v>232</v>
-      </c>
-      <c r="J8" s="108" t="s">
-        <v>282</v>
-      </c>
-      <c r="K8" s="107" t="s">
-        <v>218</v>
-      </c>
-      <c r="L8" s="110" t="s">
+      <c r="H8" s="105" t="s">
+        <v>221</v>
+      </c>
+      <c r="I8" s="105" t="s">
+        <v>222</v>
+      </c>
+      <c r="J8" s="105" t="s">
+        <v>272</v>
+      </c>
+      <c r="K8" s="104" t="s">
+        <v>208</v>
+      </c>
+      <c r="L8" s="107" t="s">
         <v>70</v>
       </c>
       <c r="M8" s="17" t="s">
@@ -33264,38 +34216,38 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="63.75">
-      <c r="A9" s="111" t="s">
-        <v>175</v>
-      </c>
-      <c r="B9" s="253" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="253"/>
-      <c r="D9" s="113" t="s">
-        <v>216</v>
+      <c r="A9" s="108" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="252" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="252"/>
+      <c r="D9" s="110" t="s">
+        <v>206</v>
       </c>
       <c r="E9" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="109" t="s">
-        <v>233</v>
-      </c>
-      <c r="G9" s="115" t="s">
+      <c r="F9" s="106" t="s">
+        <v>223</v>
+      </c>
+      <c r="G9" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="108" t="s">
-        <v>221</v>
+      <c r="H9" s="105" t="s">
+        <v>211</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="J9" s="108" t="s">
-        <v>284</v>
-      </c>
-      <c r="K9" s="107" t="s">
-        <v>218</v>
-      </c>
-      <c r="L9" s="110" t="s">
+        <v>219</v>
+      </c>
+      <c r="J9" s="105" t="s">
+        <v>274</v>
+      </c>
+      <c r="K9" s="104" t="s">
+        <v>208</v>
+      </c>
+      <c r="L9" s="107" t="s">
         <v>70</v>
       </c>
       <c r="M9" s="17" t="s">
@@ -33306,38 +34258,38 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="114.75">
-      <c r="A10" s="111" t="s">
-        <v>176</v>
-      </c>
-      <c r="B10" s="254" t="s">
-        <v>285</v>
-      </c>
-      <c r="C10" s="253"/>
-      <c r="D10" s="113" t="s">
-        <v>216</v>
+      <c r="A10" s="108" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="253" t="s">
+        <v>275</v>
+      </c>
+      <c r="C10" s="252"/>
+      <c r="D10" s="110" t="s">
+        <v>206</v>
       </c>
       <c r="E10" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="109" t="s">
-        <v>234</v>
-      </c>
-      <c r="G10" s="115" t="s">
+      <c r="F10" s="106" t="s">
+        <v>224</v>
+      </c>
+      <c r="G10" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="108" t="s">
-        <v>235</v>
-      </c>
-      <c r="I10" s="108" t="s">
-        <v>286</v>
-      </c>
-      <c r="J10" s="108" t="s">
-        <v>286</v>
-      </c>
-      <c r="K10" s="107" t="s">
-        <v>218</v>
-      </c>
-      <c r="L10" s="110" t="s">
+      <c r="H10" s="105" t="s">
+        <v>225</v>
+      </c>
+      <c r="I10" s="105" t="s">
+        <v>276</v>
+      </c>
+      <c r="J10" s="105" t="s">
+        <v>276</v>
+      </c>
+      <c r="K10" s="104" t="s">
+        <v>208</v>
+      </c>
+      <c r="L10" s="107" t="s">
         <v>70</v>
       </c>
       <c r="M10" s="17" t="s">
@@ -33361,47 +34313,47 @@
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <conditionalFormatting sqref="M4:M98">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH("PASSED",M4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",M4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:N98">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Automation Passed">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Automation Passed">
       <formula>NOT(ISERROR(SEARCH("Automation Passed",M4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Not Passed">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Not Passed">
       <formula>NOT(ISERROR(SEARCH("Not Passed",M4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5 M11:M100">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5 M11:M100" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"PASSED,FAILED,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M4 M6:M10">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M4 M6:M10" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"PASSED,FAILED,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N4:N10">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N4:N10" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>"Automation Passed,Not Passed,Not Tested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0500-000003000000}">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="L5" r:id="rId1"/>
-    <hyperlink ref="L4" r:id="rId2"/>
-    <hyperlink ref="L6" r:id="rId3"/>
-    <hyperlink ref="L7" r:id="rId4"/>
-    <hyperlink ref="L8" r:id="rId5"/>
-    <hyperlink ref="L9" r:id="rId6"/>
-    <hyperlink ref="L10" r:id="rId7"/>
-    <hyperlink ref="O3" location="'Test Plan'!A1" display="Home"/>
-    <hyperlink ref="E4" location="'Test Case B'!A4" display="TC-B01"/>
-    <hyperlink ref="E5" location="'Test Case D'!A4" display="1. TC-D01"/>
-    <hyperlink ref="E6:E10" location="'Test Case D'!A4" display="1. TC-D01"/>
+    <hyperlink ref="L5" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="L4" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="L6" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="L7" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="L8" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="L9" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="L10" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="O3" location="'Test Plan'!A1" display="Home" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="E4" location="'Test Case B'!A4" display="TC-B01" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
+    <hyperlink ref="E5" location="'Test Case D'!A4" display="1. TC-D01" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
+    <hyperlink ref="E6:E10" location="'Test Case D'!A4" display="1. TC-D01" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId8"/>
@@ -33409,7 +34361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -33442,34 +34394,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="23" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A1" s="255" t="s">
+      <c r="A1" s="254" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
-      <c r="E1" s="256"/>
-      <c r="F1" s="256"/>
-      <c r="G1" s="256"/>
-      <c r="H1" s="256"/>
-      <c r="I1" s="256"/>
-      <c r="J1" s="256"/>
-      <c r="K1" s="256"/>
-      <c r="L1" s="256"/>
-      <c r="M1" s="256"/>
-      <c r="N1" s="257"/>
+      <c r="B1" s="255"/>
+      <c r="C1" s="255"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="255"/>
+      <c r="I1" s="255"/>
+      <c r="J1" s="255"/>
+      <c r="K1" s="255"/>
+      <c r="L1" s="255"/>
+      <c r="M1" s="255"/>
+      <c r="N1" s="256"/>
     </row>
     <row r="2" spans="1:15" ht="5.25" customHeight="1"/>
     <row r="3" spans="1:15" s="13" customFormat="1" ht="21.75" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="232" t="s">
+      <c r="B3" s="231" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="233"/>
+      <c r="C3" s="232"/>
       <c r="D3" s="58" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>20</v>
@@ -33501,8 +34453,8 @@
       <c r="N3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="114" t="s">
-        <v>238</v>
+      <c r="O3" s="111" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -33511,8 +34463,8 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="89" t="s">
-        <v>216</v>
+      <c r="D4" s="86" t="s">
+        <v>206</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -33541,7 +34493,7 @@
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="90"/>
+      <c r="D5" s="87"/>
       <c r="E5" s="5"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8" t="s">
@@ -33568,37 +34520,37 @@
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <conditionalFormatting sqref="M4:M100">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH("PASSED",M4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",M4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:N100">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Automation Passed">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Automation Passed">
       <formula>NOT(ISERROR(SEARCH("Automation Passed",M4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Not Passed">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Not Passed">
       <formula>NOT(ISERROR(SEARCH("Not Passed",M4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M4" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"PASSED,FAILED,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5:M102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5:M102" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>"PASSED,FAILED,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N4:N5">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N4:N5" xr:uid="{00000000-0002-0000-0600-000002000000}">
       <formula1>"Automation Passed,Not Passed,Not Tested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0600-000003000000}">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="O3" location="'Test Plan'!A1" display="Home"/>
+    <hyperlink ref="O3" location="'Test Plan'!A1" display="Home" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
